--- a/outputs/ML_Results/mode_MNLR_new/Paris.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13010949" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ17816067" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ22438207" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ27229930" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ32304591" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37057523" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ42141798" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ47385865" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52370416" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ40735802" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ55058166" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ10886601" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ27618471" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ42227142" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ58618831" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ15124478" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32683557" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ49035827" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,24 +485,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-11.32976371802042</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.475913830790266</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.602137066677146</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.6209849591467596</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.007105708391045424</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.05510091950755982</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,24 +498,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.09452214164653132</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.04917116575711733</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.08743047725513968</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5796274738867104</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5661097214955459</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2690230493587761</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -535,24 +511,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.6002242041562235</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6497198798440135</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.9248636877152979</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01615371999158991</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.658162799750576e-07</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.756929295377739e-13</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,24 +524,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.3560150701638312</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08974175275540745</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2857369030150769</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1034958020862053</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3571130469011125</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.00193097414704897</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -585,24 +537,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.1980651589269287</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3321972557537973</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.3848897886898418</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4502578951997415</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0500675858736673</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.327808665293706e-05</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -610,24 +550,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.2051128942125434</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02217472403662036</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.4865168988992018</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2849722988832145</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.795991091754038</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.962214074025356e-07</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -635,24 +563,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.35752056619126</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9841016564001661</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.49492519710099</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.527880501079381e-09</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.430046311028084e-29</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.272354096180566e-36</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -660,24 +576,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1.251347289239604</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.832902160693056</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.486748857582995</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0003619678687180221</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.812076157174101e-39</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.206227921402816e-50</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -685,24 +589,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.306266273116256</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6906073459237396</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.11349537644178</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.617358509642482e-07</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.456139858825631e-12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.808875674692395e-16</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -710,24 +602,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.274875321831987</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.276992257899745</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.054399733899498</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.468977766364609e-22</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.973134546507506e-31</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.716374391905672e-64</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -735,24 +615,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>-23.18959464710614</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.4011901229504859</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.333009801380436</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9998733187320793</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4217293104017389</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.000502085967424922</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -760,24 +628,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.04374067051237016</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1961480732992609</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4040601988634387</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8528750247216264</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.09362319588671461</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0002935151937375602</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -785,24 +641,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1.154819364015664</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8721653002215995</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.725869259841295</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0004115404136153137</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.025274472866612e-08</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.21323964705981e-05</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -810,24 +654,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-12.9344601112982</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2164224979051329</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2028048979706389</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9922135620476851</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7259768658286239</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.7335030863156192</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -835,24 +667,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.4099211493905006</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6246560837989573</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.8762557183886174</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.100379047854373</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.099390599494811e-07</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.555304099100436e-15</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -860,24 +680,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1.691511179978935</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.435042108063059</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.249716916228808</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.194260402028784e-07</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.04927916055173086</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.042500719015582e-13</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -885,24 +693,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.9777847489602806</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7305815264038373</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.502303685669912</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.01836539250781952</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0001339591901418483</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7.235283975102047e-17</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -910,24 +706,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.4992933657681146</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4648543062369654</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.012901632129138</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.6427954746224265</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.3701154060133296</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.002698526368561559</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -935,24 +719,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.4408410967452845</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5068737407396267</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.6913634171016054</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1289819936629833</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0002049329501777322</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.270661006748917e-07</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -960,24 +732,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>6.572505291297031</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.368502223801638</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3346751583973541</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.773761794357551</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.06304126904380124</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5982738372018426</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -985,24 +745,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>5.046377593491729</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.3799644795478068</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-2.027953876692338</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.8253272104136513</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.6085850197707305</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0016632175922211</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1010,24 +758,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>6.625042325408828</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.13419881012499</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2949964048172053</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.7719855162198834</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.1186504615391391</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.6372264837290154</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1035,24 +771,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>7.253341888122948</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.012203206403748</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3158252147662247</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.7510426725678743</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1631514947661235</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.613192429890824</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1060,24 +784,12 @@
           <t>Education[T.Unknown]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>-9.759335662946718</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.567102493095132</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.708527241051461</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9979437025617907</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.05613341152896522</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.01653271554587239</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1085,24 +797,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.2076755923292972</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2691732294453957</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5648532436215113</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.07079665307511444</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.821902728561295e-06</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.530949207679834e-28</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1110,24 +810,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>-0.008407528050604865</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.005167803965508056</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.007888321074260848</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.1405712140334129</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.1051482110941108</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.002141653661587274</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1135,24 +823,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-0.0004524288945622478</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.002986353809479247</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0001344019949864443</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.765879886218313e-34</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.45416130099454e-114</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1160,24 +836,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-2.380475335010067</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-2.579951220071517</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-2.928170407820406</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.165691278129922e-63</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.940388550936366e-156</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.255773443666789e-253</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1185,274 +849,129 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.2144153170408062</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1010449267446287</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.08949061250731112</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7.233931969209551e-07</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.297280039564037e-05</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4.195621923481412e-06</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>5.237447329614836e-06</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.104344581716629e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.509098089579124e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5046966420420897</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3.626892981676784e-06</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0001240898415479627</v>
-      </c>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.01864407459578307</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.02294705693325826</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.01184913692098773</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6130371047658623</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.1246650098425398</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.4072159991193838</v>
-      </c>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.05267741629956087</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.05859534601009425</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.07836453815442983</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0921651152117078</v>
-      </c>
-      <c r="F33" t="n">
-        <v>6.065658038037167e-06</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.440894147291769e-10</v>
-      </c>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2.493324285969795e-08</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-2.335285021873962e-09</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-1.053758471536447e-08</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.3777815184725094</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.8783515925198287</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.4314874547190604</v>
-      </c>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.01925119580884102</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.00682791829666184</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.007118512895758876</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.01193379892123322</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.02097135389944748</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.01210217310818849</v>
-      </c>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.01997539879097894</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.005902846661996568</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.003059404407961384</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.05185168869597857</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.09943402822683643</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.3770760439537184</v>
-      </c>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>3.173309334648231</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.7858110702007414</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.4935897022991947</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2.927202020001992e-05</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.05414694307608527</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.1739020918343038</v>
-      </c>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.6478590904421435</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.4525570895058257</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.5518023991137448</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.2768827478921984</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.1238302123397348</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.03719143709149911</v>
-      </c>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.2247276820489608</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-1.296118683933331</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.240664546598659</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.7843087745428537</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0002489511476798988</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.4706630308732696</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2.319078927447382e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.000111597479868385</v>
-      </c>
-      <c r="D40" t="n">
-        <v>9.947959419591975e-05</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.7005678385631116</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0006834067263021883</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0007216525023235474</v>
-      </c>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1465,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1517,22 +1036,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-22.99552928665762</v>
+        <v>-18.82700290554351</v>
       </c>
       <c r="C2" t="n">
-        <v>2.510039165432488</v>
+        <v>2.695357659734247</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.883478256742697</v>
+        <v>-1.538323415506988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9952517678688508</v>
+        <v>0.9790906714559638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004284400323553079</v>
+        <v>0.001689903267302571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02084616774447774</v>
+        <v>0.03845106453916265</v>
       </c>
     </row>
     <row r="3">
@@ -1542,22 +1061,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.014143623180055</v>
+        <v>-0.08230031611783074</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001533033039144973</v>
+        <v>-0.004865032611298968</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07581676562643619</v>
+        <v>-0.09648549122874606</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9335118590645832</v>
+        <v>0.6212201236417145</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9858101048829631</v>
+        <v>0.9543348912842191</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3386406820469714</v>
+        <v>0.1954352569471075</v>
       </c>
     </row>
     <row r="4">
@@ -1567,22 +1086,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.568830483098023</v>
+        <v>-0.6232615568036872</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6438639537628134</v>
+        <v>-0.5629431100489517</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8125058470151114</v>
+        <v>-0.869124322432418</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02287033270623843</v>
+        <v>0.01100584369855081</v>
       </c>
       <c r="F4" t="n">
-        <v>2.729908511714492e-07</v>
+        <v>5.189958325750937e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>1.149292965660908e-10</v>
+        <v>1.420384560654033e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1592,22 +1111,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3579567273967497</v>
+        <v>-0.310997726309809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1335183568330827</v>
+        <v>0.1114259088551446</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2732151237445538</v>
+        <v>-0.2566312289195006</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1035932691287813</v>
+        <v>0.1395825205029103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1730163123059042</v>
+        <v>0.2506749175743963</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002890610922308883</v>
+        <v>0.003014187248852473</v>
       </c>
     </row>
     <row r="6">
@@ -1617,22 +1136,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02563949337246561</v>
+        <v>-0.04354131998538389</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2515013559398186</v>
+        <v>-0.2648332745293138</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3926366108035086</v>
+        <v>-0.2273879108624997</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9151707483940571</v>
+        <v>0.8563809442372163</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1348775920436949</v>
+        <v>0.1129157438577961</v>
       </c>
       <c r="G6" t="n">
-        <v>3.669862649648714e-05</v>
+        <v>0.008681983524963839</v>
       </c>
     </row>
     <row r="7">
@@ -1642,22 +1161,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05742089320124292</v>
+        <v>-0.2095850654698087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03629266674428341</v>
+        <v>0.05192655160785952</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5084707921942321</v>
+        <v>-0.4936698093445309</v>
       </c>
       <c r="E7" t="n">
-        <v>0.758930060334817</v>
+        <v>0.2621225508314409</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6720844608744697</v>
+        <v>0.5409883651009364</v>
       </c>
       <c r="G7" t="n">
-        <v>1.858765434072382e-07</v>
+        <v>7.260410520216977e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1667,22 +1186,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.36214702649191</v>
+        <v>1.214383775209596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9664817864200318</v>
+        <v>1.009846447245156</v>
       </c>
       <c r="D8" t="n">
-        <v>1.520513586111306</v>
+        <v>1.593201101245225</v>
       </c>
       <c r="E8" t="n">
-        <v>4.057086453931239e-09</v>
+        <v>3.066442031169059e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>5.771967276394868e-28</v>
+        <v>2.602111280955795e-31</v>
       </c>
       <c r="G8" t="n">
-        <v>8.60781333552834e-37</v>
+        <v>8.860146767508431e-44</v>
       </c>
     </row>
     <row r="9">
@@ -1692,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.447926218390063</v>
+        <v>0.9768040884424882</v>
       </c>
       <c r="C9" t="n">
-        <v>1.929410678707063</v>
+        <v>1.884171795733702</v>
       </c>
       <c r="D9" t="n">
-        <v>2.632202747345703</v>
+        <v>2.555199009137067</v>
       </c>
       <c r="E9" t="n">
-        <v>2.001455979654251e-05</v>
+        <v>0.00321459453389069</v>
       </c>
       <c r="F9" t="n">
-        <v>1.126994007017325e-44</v>
+        <v>2.97007966447622e-43</v>
       </c>
       <c r="G9" t="n">
-        <v>9.052125022115373e-56</v>
+        <v>1.576423543810414e-57</v>
       </c>
     </row>
     <row r="10">
@@ -1717,22 +1236,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.172365645706307</v>
+        <v>1.012442627125171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6805828560827392</v>
+        <v>0.7421919253971802</v>
       </c>
       <c r="D10" t="n">
-        <v>1.210148123913356</v>
+        <v>1.149571165381841</v>
       </c>
       <c r="E10" t="n">
-        <v>6.677919940080108e-06</v>
+        <v>5.489492065887735e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>1.169626815618518e-11</v>
+        <v>5.930287994431095e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4846143339676e-18</v>
+        <v>1.949288882894712e-18</v>
       </c>
     </row>
     <row r="11">
@@ -1742,22 +1261,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.293312593965584</v>
+        <v>2.240962945978958</v>
       </c>
       <c r="C11" t="n">
-        <v>1.191166257858614</v>
+        <v>1.355919851106419</v>
       </c>
       <c r="D11" t="n">
-        <v>2.075940962257211</v>
+        <v>2.301534552786638</v>
       </c>
       <c r="E11" t="n">
-        <v>1.897550084169505e-22</v>
+        <v>3.491508371896387e-24</v>
       </c>
       <c r="F11" t="n">
-        <v>5.246153270379932e-27</v>
+        <v>2.254671795437987e-35</v>
       </c>
       <c r="G11" t="n">
-        <v>7.030824090205977e-64</v>
+        <v>1.850548210384583e-85</v>
       </c>
     </row>
     <row r="12">
@@ -1767,22 +1286,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-25.61223606864491</v>
+        <v>-15.04815149332628</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2744020391719039</v>
+        <v>-0.4640836174999506</v>
       </c>
       <c r="D12" t="n">
-        <v>1.431896926055051</v>
+        <v>1.075072079525298</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999570427730509</v>
+        <v>0.9939853521242787</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5386446009035186</v>
+        <v>0.2927574075509894</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002982228641770352</v>
+        <v>0.001966346571048889</v>
       </c>
     </row>
     <row r="13">
@@ -1792,22 +1311,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2370873884542272</v>
+        <v>-0.0699343067271985</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07454305842348835</v>
+        <v>0.1522187535483459</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3393801305917878</v>
+        <v>0.2945140608351662</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2754288981613204</v>
+        <v>0.7632055344733651</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5191116604623625</v>
+        <v>0.1850420502100594</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001909260942597361</v>
+        <v>0.004394596648801262</v>
       </c>
     </row>
     <row r="14">
@@ -1817,22 +1336,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.060952871144611</v>
+        <v>0.8384864886429011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7444354049285689</v>
+        <v>0.8920040882653149</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5255550732282097</v>
+        <v>0.6355199158327899</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001112934151215937</v>
+        <v>0.01366199747740317</v>
       </c>
       <c r="F14" t="n">
-        <v>6.843681402213769e-07</v>
+        <v>2.418424332120769e-09</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002378429646043935</v>
+        <v>7.99173603229487e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1842,22 +1361,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-24.57622237199532</v>
+        <v>-306.8639010690084</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.18700558721689</v>
+        <v>-0.172570725357626</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1539521819989328</v>
+        <v>0.4096731511474903</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999285243503053</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7421869651112871</v>
+        <v>0.7815260511829075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7915700055569656</v>
+        <v>0.4222618595945671</v>
       </c>
     </row>
     <row r="16">
@@ -1867,22 +1386,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3298127073295847</v>
+        <v>0.1880380179081515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5251471641615262</v>
+        <v>0.5131137951094541</v>
       </c>
       <c r="D16" t="n">
-        <v>0.767283650948269</v>
+        <v>0.7458190721909601</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1798358098221151</v>
+        <v>0.4425247116698419</v>
       </c>
       <c r="F16" t="n">
-        <v>1.409536143414135e-05</v>
+        <v>1.57567207974234e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>9.11605591227024e-12</v>
+        <v>1.943354404780843e-12</v>
       </c>
     </row>
     <row r="17">
@@ -1892,22 +1411,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.736934592836279</v>
+        <v>1.929671333911376</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3277230107561523</v>
+        <v>0.4887183669210259</v>
       </c>
       <c r="D17" t="n">
-        <v>1.082310950395041</v>
+        <v>1.381751626852765</v>
       </c>
       <c r="E17" t="n">
-        <v>2.839571043492e-08</v>
+        <v>4.151649685986775e-10</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1363840310258746</v>
+        <v>0.02374262495345128</v>
       </c>
       <c r="G17" t="n">
-        <v>1.423528516152753e-10</v>
+        <v>2.869501265210724e-18</v>
       </c>
     </row>
     <row r="18">
@@ -1917,22 +1436,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7913197932844735</v>
+        <v>1.029133583371808</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5703454222523532</v>
+        <v>0.6400394598023497</v>
       </c>
       <c r="D18" t="n">
-        <v>1.361542004638729</v>
+        <v>1.479908421070137</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05156469268925304</v>
+        <v>0.01101972712197169</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00279651671475802</v>
+        <v>0.0007111785006510939</v>
       </c>
       <c r="G18" t="n">
-        <v>2.139917588652319e-14</v>
+        <v>2.848712255621057e-18</v>
       </c>
     </row>
     <row r="19">
@@ -1942,22 +1461,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.203054959775359</v>
+        <v>1.900627803138029</v>
       </c>
       <c r="C19" t="n">
-        <v>0.520873928257805</v>
+        <v>0.4987912645043668</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7239710052719042</v>
+        <v>1.161768601774078</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1377307079224629</v>
+        <v>0.005855587059282025</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3467072136248244</v>
+        <v>0.334828329352985</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03540404910714054</v>
+        <v>0.0001735617461834725</v>
       </c>
     </row>
     <row r="20">
@@ -1967,22 +1486,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.196782850986323</v>
+        <v>0.4514057990227581</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6046031773579962</v>
+        <v>0.6313188589424801</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6837766409400803</v>
+        <v>0.7730796538965743</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5383718510516908</v>
+        <v>0.1158948771188885</v>
       </c>
       <c r="F20" t="n">
-        <v>1.22312466550368e-05</v>
+        <v>3.629818900375004e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>6.125281308426811e-07</v>
+        <v>1.286510602561058e-09</v>
       </c>
     </row>
     <row r="21">
@@ -1992,22 +1511,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.28536927842219</v>
+        <v>13.90625811611447</v>
       </c>
       <c r="C21" t="n">
-        <v>1.456320915654665</v>
+        <v>1.558545729184871</v>
       </c>
       <c r="D21" t="n">
-        <v>0.795052422584537</v>
+        <v>0.603379444103001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9964308209153391</v>
+        <v>0.9845548355775732</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03320153259804662</v>
+        <v>0.02050074843299424</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1888981966318747</v>
+        <v>0.288446159351338</v>
       </c>
     </row>
     <row r="22">
@@ -2017,22 +1536,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.88976640103714</v>
+        <v>12.50364688545501</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1983449315755129</v>
+        <v>-0.1293340561948854</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.421127585868804</v>
+        <v>-1.588260201691609</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9967189910623744</v>
+        <v>0.9861124984687996</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7737265615999039</v>
+        <v>0.8489427543468857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02081659053110637</v>
+        <v>0.006033018205011315</v>
       </c>
     </row>
     <row r="23">
@@ -2042,22 +1561,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.14636316717458</v>
+        <v>13.77709683585343</v>
       </c>
       <c r="C23" t="n">
-        <v>1.216794443251756</v>
+        <v>1.206876646520022</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7982641857425259</v>
+        <v>0.6469447383051282</v>
       </c>
       <c r="E23" t="n">
-        <v>0.996459523471515</v>
+        <v>0.9846982714012351</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07084993672979027</v>
+        <v>0.06841847656998716</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1797480775376277</v>
+        <v>0.2468866123611022</v>
       </c>
     </row>
     <row r="24">
@@ -2067,22 +1586,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.78119070399007</v>
+        <v>14.49927479684379</v>
       </c>
       <c r="C24" t="n">
-        <v>1.089337093586152</v>
+        <v>1.163827623266</v>
       </c>
       <c r="D24" t="n">
-        <v>0.797494485456035</v>
+        <v>0.7657983323923916</v>
       </c>
       <c r="E24" t="n">
-        <v>0.99632844165467</v>
+        <v>0.9838962802041802</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1054339827435126</v>
+        <v>0.07847662632454781</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1797178663326963</v>
+        <v>0.1699730801036228</v>
       </c>
     </row>
     <row r="25">
@@ -2092,22 +1611,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.07833914364253</v>
+        <v>14.64146144914776</v>
       </c>
       <c r="C25" t="n">
-        <v>1.736810028828497</v>
+        <v>1.470183139905146</v>
       </c>
       <c r="D25" t="n">
-        <v>2.033679322604946</v>
+        <v>1.891195353822589</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9962670853255063</v>
+        <v>0.9837383906417024</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02629395303751565</v>
+        <v>0.05138786489970393</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00331647466706626</v>
+        <v>0.002888833729932324</v>
       </c>
     </row>
     <row r="26">
@@ -2117,22 +1636,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2192396758809499</v>
+        <v>-0.1713959835496699</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2659017422395415</v>
+        <v>0.2931269320944214</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5426516082735171</v>
+        <v>0.5834140439004176</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0524122881404091</v>
+        <v>0.1225986681117469</v>
       </c>
       <c r="F26" t="n">
-        <v>2.444041052342964e-06</v>
+        <v>1.375008167064351e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>1.280553603253333e-26</v>
+        <v>2.169382162486267e-34</v>
       </c>
     </row>
     <row r="27">
@@ -2142,22 +1661,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.006406114181680442</v>
+        <v>-0.004727650945352831</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.004217623859250537</v>
+        <v>-0.004298380117915094</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.006277256936499745</v>
+        <v>-0.005416961077794404</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2540543993254676</v>
+        <v>0.3906460541869401</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1909778899611855</v>
+        <v>0.1714566739430703</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01409785168111382</v>
+        <v>0.02302779624058937</v>
       </c>
     </row>
     <row r="28">
@@ -2167,22 +1686,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004384214719626897</v>
+        <v>-0.0004285688480464087</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.002951573721426356</v>
+        <v>-0.002938642708905135</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001336213009290088</v>
+        <v>5.310445442405792e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>2.200137846674005e-34</v>
+        <v>8.587809158226728e-41</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.45943101268858e-113</v>
+        <v>4.957608490453818e-36</v>
       </c>
     </row>
     <row r="29">
@@ -2192,22 +1711,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.317801454847535</v>
+        <v>-2.379074312528249</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.547410657902311</v>
+        <v>-2.645078004148667</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.881821193198951</v>
+        <v>-2.907851269630966</v>
       </c>
       <c r="E29" t="n">
-        <v>4.917952190072096e-61</v>
+        <v>1.163000769133359e-66</v>
       </c>
       <c r="F29" t="n">
-        <v>1.545464996220194e-155</v>
+        <v>2.107560752324007e-176</v>
       </c>
       <c r="G29" t="n">
-        <v>3.968848720679254e-249</v>
+        <v>9.088809254061805e-288</v>
       </c>
     </row>
     <row r="30">
@@ -2217,272 +1736,247 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1521639884853385</v>
+        <v>0.1778653593179579</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08232032890042669</v>
+        <v>0.09986338033870111</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07935936230098872</v>
+        <v>0.09872621460914702</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0004244196488051832</v>
+        <v>2.392948521146525e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.000379143580145279</v>
+        <v>1.041764015945157e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>4.462474102348001e-05</v>
+        <v>4.765727382392526e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.903983612420773e-06</v>
+        <v>1.59240652444736e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>2.277887716063155e-05</v>
+        <v>2.693909748682969e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>1.374286039702327e-05</v>
+        <v>1.647381433919578e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5277471701703645</v>
+        <v>0.08741980722507048</v>
       </c>
       <c r="F31" t="n">
-        <v>5.148793552523349e-07</v>
+        <v>4.989135736221155e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0004571774214514242</v>
+        <v>0.0007015214495758884</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06385839013918532</v>
+        <v>0.03874938563077178</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02235603575696623</v>
+        <v>-0.01126013334686294</v>
       </c>
       <c r="D32" t="n">
-        <v>0.005024968118369647</v>
+        <v>0.01921628723051153</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06946006901775437</v>
+        <v>0.2538254327876154</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1338344744383241</v>
+        <v>0.4299239237389086</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7249762882604009</v>
+        <v>0.1349727637374301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.02264948690694079</v>
+        <v>-0.01689687435378293</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.06616255436771949</v>
+        <v>-0.07964693422859501</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.08403686260088448</v>
+        <v>-0.07841758011266763</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4413891164276813</v>
+        <v>0.5021313293917362</v>
       </c>
       <c r="F33" t="n">
-        <v>3.554940893508573e-07</v>
+        <v>1.646010295730312e-12</v>
       </c>
       <c r="G33" t="n">
-        <v>1.852096974087165e-11</v>
+        <v>5.861689625383752e-15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.010798314408038e-08</v>
+        <v>0.01637405396798012</v>
       </c>
       <c r="C34" t="n">
-        <v>2.727598125995856e-10</v>
+        <v>0.009543053761791043</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.041004718299297e-10</v>
+        <v>0.007033428143586665</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2688782915908866</v>
+        <v>0.01226986986908409</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9855251842453162</v>
+        <v>0.0005860190039855592</v>
       </c>
       <c r="G34" t="n">
-        <v>0.993717123137378</v>
+        <v>0.003851502499806256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02371570384498149</v>
+        <v>0.02234575313397417</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005684268329614468</v>
+        <v>0.007503799449710568</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006620896199999013</v>
+        <v>0.002152997332669105</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001299109932034884</v>
+        <v>0.01549407256517199</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05439931706538317</v>
+        <v>0.03335137686687638</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01834820565704338</v>
+        <v>0.4922979277075691</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02474332168840001</v>
+        <v>3.044045253709213</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006349134129227938</v>
+        <v>-0.8324040034280934</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002370976969524114</v>
+        <v>-0.5062064196974347</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01160701012276814</v>
+        <v>1.369436378788094e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07550195484161393</v>
+        <v>0.03205926486079234</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4943428899720305</v>
+        <v>0.1171641885175667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.922056003226856</v>
+        <v>-0.8708762119189367</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.306781636302129</v>
+        <v>-1.21368948764642</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.8899754826149193</v>
+        <v>-1.07865333592699</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0001151875736128358</v>
+        <v>0.1140418639873867</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001512452766256487</v>
+        <v>1.028435013059019e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01449508987183981</v>
+        <v>4.57071440782946e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.9204651675150889</v>
+        <v>0.2330943499473461</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.4450403356675526</v>
+        <v>-1.167496872877375</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.6637193812747834</v>
+        <v>-0.08569535598700238</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1252190312390893</v>
+        <v>0.7451413397468285</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1281627804928532</v>
+        <v>0.0003516530722940916</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01211733757910836</v>
+        <v>0.7674299682873236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2749876062005072</v>
+        <v>7.361715213561439e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.431216111977978</v>
+        <v>8.862541762635638e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3200683757032844</v>
+        <v>8.160569025313461e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7332071301921423</v>
+        <v>0.03196806043234532</v>
       </c>
       <c r="F39" t="n">
-        <v>5.24192041057601e-05</v>
+        <v>5.180955096586439e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3358456898980512</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>4.689263519689015e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0001150133385080274</v>
-      </c>
-      <c r="D40" t="n">
-        <v>9.729202784601549e-05</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4256694524123836</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0004614374104847052</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0008984067747614826</v>
+        <v>1.21460899051885e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,22 +2042,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-19.63648734360736</v>
+        <v>-34.44712219638649</v>
       </c>
       <c r="C2" t="n">
-        <v>1.738618581449659</v>
+        <v>2.388665338859358</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.714497083947344</v>
+        <v>-1.582509626586794</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9761128508806911</v>
+        <v>0.9999751318054938</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05779395917295441</v>
+        <v>0.007682496504774378</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03204342011398319</v>
+        <v>0.04086317638640338</v>
       </c>
     </row>
     <row r="3">
@@ -2573,22 +2067,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02340578710398943</v>
+        <v>-0.1143878655171979</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01565059152283544</v>
+        <v>-0.04684628632282817</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09555159126101515</v>
+        <v>-0.09108636081068157</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8912839491097344</v>
+        <v>0.4900330112901872</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8548614409279368</v>
+        <v>0.5811534546803037</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2285486455176139</v>
+        <v>0.224059499928163</v>
       </c>
     </row>
     <row r="4">
@@ -2598,22 +2092,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5252791869460203</v>
+        <v>-0.7163007494669976</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6731030759752689</v>
+        <v>-0.6890592483293141</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.008511701876875</v>
+        <v>-0.8671942964895841</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03279120596641644</v>
+        <v>0.003661725128803384</v>
       </c>
       <c r="F4" t="n">
-        <v>6.091415930698539e-08</v>
+        <v>1.839202635294882e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>2.932626888141551e-15</v>
+        <v>1.044601494479718e-12</v>
       </c>
     </row>
     <row r="5">
@@ -2623,22 +2117,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2559968768494583</v>
+        <v>-0.4132307088121906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1329912908502271</v>
+        <v>0.1151889096586063</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.300773617407014</v>
+        <v>-0.2936072066080899</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2278355852760516</v>
+        <v>0.05134251461151199</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1738136158061939</v>
+        <v>0.2365849180169204</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001131467764370145</v>
+        <v>0.0007257450967272555</v>
       </c>
     </row>
     <row r="6">
@@ -2648,22 +2142,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006352151548369212</v>
+        <v>-0.04496896474715967</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3106840382049744</v>
+        <v>-0.3092896332772749</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4574920933673859</v>
+        <v>-0.2668431473276189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9792406479656026</v>
+        <v>0.8500265027725604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06415321445671483</v>
+        <v>0.05981363928266712</v>
       </c>
       <c r="G6" t="n">
-        <v>1.935698366410626e-06</v>
+        <v>0.002366392598559149</v>
       </c>
     </row>
     <row r="7">
@@ -2673,22 +2167,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02712266171140558</v>
+        <v>-0.1172160415486824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0867413373673299</v>
+        <v>0.02036370789547052</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5166177075851083</v>
+        <v>-0.4528837916459497</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8839190816303273</v>
+        <v>0.5220676435731546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3102099952480487</v>
+        <v>0.809903191831405</v>
       </c>
       <c r="G7" t="n">
-        <v>1.125311169301985e-07</v>
+        <v>1.086331651306687e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2698,22 +2192,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.207982168789621</v>
+        <v>1.433172552777497</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9801598754054119</v>
+        <v>1.042958569825352</v>
       </c>
       <c r="D8" t="n">
-        <v>1.508332648313753</v>
+        <v>1.537308963085646</v>
       </c>
       <c r="E8" t="n">
-        <v>6.647679754848242e-08</v>
+        <v>2.718901546305622e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>5.052588031238907e-29</v>
+        <v>2.261137674340388e-33</v>
       </c>
       <c r="G8" t="n">
-        <v>2.045761715020851e-36</v>
+        <v>3.849153603306247e-42</v>
       </c>
     </row>
     <row r="9">
@@ -2723,22 +2217,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.241374657127302</v>
+        <v>1.53856671896721</v>
       </c>
       <c r="C9" t="n">
-        <v>1.829409716770159</v>
+        <v>1.953531323276544</v>
       </c>
       <c r="D9" t="n">
-        <v>2.480048744868747</v>
+        <v>2.637469405740802</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002240263695888614</v>
+        <v>5.402608983386783e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>4.612487310535254e-40</v>
+        <v>2.716021791820447e-46</v>
       </c>
       <c r="G9" t="n">
-        <v>2.748495049648641e-49</v>
+        <v>1.50596932406703e-61</v>
       </c>
     </row>
     <row r="10">
@@ -2748,22 +2242,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.052414669390697</v>
+        <v>1.22776627199847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7466941201262866</v>
+        <v>0.7178112269275256</v>
       </c>
       <c r="D10" t="n">
-        <v>1.125739596062049</v>
+        <v>1.048619539778594</v>
       </c>
       <c r="E10" t="n">
-        <v>3.202134110770735e-05</v>
+        <v>1.160892442399856e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>7.710745161291487e-14</v>
+        <v>2.830171609743988e-13</v>
       </c>
       <c r="G10" t="n">
-        <v>2.793426327958999e-16</v>
+        <v>7.152728564826357e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2773,22 +2267,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.174014364204069</v>
+        <v>2.353512220478098</v>
       </c>
       <c r="C11" t="n">
-        <v>1.209865278515722</v>
+        <v>1.364287919745736</v>
       </c>
       <c r="D11" t="n">
-        <v>2.052357498616608</v>
+        <v>2.20471544342985</v>
       </c>
       <c r="E11" t="n">
-        <v>1.51996800349467e-21</v>
+        <v>1.924203685061702e-24</v>
       </c>
       <c r="F11" t="n">
-        <v>1.71927881301831e-28</v>
+        <v>7.300916910166697e-36</v>
       </c>
       <c r="G11" t="n">
-        <v>6.673826014933799e-63</v>
+        <v>8.014667467278953e-80</v>
       </c>
     </row>
     <row r="12">
@@ -2798,22 +2292,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-21.2492966838633</v>
+        <v>-21.68583458173316</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2466999155900456</v>
+        <v>-0.3115754701066443</v>
       </c>
       <c r="D12" t="n">
-        <v>1.34787715834525</v>
+        <v>0.597887864437709</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9996916415107844</v>
+        <v>0.9997111247528704</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6031102288332366</v>
+        <v>0.5025210279645628</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001077927621367318</v>
+        <v>0.1163053783421238</v>
       </c>
     </row>
     <row r="13">
@@ -2823,22 +2317,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1700606372360332</v>
+        <v>0.003759459305682223</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1439779101961152</v>
+        <v>0.1426280200278083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3280399879415138</v>
+        <v>0.3307466627850947</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4431479523569138</v>
+        <v>0.9867145375525715</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2126128360112841</v>
+        <v>0.2122486037187163</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003029713821296299</v>
+        <v>0.001334208871541782</v>
       </c>
     </row>
     <row r="14">
@@ -2848,22 +2342,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8146388307592993</v>
+        <v>0.9404697879552435</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7354637517576945</v>
+        <v>0.7914203960214309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7127728024041875</v>
+        <v>0.7168585921952293</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0211573603400407</v>
+        <v>0.003572040273238901</v>
       </c>
       <c r="F14" t="n">
-        <v>1.071017113261842e-06</v>
+        <v>1.256953010022725e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>2.528751195187567e-05</v>
+        <v>9.530223923985694e-06</v>
       </c>
     </row>
     <row r="15">
@@ -2873,22 +2367,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.22067519925832</v>
+        <v>-18.11766752378441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1182308534575158</v>
+        <v>0.2590327764553321</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1243910173486152</v>
+        <v>0.158064824709039</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9759796754245827</v>
+        <v>0.9988037615428635</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8505148286055708</v>
+        <v>0.677490458842399</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8242115231758285</v>
+        <v>0.7530574471953134</v>
       </c>
     </row>
     <row r="16">
@@ -2898,22 +2392,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4497935012224288</v>
+        <v>0.1492835274060023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5317012724408132</v>
+        <v>0.5613338335564473</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7837212151228671</v>
+        <v>0.746413376024771</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06801150269676469</v>
+        <v>0.5311056870056658</v>
       </c>
       <c r="F16" t="n">
-        <v>9.818612179721161e-06</v>
+        <v>2.546957843968407e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>4.338653659973571e-12</v>
+        <v>2.974407411112248e-12</v>
       </c>
     </row>
     <row r="17">
@@ -2923,22 +2417,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.680823297415271</v>
+        <v>1.707772052615984</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2660584432366531</v>
+        <v>0.3495669747092458</v>
       </c>
       <c r="D17" t="n">
-        <v>1.193575246221524</v>
+        <v>1.268977080256999</v>
       </c>
       <c r="E17" t="n">
-        <v>1.245976010156786e-07</v>
+        <v>3.945632041069714e-08</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2267259883414529</v>
+        <v>0.107093721106592</v>
       </c>
       <c r="G17" t="n">
-        <v>1.981779230937925e-12</v>
+        <v>1.274711683180729e-15</v>
       </c>
     </row>
     <row r="18">
@@ -2948,22 +2442,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8030810789893442</v>
+        <v>0.6894007463654777</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6123202825075549</v>
+        <v>0.61399428192879</v>
       </c>
       <c r="D18" t="n">
-        <v>1.404308402882036</v>
+        <v>1.478275202990707</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04783340929867295</v>
+        <v>0.08748709291311228</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001274296093379554</v>
+        <v>0.001152509983882372</v>
       </c>
       <c r="G18" t="n">
-        <v>5.145233096626427e-15</v>
+        <v>5.068866565158549e-18</v>
       </c>
     </row>
     <row r="19">
@@ -2973,22 +2467,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4184096856367296</v>
+        <v>1.505058522031747</v>
       </c>
       <c r="C19" t="n">
-        <v>0.32940328170827</v>
+        <v>0.3557430345808751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.754609734995577</v>
+        <v>0.9676496395899705</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6976530165750713</v>
+        <v>0.02782263858858089</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5458293480142862</v>
+        <v>0.4717649958756726</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03317319717743015</v>
+        <v>0.001238458069334897</v>
       </c>
     </row>
     <row r="20">
@@ -2998,22 +2492,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2873227770697904</v>
+        <v>0.3342960158162152</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4669313705521125</v>
+        <v>0.6388877137291058</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6308715900261193</v>
+        <v>0.7751150341839521</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3294936579519753</v>
+        <v>0.2543799977263237</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000511462653847711</v>
+        <v>1.98976802922895e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.184524271564358e-06</v>
+        <v>1.429597142936001e-09</v>
       </c>
     </row>
     <row r="21">
@@ -3023,22 +2517,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.51760786947503</v>
+        <v>28.80064686232185</v>
       </c>
       <c r="C21" t="n">
-        <v>1.994012749949559</v>
+        <v>1.42202048635981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5120781738393487</v>
+        <v>0.6448384734835247</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9835549359719925</v>
+        <v>0.9999792081299557</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006044861952277639</v>
+        <v>0.04770480146936433</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3802594114965455</v>
+        <v>0.2888179058595489</v>
       </c>
     </row>
     <row r="22">
@@ -3048,22 +2542,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.24302088173341</v>
+        <v>27.40379381829005</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3556754079770391</v>
+        <v>-0.3159041629068243</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.715511856096251</v>
+        <v>-1.69539233843116</v>
       </c>
       <c r="E22" t="n">
-        <v>0.985105366718445</v>
+        <v>0.9999802165512975</v>
       </c>
       <c r="F22" t="n">
-        <v>0.62698624634373</v>
+        <v>0.6627415094289557</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003877637105415229</v>
+        <v>0.006049335313945561</v>
       </c>
     </row>
     <row r="23">
@@ -3073,22 +2567,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.44311850609948</v>
+        <v>28.62384699263166</v>
       </c>
       <c r="C23" t="n">
-        <v>1.78952918233855</v>
+        <v>1.173021707470548</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5159217790689277</v>
+        <v>0.7254389470999089</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9836455430659784</v>
+        <v>0.9999793357659748</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01256865706921406</v>
+        <v>0.09787693064457358</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3681258662214498</v>
+        <v>0.225642504805812</v>
       </c>
     </row>
     <row r="24">
@@ -3098,22 +2592,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.05466955442674</v>
+        <v>29.21045844714082</v>
       </c>
       <c r="C24" t="n">
-        <v>1.633663180377098</v>
+        <v>1.079050567422329</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5346740712310543</v>
+        <v>0.8260695405032908</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9829016613107463</v>
+        <v>0.999978912277253</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02255156557756237</v>
+        <v>0.1273646586857985</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3504244752115139</v>
+        <v>0.1670630471834054</v>
       </c>
     </row>
     <row r="25">
@@ -3123,22 +2617,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.37028908195254</v>
+        <v>29.28047252193986</v>
       </c>
       <c r="C25" t="n">
-        <v>2.207510785847446</v>
+        <v>1.479031474309399</v>
       </c>
       <c r="D25" t="n">
-        <v>1.979111962621508</v>
+        <v>1.873548798155122</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9825177644409421</v>
+        <v>0.9999788617324318</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006805745313573662</v>
+        <v>0.06371080659538746</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0032385956367815</v>
+        <v>0.0054527607308589</v>
       </c>
     </row>
     <row r="26">
@@ -3148,22 +2642,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2354592000806175</v>
+        <v>-0.2030392570943189</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2359601292526552</v>
+        <v>0.2857397048937093</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5425229207034893</v>
+        <v>0.5521265497746468</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03700293845678007</v>
+        <v>0.06623254614958027</v>
       </c>
       <c r="F26" t="n">
-        <v>2.704985859840644e-05</v>
+        <v>2.867693308149599e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>1.913891743528836e-26</v>
+        <v>1.561823358037835e-30</v>
       </c>
     </row>
     <row r="27">
@@ -3173,22 +2667,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.008719646849899801</v>
+        <v>-0.002162019608315266</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.005807508455052464</v>
+        <v>-0.00517717809935615</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.007902523388148284</v>
+        <v>-0.006716053032742208</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1221318557114416</v>
+        <v>0.6909913871147522</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06794446027831395</v>
+        <v>0.0990963985641628</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002072312186394305</v>
+        <v>0.005194435773833177</v>
       </c>
     </row>
     <row r="28">
@@ -3198,22 +2692,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004341268972215601</v>
+        <v>-0.0004548368842731066</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.002933299834494738</v>
+        <v>-0.00289265856602367</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001338041199563016</v>
+        <v>5.416318295628989e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>4.573303349924764e-34</v>
+        <v>7.344732749222583e-43</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.718228433943183e-112</v>
+        <v>6.609920132258928e-37</v>
       </c>
     </row>
     <row r="29">
@@ -3223,22 +2717,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.24692496800419</v>
+        <v>-2.413522744897375</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.566551631997041</v>
+        <v>-2.713483667465379</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.839144157068632</v>
+        <v>-2.966149796677622</v>
       </c>
       <c r="E29" t="n">
-        <v>3.560771571913841e-57</v>
+        <v>3.007050052402026e-68</v>
       </c>
       <c r="F29" t="n">
-        <v>4.276945127105241e-159</v>
+        <v>1.505833359727024e-178</v>
       </c>
       <c r="G29" t="n">
-        <v>4.49912975845317e-246</v>
+        <v>3.83709037491629e-287</v>
       </c>
     </row>
     <row r="30">
@@ -3248,272 +2742,247 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1525842487837522</v>
+        <v>0.1510712095658756</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09528501231696886</v>
+        <v>0.1088476181520088</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07045917021749605</v>
+        <v>0.07513469546191157</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0004018724999130494</v>
+        <v>0.000375566368340587</v>
       </c>
       <c r="F30" t="n">
-        <v>3.610841451468004e-05</v>
+        <v>1.822832974712692e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0002812721419025851</v>
+        <v>3.771019646506452e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.874162376758148e-06</v>
+        <v>2.563583430378032e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>2.247245875807819e-05</v>
+        <v>3.262289150800598e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>1.478279214075819e-05</v>
+        <v>1.936337130552796e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6186794153158175</v>
+        <v>0.006029398276416025</v>
       </c>
       <c r="F31" t="n">
-        <v>6.868780185108848e-07</v>
+        <v>3.247785681810331e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001716391028189859</v>
+        <v>7.325815882024693e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.07311546898358666</v>
+        <v>0.03074616286784248</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02360917223359752</v>
+        <v>-0.01022449512973577</v>
       </c>
       <c r="D32" t="n">
-        <v>0.008921845639768293</v>
+        <v>0.0300892455162113</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03880340500145178</v>
+        <v>0.3622823150502401</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1142995056972129</v>
+        <v>0.4783553434785103</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5326401305203878</v>
+        <v>0.02027090313282729</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.04177232430730674</v>
+        <v>-0.01056644564191959</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.06436064883187234</v>
+        <v>-0.07404966324366248</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07697929635535823</v>
+        <v>-0.07637816885776456</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1584905801980182</v>
+        <v>0.6717401846080195</v>
       </c>
       <c r="F33" t="n">
-        <v>7.554724217377363e-07</v>
+        <v>5.151553082111006e-11</v>
       </c>
       <c r="G33" t="n">
-        <v>8.780186587057755e-10</v>
+        <v>4.601389123013767e-14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.130991299196951e-08</v>
+        <v>0.01605698484245227</v>
       </c>
       <c r="C34" t="n">
-        <v>-8.701206977552472e-09</v>
+        <v>0.01141131921601573</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.512257970129681e-09</v>
+        <v>0.008233096339318702</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2538682783557167</v>
+        <v>0.01484428388634978</v>
       </c>
       <c r="F34" t="n">
-        <v>0.563806556213734</v>
+        <v>4.110521640132287e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7354243772588744</v>
+        <v>0.0007357117033393417</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02486155070441942</v>
+        <v>0.02708795314816644</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00825999963949889</v>
+        <v>0.009458361195914608</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006034514243986373</v>
+        <v>0.003419036634019677</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0007791795254793324</v>
+        <v>0.003004151258280021</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005074674480428044</v>
+        <v>0.007592619129385805</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03213915236793419</v>
+        <v>0.2791882064666088</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03109855230513251</v>
+        <v>2.578094851240198</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007189505139285539</v>
+        <v>-1.028331290643039</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00234363073876726</v>
+        <v>-0.5042693283186789</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001614814018131485</v>
+        <v>0.000226607273451946</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04530079539666997</v>
+        <v>0.007500751155785518</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5003959118027923</v>
+        <v>0.1182345651472959</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.215050190519908</v>
+        <v>-0.5822375912862404</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8045426210443309</v>
+        <v>-1.188441475267814</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4879448009229358</v>
+        <v>-1.109331462017503</v>
       </c>
       <c r="E37" t="n">
-        <v>2.135320094635908e-05</v>
+        <v>0.3022238896360426</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04871526791208787</v>
+        <v>1.565920121007512e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1794705699071225</v>
+        <v>2.531178077684278e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.8548127637104121</v>
+        <v>0.9385344680841338</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.4528170914328772</v>
+        <v>-0.9577038261790624</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.4730131819883932</v>
+        <v>-0.1440926511798066</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1479342045443945</v>
+        <v>0.1917766591897324</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1201874761794086</v>
+        <v>0.003342086691764164</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0717592093281328</v>
+        <v>0.6199707394789187</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3649577891569845</v>
+        <v>8.325116410556554e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.160898735569872</v>
+        <v>8.780502213784581e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1087220424898905</v>
+        <v>7.817270469972704e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6507075983079229</v>
+        <v>0.01497302484307284</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001015773167080207</v>
+        <v>5.083967300797613e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7460134623786044</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1.673491881775997e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0001070837003615542</v>
-      </c>
-      <c r="D40" t="n">
-        <v>9.512281879621662e-05</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.7770607508755435</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0009831193717440314</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.001120593412464398</v>
+        <v>2.582013784715038e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +2996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3952,7 +3421,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -3965,7 +3434,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -3978,7 +3447,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -3991,7 +3460,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -4004,7 +3473,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -4017,7 +3486,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -4030,7 +3499,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -4043,7 +3512,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -4056,7 +3525,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -4065,19 +3534,6 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4090,7 +3546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4142,22 +3598,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-24.68424863349038</v>
+        <v>-22.63161568786684</v>
       </c>
       <c r="C2" t="n">
-        <v>2.735264482084756</v>
+        <v>2.398913053803507</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.839205720105108</v>
+        <v>-1.793816006661984</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981450969918262</v>
+        <v>0.9930646740849127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002769354776930015</v>
+        <v>0.004837545126397425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02572091925738896</v>
+        <v>0.01306520579343909</v>
       </c>
     </row>
     <row r="3">
@@ -4167,22 +3623,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1050844717599965</v>
+        <v>0.05875696879802695</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01640057053821123</v>
+        <v>-0.02712737660279183</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08548582690139794</v>
+        <v>-0.04280914703700046</v>
       </c>
       <c r="E3" t="n">
-        <v>0.539229451700277</v>
+        <v>0.7218856229485646</v>
       </c>
       <c r="F3" t="n">
-        <v>0.847875709214147</v>
+        <v>0.7494368340678368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2814805153637457</v>
+        <v>0.5661477940211711</v>
       </c>
     </row>
     <row r="4">
@@ -4192,22 +3648,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4924179513138778</v>
+        <v>-0.5764738604876413</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6139240295042808</v>
+        <v>-0.6532723639335548</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8471292869241895</v>
+        <v>-0.9053663559836265</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04261074555298807</v>
+        <v>0.01902171734996879</v>
       </c>
       <c r="F4" t="n">
-        <v>7.89053051568802e-07</v>
+        <v>1.288921715569346e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>1.932099991228667e-11</v>
+        <v>1.563414576571368e-13</v>
       </c>
     </row>
     <row r="5">
@@ -4217,22 +3673,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3370679628428694</v>
+        <v>-0.4518081881238505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1440735224943601</v>
+        <v>0.1201304019289147</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2441312248582126</v>
+        <v>-0.2629270895975623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1202578753407746</v>
+        <v>0.04415972387120985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1424784976245481</v>
+        <v>0.2161319070769021</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007961239406223243</v>
+        <v>0.002661071460004316</v>
       </c>
     </row>
     <row r="6">
@@ -4242,22 +3698,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03853155001657248</v>
+        <v>0.06439620421237087</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3241677387484672</v>
+        <v>-0.1874464912594825</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.469350552893616</v>
+        <v>-0.2091031470188654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8745671353445302</v>
+        <v>0.789687616791892</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0511190084092281</v>
+        <v>0.2722741070518386</v>
       </c>
       <c r="G6" t="n">
-        <v>8.412856775752837e-07</v>
+        <v>0.01724500435236325</v>
       </c>
     </row>
     <row r="7">
@@ -4267,22 +3723,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1765611623041859</v>
+        <v>-0.08518026863397864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01595637117318704</v>
+        <v>0.03918368847477046</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5174180553039972</v>
+        <v>-0.47925801889012</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3457451231062922</v>
+        <v>0.6449239857271353</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8508057864110538</v>
+        <v>0.6431118006668506</v>
       </c>
       <c r="G7" t="n">
-        <v>8.581840307745406e-08</v>
+        <v>2.016777152379519e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4292,22 +3748,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.33422880779353</v>
+        <v>1.382575991200028</v>
       </c>
       <c r="C8" t="n">
-        <v>1.016109544902733</v>
+        <v>1.022322238602809</v>
       </c>
       <c r="D8" t="n">
-        <v>1.459025152897333</v>
+        <v>1.656270963862794</v>
       </c>
       <c r="E8" t="n">
-        <v>3.618521901039678e-09</v>
+        <v>1.810388206865651e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>2.872242273697244e-31</v>
+        <v>8.495261641480732e-32</v>
       </c>
       <c r="G8" t="n">
-        <v>7.426887192873358e-36</v>
+        <v>3.795562358777049e-46</v>
       </c>
     </row>
     <row r="9">
@@ -4317,22 +3773,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.267594908210652</v>
+        <v>1.290368984343381</v>
       </c>
       <c r="C9" t="n">
-        <v>1.871086969125253</v>
+        <v>1.955080454970854</v>
       </c>
       <c r="D9" t="n">
-        <v>2.416297263156305</v>
+        <v>2.605553375295165</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001879712814262938</v>
+        <v>0.0001645621827503012</v>
       </c>
       <c r="F9" t="n">
-        <v>1.131829867456111e-41</v>
+        <v>2.5112147098122e-46</v>
       </c>
       <c r="G9" t="n">
-        <v>1.505029562216702e-48</v>
+        <v>2.670316946433919e-59</v>
       </c>
     </row>
     <row r="10">
@@ -4342,22 +3798,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.163709236635122</v>
+        <v>1.1361513579777</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6877441786089594</v>
+        <v>0.7354771395238664</v>
       </c>
       <c r="D10" t="n">
-        <v>1.053991146208178</v>
+        <v>1.077821184460144</v>
       </c>
       <c r="E10" t="n">
-        <v>4.688537406321399e-06</v>
+        <v>1.068376148871664e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>2.911922017365813e-12</v>
+        <v>9.121781278696985e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>7.521979399958996e-15</v>
+        <v>6.170166384208083e-16</v>
       </c>
     </row>
     <row r="11">
@@ -4367,22 +3823,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.248582611694519</v>
+        <v>2.381798794068144</v>
       </c>
       <c r="C11" t="n">
-        <v>1.253659253425127</v>
+        <v>1.37163586813841</v>
       </c>
       <c r="D11" t="n">
-        <v>2.059995262376585</v>
+        <v>2.310578212420482</v>
       </c>
       <c r="E11" t="n">
-        <v>2.139543363330307e-22</v>
+        <v>1.53223445147398e-24</v>
       </c>
       <c r="F11" t="n">
-        <v>9.266832272310787e-30</v>
+        <v>5.765559402244498e-36</v>
       </c>
       <c r="G11" t="n">
-        <v>1.721456335493166e-65</v>
+        <v>4.179052133859029e-84</v>
       </c>
     </row>
     <row r="12">
@@ -4392,22 +3848,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20.82364687476316</v>
+        <v>-20.36620612106491</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3518169602824593</v>
+        <v>-0.229508678790156</v>
       </c>
       <c r="D12" t="n">
-        <v>1.001503128229368</v>
+        <v>0.7469877020854749</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9995708387697988</v>
+        <v>0.9994852733743106</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4342491039468941</v>
+        <v>0.6167620755469996</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0105528226701978</v>
+        <v>0.04059578588079164</v>
       </c>
     </row>
     <row r="13">
@@ -4417,22 +3873,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1934988713178329</v>
+        <v>0.1289124008769507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1172501350263128</v>
+        <v>0.1060515079081395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3630281942229315</v>
+        <v>0.2947429946492351</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3779852599129819</v>
+        <v>0.5490570234789407</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3147895438899834</v>
+        <v>0.3544800131992356</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001073715914814984</v>
+        <v>0.003949849262846165</v>
       </c>
     </row>
     <row r="14">
@@ -4442,22 +3898,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6630731835009368</v>
+        <v>0.6882990204479681</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7453071292314332</v>
+        <v>0.6206237988502524</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6769317907537872</v>
+        <v>0.5759073800169947</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06974865132420675</v>
+        <v>0.0510500704715109</v>
       </c>
       <c r="F14" t="n">
-        <v>6.347256541902322e-07</v>
+        <v>3.721075906371421e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>8.111122840763672e-05</v>
+        <v>0.0003988524022811078</v>
       </c>
     </row>
     <row r="15">
@@ -4467,22 +3923,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-13.78292414120116</v>
+        <v>-10.66860087185898</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3198125240935795</v>
+        <v>-0.06158189308860702</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03299746289682534</v>
+        <v>0.01785686207331505</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9913341886444224</v>
+        <v>0.9698023681186091</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5997891915093804</v>
+        <v>0.9151182269149455</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9512803108489766</v>
+        <v>0.975102937214346</v>
       </c>
     </row>
     <row r="16">
@@ -4492,22 +3948,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3725189217604956</v>
+        <v>0.2806876281138467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521552792714908</v>
+        <v>0.5652402960924799</v>
       </c>
       <c r="D16" t="n">
-        <v>0.801445608865197</v>
+        <v>0.6734831609721098</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1274091917907684</v>
+        <v>0.240331501411715</v>
       </c>
       <c r="F16" t="n">
-        <v>1.306227636968381e-05</v>
+        <v>2.073597068987996e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>1.133604839167271e-12</v>
+        <v>2.801881247072401e-10</v>
       </c>
     </row>
     <row r="17">
@@ -4517,22 +3973,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.572775496730191</v>
+        <v>1.930411196289688</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3881462027195099</v>
+        <v>0.4973411923461138</v>
       </c>
       <c r="D17" t="n">
-        <v>1.283692749925888</v>
+        <v>1.449390471241924</v>
       </c>
       <c r="E17" t="n">
-        <v>9.70225471582127e-07</v>
+        <v>3.087189195711329e-10</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07906191810711583</v>
+        <v>0.02317517281994966</v>
       </c>
       <c r="G17" t="n">
-        <v>3.870775776214792e-14</v>
+        <v>6.501708155669483e-20</v>
       </c>
     </row>
     <row r="18">
@@ -4542,22 +3998,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8275259883942039</v>
+        <v>0.8021696691688328</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6053749825362382</v>
+        <v>0.5906340848676047</v>
       </c>
       <c r="D18" t="n">
-        <v>1.48717953742077</v>
+        <v>1.465534402421054</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04133249650168221</v>
+        <v>0.04808492987699539</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001498527140970791</v>
+        <v>0.001859075618749097</v>
       </c>
       <c r="G18" t="n">
-        <v>8.24074377358516e-17</v>
+        <v>8.335625779172306e-18</v>
       </c>
     </row>
     <row r="19">
@@ -4567,22 +4023,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.177142899512607</v>
+        <v>0.4649377215428272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1288252511242851</v>
+        <v>0.5686333659300528</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8968660109558282</v>
+        <v>0.9747584826319668</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1490786323779887</v>
+        <v>0.6623299031501841</v>
       </c>
       <c r="F19" t="n">
-        <v>0.824090846824201</v>
+        <v>0.2688971830540391</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01336268918522094</v>
+        <v>0.001307496874880646</v>
       </c>
     </row>
     <row r="20">
@@ -4592,22 +4048,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4431226690404084</v>
+        <v>0.3734157578971598</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5001476446295898</v>
+        <v>0.5490802692146258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.643743215332047</v>
+        <v>0.7236498450700244</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1168662521942885</v>
+        <v>0.1935641250538015</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0001680497137071473</v>
+        <v>3.724265661254553e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>1.793369402450158e-06</v>
+        <v>1.152876820311631e-08</v>
       </c>
     </row>
     <row r="21">
@@ -4617,22 +4073,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.01068386051029</v>
+        <v>16.56355983371377</v>
       </c>
       <c r="C21" t="n">
-        <v>1.333445499240879</v>
+        <v>1.568837295450334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7617651020297791</v>
+        <v>0.6539728377238327</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9985714376627174</v>
+        <v>0.9949241638343521</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0677426771552045</v>
+        <v>0.01813806391879018</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2229753942145662</v>
+        <v>0.2264231539428548</v>
       </c>
     </row>
     <row r="22">
@@ -4642,22 +4098,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.74443234047294</v>
+        <v>15.27790924670503</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2655155432248924</v>
+        <v>-0.1016300863284721</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.425975303103108</v>
+        <v>-1.57388124033318</v>
       </c>
       <c r="E22" t="n">
-        <v>0.998666590341414</v>
+        <v>0.9953181415857484</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7182915059560784</v>
+        <v>0.879499537866117</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02458801532246348</v>
+        <v>0.004337175407641946</v>
       </c>
     </row>
     <row r="23">
@@ -4667,22 +4123,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.97740606589353</v>
+        <v>16.45337560625298</v>
       </c>
       <c r="C23" t="n">
-        <v>1.119907125666652</v>
+        <v>1.330261724291947</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7401601065542643</v>
+        <v>0.7441773749936976</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9985739383273289</v>
+        <v>0.9949579288692343</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1201799693084016</v>
+        <v>0.04177987509609071</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2290075756709588</v>
+        <v>0.1606210764360471</v>
       </c>
     </row>
     <row r="24">
@@ -4692,22 +4148,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.4823689244402</v>
+        <v>17.04604853697466</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9855291849856841</v>
+        <v>1.24065318850857</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7493564222764305</v>
+        <v>0.8319462960227765</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9985359928157213</v>
+        <v>0.9947763091662344</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1710354801880002</v>
+        <v>0.05724713330536043</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2227838418146511</v>
+        <v>0.1162328713850406</v>
       </c>
     </row>
     <row r="25">
@@ -4717,22 +4173,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.68392612729423</v>
+        <v>17.43495912097405</v>
       </c>
       <c r="C25" t="n">
-        <v>1.495485577186442</v>
+        <v>1.759274672219051</v>
       </c>
       <c r="D25" t="n">
-        <v>1.975642809344078</v>
+        <v>2.079686177234096</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9985208467735606</v>
+        <v>0.9946571311272807</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06383421322516292</v>
+        <v>0.01961568819160748</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004657737794516559</v>
+        <v>0.0007487341891325157</v>
       </c>
     </row>
     <row r="26">
@@ -4742,22 +4198,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1336973070455055</v>
+        <v>-0.1284315791437519</v>
       </c>
       <c r="C26" t="n">
-        <v>0.283267052756323</v>
+        <v>0.2952801064844551</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5607928510262011</v>
+        <v>0.5921400473288407</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2369938531894914</v>
+        <v>0.2463939208805062</v>
       </c>
       <c r="F26" t="n">
-        <v>4.271304700888899e-07</v>
+        <v>1.180599816959676e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>3.130060148687161e-28</v>
+        <v>4.390596116728651e-35</v>
       </c>
     </row>
     <row r="27">
@@ -4767,22 +4223,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.005709492601286627</v>
+        <v>-0.003307727965670395</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.004742185878009446</v>
+        <v>-0.00447785522114563</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.007095454543123801</v>
+        <v>-0.005065403787041011</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3111215914139549</v>
+        <v>0.5461836113716974</v>
       </c>
       <c r="F27" t="n">
-        <v>0.134008074477683</v>
+        <v>0.1561371823245239</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005508778280264366</v>
+        <v>0.03424243818211275</v>
       </c>
     </row>
     <row r="28">
@@ -4792,22 +4248,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004513733571178731</v>
+        <v>-0.0004078762864941959</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.002923812828834607</v>
+        <v>-0.00296781342117048</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001342776548108425</v>
+        <v>5.496859405464783e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>1.558169141853557e-34</v>
+        <v>1.639272794491797e-38</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>8.317683814160532e-115</v>
+        <v>1.306137462772515e-38</v>
       </c>
     </row>
     <row r="29">
@@ -4817,22 +4273,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.305494189901828</v>
+        <v>-2.410642222985631</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.540218241526524</v>
+        <v>-2.693602437675044</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.864627836387128</v>
+        <v>-2.948425912110654</v>
       </c>
       <c r="E29" t="n">
-        <v>4.021424055488141e-60</v>
+        <v>1.143613203829279e-67</v>
       </c>
       <c r="F29" t="n">
-        <v>2.305432554246725e-156</v>
+        <v>7.855680770023296e-177</v>
       </c>
       <c r="G29" t="n">
-        <v>8.287363512740813e-248</v>
+        <v>8.259357503735163e-285</v>
       </c>
     </row>
     <row r="30">
@@ -4842,272 +4298,247 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1828577874722883</v>
+        <v>0.1892120170942724</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08183951689732315</v>
+        <v>0.1128041083445268</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06988303500654881</v>
+        <v>0.1013504296124085</v>
       </c>
       <c r="E30" t="n">
-        <v>1.950079735579578e-05</v>
+        <v>6.858128714339062e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0003579006271406775</v>
+        <v>7.182808317100924e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0003414469739019433</v>
+        <v>2.642775038523664e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3.996562640114067e-07</v>
+        <v>2.200259023907979e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.859489542431399e-05</v>
+        <v>3.164797731331355e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>1.383640986200105e-05</v>
+        <v>1.932243273910269e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9595606337837963</v>
+        <v>0.01893921751679838</v>
       </c>
       <c r="F31" t="n">
-        <v>4.082277817649892e-05</v>
+        <v>1.102124924918965e-07</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0004483950605104852</v>
+        <v>7.851892689967062e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.07433552315604629</v>
+        <v>0.080348778840639</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01880550340404456</v>
+        <v>-0.01171646375213865</v>
       </c>
       <c r="D32" t="n">
-        <v>0.009182726281406265</v>
+        <v>0.02465767356871936</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03528983945586788</v>
+        <v>0.01843165396587355</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2071619601318904</v>
+        <v>0.4116428776046176</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5192208601735636</v>
+        <v>0.05527848296673726</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.04104559158866521</v>
+        <v>-0.02491087711549495</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.06580834192460183</v>
+        <v>-0.07702924811534834</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07888814666918806</v>
+        <v>-0.07714176775930344</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1625706718105024</v>
+        <v>0.3190940087009426</v>
       </c>
       <c r="F33" t="n">
-        <v>4.102601414497258e-07</v>
+        <v>9.855112932752901e-12</v>
       </c>
       <c r="G33" t="n">
-        <v>2.690762882450088e-10</v>
+        <v>1.622648056788232e-14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.031980066974254e-08</v>
+        <v>0.01838900967545235</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.070284063248385e-09</v>
+        <v>0.01078847281766438</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.91338709804394e-09</v>
+        <v>0.006604357620837087</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1507370168950567</v>
+        <v>0.005852655436863903</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9435047596808747</v>
+        <v>9.834107215218485e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5517271362129927</v>
+        <v>0.006698635967061865</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02072875691031138</v>
+        <v>0.0269844835386157</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005320575088958383</v>
+        <v>0.008541501345186104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004954166088637651</v>
+        <v>0.002744592106826468</v>
       </c>
       <c r="E35" t="n">
-        <v>0.005131029710412157</v>
+        <v>0.003787481287870553</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07159026224757524</v>
+        <v>0.01536590620438008</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07780866118932384</v>
+        <v>0.383724753344904</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02603124926107521</v>
+        <v>2.751301980038728</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004293639255814482</v>
+        <v>-0.7396068365961095</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002697835779323307</v>
+        <v>-0.4428416671245283</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008376614647028557</v>
+        <v>9.414237332319429e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2271086676719096</v>
+        <v>0.0565027983382483</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4325020412128925</v>
+        <v>0.1718558427099873</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.617985759258605</v>
+        <v>-0.8072485253660348</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8052825653572062</v>
+        <v>-1.166199935348443</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5480731421432088</v>
+        <v>-0.9406664409409405</v>
       </c>
       <c r="E37" t="n">
-        <v>1.695507321703691e-06</v>
+        <v>0.1499481035320483</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0484248080394629</v>
+        <v>2.290394322581786e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1301350398158269</v>
+        <v>6.393012177561191e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.4761281299864352</v>
+        <v>0.7289493017142334</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3341041589135491</v>
+        <v>-1.12166025849666</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.5514957470857427</v>
+        <v>-0.01662055616080685</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4259306555382537</v>
+        <v>0.3150209494883239</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2490671272294361</v>
+        <v>0.0006262786956097736</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03504960278064518</v>
+        <v>0.9544669600834503</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1880843282947905</v>
+        <v>7.348342413316191e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.195083238832197</v>
+        <v>7.346954115292264e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3115833154032104</v>
+        <v>7.292285381615148e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8198157613328533</v>
+        <v>0.03319061063708768</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0006950872611121625</v>
+        <v>0.000834631085172132</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3479915648292647</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>6.808013053557693e-06</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0001167120231517615</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0001146388829066688</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.9098982147707531</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0003652305244691175</v>
-      </c>
-      <c r="G40" t="n">
-        <v>9.422258435102855e-05</v>
+        <v>8.636373421508783e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5121,7 +4552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,22 +4604,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-25.53997547523625</v>
+        <v>-11.84719899268589</v>
       </c>
       <c r="C2" t="n">
-        <v>2.059656029626667</v>
+        <v>3.135943122412743</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.989898841525054</v>
+        <v>-1.25193414145301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9980144270398197</v>
+        <v>0.4843472172374556</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02127002228417658</v>
+        <v>0.0007667335096244579</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01887061914792546</v>
+        <v>0.1041959862779572</v>
       </c>
     </row>
     <row r="3">
@@ -5198,22 +4629,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09649055460178389</v>
+        <v>0.03970846340768054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03622628909956994</v>
+        <v>0.006262860980225815</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05858375111824213</v>
+        <v>-0.1168788870389779</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5792659143900769</v>
+        <v>0.8122949276605532</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6749071239500258</v>
+        <v>0.9413261352975189</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4592938371244848</v>
+        <v>0.1181114355163341</v>
       </c>
     </row>
     <row r="4">
@@ -5223,22 +4654,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6025858628367359</v>
+        <v>-0.4897170139045512</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6839162909806781</v>
+        <v>-0.6491996368733967</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9141356891260173</v>
+        <v>-0.8528166431989673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01479369131581266</v>
+        <v>0.05039167348866543</v>
       </c>
       <c r="F4" t="n">
-        <v>3.427718737249459e-08</v>
+        <v>1.666297634371051e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>3.263780588434495e-13</v>
+        <v>2.453143968578e-12</v>
       </c>
     </row>
     <row r="5">
@@ -5248,22 +4679,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4687461159416397</v>
+        <v>-0.3897409461762169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1371287036669743</v>
+        <v>0.08734247528353563</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2865219476044126</v>
+        <v>-0.336555481855641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03783917455375081</v>
+        <v>0.07175287488769794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1629942664251141</v>
+        <v>0.3647920841816794</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001981696476756929</v>
+        <v>0.0001142783517327184</v>
       </c>
     </row>
     <row r="6">
@@ -5273,22 +4704,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09456234060557588</v>
+        <v>0.07746383173775979</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2100830054808865</v>
+        <v>-0.2137104289784261</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.389583493326661</v>
+        <v>-0.2707850887175341</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6906445887987408</v>
+        <v>0.7500576569959229</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2170996785423861</v>
+        <v>0.2049578616738673</v>
       </c>
       <c r="G6" t="n">
-        <v>4.176079469122691e-05</v>
+        <v>0.002167236453014143</v>
       </c>
     </row>
     <row r="7">
@@ -5298,22 +4729,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2406375095325027</v>
+        <v>-0.1044678334354071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02877399574665479</v>
+        <v>0.03670459662294239</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5612933314526565</v>
+        <v>-0.4974035640586988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2134783246886121</v>
+        <v>0.5866678960939207</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7361762889860153</v>
+        <v>0.6666015290332675</v>
       </c>
       <c r="G7" t="n">
-        <v>7.295130119265586e-09</v>
+        <v>6.642158428147471e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5323,22 +4754,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.365891881036763</v>
+        <v>1.454995146597746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9483932152646406</v>
+        <v>1.056080168185315</v>
       </c>
       <c r="D8" t="n">
-        <v>1.425367773264541</v>
+        <v>1.573838027857881</v>
       </c>
       <c r="E8" t="n">
-        <v>4.4197598615713e-09</v>
+        <v>1.34527796277807e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>3.435330401711512e-27</v>
+        <v>1.114259466617988e-33</v>
       </c>
       <c r="G8" t="n">
-        <v>4.125648498375041e-34</v>
+        <v>1.608275004568471e-43</v>
       </c>
     </row>
     <row r="9">
@@ -5348,22 +4779,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.287325663130563</v>
+        <v>1.562205945404611</v>
       </c>
       <c r="C9" t="n">
-        <v>1.803848827381132</v>
+        <v>1.850931754906034</v>
       </c>
       <c r="D9" t="n">
-        <v>2.457878752502403</v>
+        <v>2.457874288380933</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001449609552997908</v>
+        <v>7.404090604890914e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>8.139565474463621e-39</v>
+        <v>3.708313177597429e-40</v>
       </c>
       <c r="G9" t="n">
-        <v>6.751191317760796e-50</v>
+        <v>1.251831925641733e-53</v>
       </c>
     </row>
     <row r="10">
@@ -5373,22 +4804,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9695630517458821</v>
+        <v>1.264332950279944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6763376719617566</v>
+        <v>0.6960545109799311</v>
       </c>
       <c r="D10" t="n">
-        <v>1.054916956925776</v>
+        <v>1.068530173577924</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000384070165650153</v>
+        <v>1.996344957470462e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>1.171741960716312e-11</v>
+        <v>1.790397100424205e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>5.796948482810449e-15</v>
+        <v>2.766257078552326e-16</v>
       </c>
     </row>
     <row r="11">
@@ -5398,22 +4829,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.30775341809365</v>
+        <v>2.56430414043033</v>
       </c>
       <c r="C11" t="n">
-        <v>1.188101596905361</v>
+        <v>1.401381029160842</v>
       </c>
       <c r="D11" t="n">
-        <v>1.98807181214217</v>
+        <v>2.241613862443274</v>
       </c>
       <c r="E11" t="n">
-        <v>1.113730232902241e-22</v>
+        <v>8.184925659968988e-26</v>
       </c>
       <c r="F11" t="n">
-        <v>2.21721456727994e-27</v>
+        <v>2.278643872293061e-37</v>
       </c>
       <c r="G11" t="n">
-        <v>2.094972552029251e-61</v>
+        <v>2.01210306535751e-82</v>
       </c>
     </row>
     <row r="12">
@@ -5423,22 +4854,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-59.45859092831527</v>
+        <v>-20.72675854375518</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02495508067121285</v>
+        <v>-0.5084558647232442</v>
       </c>
       <c r="D12" t="n">
-        <v>1.356455295784367</v>
+        <v>0.8404124525094654</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999999956606</v>
+        <v>0.9995881115929579</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9599664264778487</v>
+        <v>0.2671561827234614</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004791419547127122</v>
+        <v>0.02576828529113025</v>
       </c>
     </row>
     <row r="13">
@@ -5448,22 +4879,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08980629630402334</v>
+        <v>0.1531017411006177</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1257381921002113</v>
+        <v>0.122578463350765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.376281011495489</v>
+        <v>0.3671813852725708</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7147878622526642</v>
+        <v>0.494829913325144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2820162272389098</v>
+        <v>0.2880361243129642</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006334838621939333</v>
+        <v>0.0003643348932181048</v>
       </c>
     </row>
     <row r="14">
@@ -5473,22 +4904,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9966715560327405</v>
+        <v>1.095466667722997</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8252252614994627</v>
+        <v>0.8252050883302267</v>
       </c>
       <c r="D14" t="n">
-        <v>0.739957287360355</v>
+        <v>0.6361263097869077</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003812169872396406</v>
+        <v>0.00102894509365524</v>
       </c>
       <c r="F14" t="n">
-        <v>7.468412419811022e-08</v>
+        <v>3.537169887130584e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>1.176285986819196e-05</v>
+        <v>9.563728709212803e-05</v>
       </c>
     </row>
     <row r="15">
@@ -5498,22 +4929,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-29.22911456784048</v>
+        <v>-20.24334747648257</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.115331405708401</v>
+        <v>-0.2590963293448805</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03238790499746694</v>
+        <v>0.2408353368426854</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999925682948505</v>
+        <v>0.9996136965018051</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8419562733485388</v>
+        <v>0.6460196137670963</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9569867050616321</v>
+        <v>0.6166922560830169</v>
       </c>
     </row>
     <row r="16">
@@ -5523,22 +4954,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2477397683897201</v>
+        <v>0.4738427987363019</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6624901149135595</v>
+        <v>0.6516253245117685</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7388719620379687</v>
+        <v>0.8066614004949693</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3339179147895237</v>
+        <v>0.0535647115014352</v>
       </c>
       <c r="F16" t="n">
-        <v>4.817492512461935e-08</v>
+        <v>4.588506369890889e-08</v>
       </c>
       <c r="G16" t="n">
-        <v>6.521420284289616e-11</v>
+        <v>5.805815345662026e-14</v>
       </c>
     </row>
     <row r="17">
@@ -5548,22 +4979,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.798225062944973</v>
+        <v>1.822492903065154</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2651972562280712</v>
+        <v>0.4488230581321843</v>
       </c>
       <c r="D17" t="n">
-        <v>1.143012399788061</v>
+        <v>1.35040674868382</v>
       </c>
       <c r="E17" t="n">
-        <v>1.454786055079928e-08</v>
+        <v>7.402551640076899e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2257892627280482</v>
+        <v>0.03896451908606749</v>
       </c>
       <c r="G17" t="n">
-        <v>1.042345556981204e-11</v>
+        <v>1.496037024427502e-17</v>
       </c>
     </row>
     <row r="18">
@@ -5573,22 +5004,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7880768793054324</v>
+        <v>0.6915760157785719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5683824577034037</v>
+        <v>0.566911199891509</v>
       </c>
       <c r="D18" t="n">
-        <v>1.351397988336333</v>
+        <v>1.388889948698441</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05591308308079513</v>
+        <v>0.09353989805809881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003094151825579085</v>
+        <v>0.002925894929064317</v>
       </c>
       <c r="G18" t="n">
-        <v>4.422285928162049e-14</v>
+        <v>2.759788219320224e-16</v>
       </c>
     </row>
     <row r="19">
@@ -5598,22 +5029,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.413616129380255</v>
+        <v>1.1404112763606</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5402330515617938</v>
+        <v>0.3454274383014161</v>
       </c>
       <c r="D19" t="n">
-        <v>1.008837790106556</v>
+        <v>0.8792579708705605</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08064644017689956</v>
+        <v>0.1546073489048908</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3069726964900149</v>
+        <v>0.5079381916154569</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003415690752917849</v>
+        <v>0.004523026926847556</v>
       </c>
     </row>
     <row r="20">
@@ -5623,22 +5054,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3601093456053853</v>
+        <v>0.4024243837462319</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5185568285713228</v>
+        <v>0.5888425535111647</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6995412867474862</v>
+        <v>0.73034349794731</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2353423420003319</v>
+        <v>0.1838425572954017</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0001303972201367073</v>
+        <v>1.17855025400721e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>1.857286581519878e-07</v>
+        <v>1.323914001770184e-08</v>
       </c>
     </row>
     <row r="21">
@@ -5648,22 +5079,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.6633588247545</v>
+        <v>5.905379118706033</v>
       </c>
       <c r="C21" t="n">
-        <v>1.705358297565267</v>
+        <v>1.278806275359198</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9543822514637985</v>
+        <v>0.2650975135263833</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9984712964807252</v>
+        <v>0.7265138111806654</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0151627724096358</v>
+        <v>0.09498814429311979</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1454917484209634</v>
+        <v>0.6609307342853035</v>
       </c>
     </row>
     <row r="22">
@@ -5673,22 +5104,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.38033595082824</v>
+        <v>4.642320968956272</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06720991367535628</v>
+        <v>-0.3798335076532671</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.231274343587925</v>
+        <v>-1.914448235993919</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9985710433976838</v>
+        <v>0.7833699428503791</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9243873977641063</v>
+        <v>0.622389661339393</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06398714613660605</v>
+        <v>0.001813086222900374</v>
       </c>
     </row>
     <row r="23">
@@ -5698,22 +5129,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.35276579835154</v>
+        <v>5.799552025682788</v>
       </c>
       <c r="C23" t="n">
-        <v>1.453968927405533</v>
+        <v>0.9780876563393646</v>
       </c>
       <c r="D23" t="n">
-        <v>0.930802271360582</v>
+        <v>0.3162775118349116</v>
       </c>
       <c r="E23" t="n">
-        <v>0.998495443122164</v>
+        <v>0.7311895211721766</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03564350923232311</v>
+        <v>0.1963536977773874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1497166886989512</v>
+        <v>0.595235606994405</v>
       </c>
     </row>
     <row r="24">
@@ -5723,22 +5154,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.06629328206596</v>
+        <v>6.490175381563083</v>
       </c>
       <c r="C24" t="n">
-        <v>1.36377752541504</v>
+        <v>0.9221157871499512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9576261844978241</v>
+        <v>0.3867912079383343</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9984399708784305</v>
+        <v>0.7006360622170266</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04852378657648349</v>
+        <v>0.2226757938450888</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1379953566243255</v>
+        <v>0.5154137782880635</v>
       </c>
     </row>
     <row r="25">
@@ -5748,22 +5179,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.31298943325519</v>
+        <v>-2.972115229446181</v>
       </c>
       <c r="C25" t="n">
-        <v>1.817643286046647</v>
+        <v>1.597880196340366</v>
       </c>
       <c r="D25" t="n">
-        <v>2.331413337288261</v>
+        <v>1.651105735233309</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9984207918210398</v>
+        <v>0.974670646283581</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02029626357955265</v>
+        <v>0.05825772590783678</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001321606693785217</v>
+        <v>0.01363860793216916</v>
       </c>
     </row>
     <row r="26">
@@ -5773,22 +5204,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1317874544708511</v>
+        <v>-0.2173586507201143</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2647136710366795</v>
+        <v>0.2581484100770529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5467121604817186</v>
+        <v>0.5667047285494937</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2479901514954068</v>
+        <v>0.05513706582235134</v>
       </c>
       <c r="F26" t="n">
-        <v>2.47365644144674e-06</v>
+        <v>3.758520587029019e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>5.272714953865303e-27</v>
+        <v>2.931322900605304e-32</v>
       </c>
     </row>
     <row r="27">
@@ -5798,22 +5229,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.006123847109056955</v>
+        <v>-0.008851320013667365</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.007754511691723491</v>
+        <v>-0.006956167207426723</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.007461571388789053</v>
+        <v>-0.008019586042502198</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2835287199624023</v>
+        <v>0.1126889535718988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01538394080703294</v>
+        <v>0.02692094006963641</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003588846654035967</v>
+        <v>0.0008757187783568351</v>
       </c>
     </row>
     <row r="28">
@@ -5823,22 +5254,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004411095290094244</v>
+        <v>-0.0004512333676579687</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.002943591187574204</v>
+        <v>-0.002950246530812545</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001317742778373571</v>
+        <v>5.525015321806e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>4.231410653172175e-34</v>
+        <v>2.670506151177618e-41</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.333676628550351e-111</v>
+        <v>1.415302021035775e-37</v>
       </c>
     </row>
     <row r="29">
@@ -5848,22 +5279,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.291245327980631</v>
+        <v>-2.388131617329215</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.520898688014813</v>
+        <v>-2.705668606199059</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.830988171294004</v>
+        <v>-2.973601807243529</v>
       </c>
       <c r="E29" t="n">
-        <v>1.128975554735891e-58</v>
+        <v>1.287120984117298e-64</v>
       </c>
       <c r="F29" t="n">
-        <v>4.492037931876069e-155</v>
+        <v>4.667227733755465e-177</v>
       </c>
       <c r="G29" t="n">
-        <v>2.262681865196135e-246</v>
+        <v>5.062383155332181e-287</v>
       </c>
     </row>
     <row r="30">
@@ -5873,272 +5304,247 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1771908089327933</v>
+        <v>0.1763128114350741</v>
       </c>
       <c r="C30" t="n">
-        <v>0.085666627620806</v>
+        <v>0.09617844762486569</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07477058743006222</v>
+        <v>0.09945939075661833</v>
       </c>
       <c r="E30" t="n">
-        <v>4.068604932597571e-05</v>
+        <v>3.6268497616428e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001929537454947956</v>
+        <v>2.285854889924713e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0001164510585589212</v>
+        <v>4.428404341097245e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.659653671979923e-06</v>
+        <v>2.2944992327912e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>2.274326548915532e-05</v>
+        <v>3.050341635336479e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>1.444756093065682e-05</v>
+        <v>1.575278444890095e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4711477364505781</v>
+        <v>0.01578830005628241</v>
       </c>
       <c r="F31" t="n">
-        <v>4.997190941747946e-07</v>
+        <v>2.522882817430093e-07</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0002193146670657313</v>
+        <v>0.001193503129032962</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06471938943469936</v>
+        <v>0.05219009179568974</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01882866917791015</v>
+        <v>-0.01332042917263973</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01938440558080085</v>
+        <v>0.02598397755255159</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07098050304741334</v>
+        <v>0.1337330438838443</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2105797011328541</v>
+        <v>0.3534636420632978</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1741399668214449</v>
+        <v>0.04436543852890284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.02112431752788671</v>
+        <v>-0.01894359174858675</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.05289131371073183</v>
+        <v>-0.08106337364876914</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.08142183820753884</v>
+        <v>-0.07811383559545962</v>
       </c>
       <c r="E33" t="n">
-        <v>0.48047198390562</v>
+        <v>0.4580520525841459</v>
       </c>
       <c r="F33" t="n">
-        <v>4.738465311658571e-05</v>
+        <v>7.21301937145398e-13</v>
       </c>
       <c r="G33" t="n">
-        <v>7.945200951797471e-11</v>
+        <v>8.680446561397204e-15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.831307465781128e-08</v>
+        <v>0.01906342318646208</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.253453194072178e-09</v>
+        <v>0.01015366979356543</v>
       </c>
       <c r="D34" t="n">
-        <v>1.860096406791319e-10</v>
+        <v>0.008214540076868658</v>
       </c>
       <c r="E34" t="n">
-        <v>0.165344952677923</v>
+        <v>0.005022836235529807</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8297026114679188</v>
+        <v>0.0002529028419170039</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9887731987356703</v>
+        <v>0.0007620412062753456</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02264359302680714</v>
+        <v>0.02807141623931309</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007127949529050772</v>
+        <v>0.007433139185164566</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006525426083660809</v>
+        <v>0.004452310993477255</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002244598459626125</v>
+        <v>0.00290716444239278</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01582791376504059</v>
+        <v>0.03480240055022886</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02017839673648824</v>
+        <v>0.1586133195745655</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02691948549103844</v>
+        <v>3.021637075545401</v>
       </c>
       <c r="C36" t="n">
-        <v>0.005842921749507201</v>
+        <v>-0.8289526612209531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001745059434928238</v>
+        <v>-0.3621718448201103</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006791862943916933</v>
+        <v>2.826689970452213e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1044335150661505</v>
+        <v>0.03344219466282827</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6130240590435379</v>
+        <v>0.2641395983744823</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.12497271470811</v>
+        <v>-0.9781934669272472</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8707119601785246</v>
+        <v>-1.20188162516173</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3734324063389499</v>
+        <v>-1.08820594010647</v>
       </c>
       <c r="E37" t="n">
-        <v>3.84515504066192e-05</v>
+        <v>0.08622067638028789</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03274366160042585</v>
+        <v>1.145639298484714e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3018920733970576</v>
+        <v>3.728543504442929e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.8327618903813578</v>
+        <v>0.9692579507213115</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.4277110141023099</v>
+        <v>-0.9376008547653341</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.6600658670941301</v>
+        <v>-0.1194269554091328</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1632353198934371</v>
+        <v>0.1822749744519016</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1405643446971627</v>
+        <v>0.00420369577495237</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01190384585278658</v>
+        <v>0.6816103679379999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.3580277205678061</v>
+        <v>6.69005951242415e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.153542629574012</v>
+        <v>6.97033940683383e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.286254565739983</v>
+        <v>7.692060976639085e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6642248687729077</v>
+        <v>0.05728686095023066</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001061266976989549</v>
+        <v>0.001474381330901982</v>
       </c>
       <c r="G39" t="n">
-        <v>0.388883297999552</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2.364369477460232e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0001200590940447828</v>
-      </c>
-      <c r="D40" t="n">
-        <v>8.918521446254137e-05</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.691349020021041</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0002400182821555808</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.002225446838552721</v>
+        <v>3.109751345182727e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6152,7 +5558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6204,22 +5610,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-24.56504612374299</v>
+        <v>-24.06080238532529</v>
       </c>
       <c r="C2" t="n">
-        <v>2.053193896600125</v>
+        <v>2.560549263682343</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.603196484731407</v>
+        <v>-1.302343961335848</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9976387751624185</v>
+        <v>0.9982879687365493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01920669007790803</v>
+        <v>0.002697772793627437</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04539166906300078</v>
+        <v>0.07410333612673381</v>
       </c>
     </row>
     <row r="3">
@@ -6229,22 +5635,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02630731050440666</v>
+        <v>-0.07198058994505643</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01880755305209067</v>
+        <v>0.002371707963189061</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07227088351947573</v>
+        <v>-0.1046259441751376</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8742856288838016</v>
+        <v>0.6684599509169271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8264493658214735</v>
+        <v>0.9775766102806407</v>
       </c>
       <c r="G3" t="n">
-        <v>0.363025005816938</v>
+        <v>0.1625071902179223</v>
       </c>
     </row>
     <row r="4">
@@ -6254,22 +5660,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5585355347097296</v>
+        <v>-0.6151955315822776</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5924355066952631</v>
+        <v>-0.7059129793837756</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9315754166283914</v>
+        <v>-0.8901610947355408</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02400629668405287</v>
+        <v>0.01228036998614604</v>
       </c>
       <c r="F4" t="n">
-        <v>1.638021557209432e-06</v>
+        <v>1.00166513290063e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>2.410119221901674e-13</v>
+        <v>3.019251165669386e-13</v>
       </c>
     </row>
     <row r="5">
@@ -6279,22 +5685,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3528068039794896</v>
+        <v>-0.4587673124577308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0920252318647129</v>
+        <v>0.07118131954726488</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3053179440443398</v>
+        <v>-0.3424681276501535</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0996908440087137</v>
+        <v>0.03552350517516232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3431885585006744</v>
+        <v>0.4575861751347221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0009313518722900767</v>
+        <v>9.609178662133353e-05</v>
       </c>
     </row>
     <row r="6">
@@ -6304,22 +5710,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1054886268385748</v>
+        <v>-0.1029817804101691</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3124374685192587</v>
+        <v>-0.2102531784002868</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4047838135666781</v>
+        <v>-0.2409354457097447</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6691610020360339</v>
+        <v>0.6851770770582166</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06062777916086063</v>
+        <v>0.2024301831397814</v>
       </c>
       <c r="G6" t="n">
-        <v>2.073342943420936e-05</v>
+        <v>0.006247520566249013</v>
       </c>
     </row>
     <row r="7">
@@ -6329,22 +5735,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1016819561233668</v>
+        <v>-0.1276865973108338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05988392070816966</v>
+        <v>0.06136229748843831</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4776146495013205</v>
+        <v>-0.4083937467693091</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5867789984787901</v>
+        <v>0.4986023337818387</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4832998336063694</v>
+        <v>0.4675966803919765</v>
       </c>
       <c r="G7" t="n">
-        <v>9.098226434135906e-07</v>
+        <v>8.110970358469539e-06</v>
       </c>
     </row>
     <row r="8">
@@ -6354,22 +5760,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.20728953043226</v>
+        <v>1.450384892928016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9774480649108338</v>
+        <v>1.024692539571364</v>
       </c>
       <c r="D8" t="n">
-        <v>1.414615946506377</v>
+        <v>1.566964870415448</v>
       </c>
       <c r="E8" t="n">
-        <v>5.762573115156058e-08</v>
+        <v>8.240702395363328e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>6.968723155068988e-29</v>
+        <v>1.676692586524838e-32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.904426926942354e-33</v>
+        <v>1.147035409345275e-42</v>
       </c>
     </row>
     <row r="9">
@@ -6379,22 +5785,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.269986556229106</v>
+        <v>1.439747582457624</v>
       </c>
       <c r="C9" t="n">
-        <v>1.805368401251662</v>
+        <v>1.878914313655625</v>
       </c>
       <c r="D9" t="n">
-        <v>2.400519514662931</v>
+        <v>2.571470885150735</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001841266869667628</v>
+        <v>2.058433084463123e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>8.710475043699155e-39</v>
+        <v>2.352896365074522e-43</v>
       </c>
       <c r="G9" t="n">
-        <v>3.53197741106935e-47</v>
+        <v>2.866903365808929e-58</v>
       </c>
     </row>
     <row r="10">
@@ -6404,22 +5810,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.04318775514277</v>
+        <v>1.301710495454131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7057316192131073</v>
+        <v>0.7455630168880668</v>
       </c>
       <c r="D10" t="n">
-        <v>1.001499826850354</v>
+        <v>1.067535574827424</v>
       </c>
       <c r="E10" t="n">
-        <v>3.164312055225373e-05</v>
+        <v>7.020912329958306e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>1.463296569511321e-12</v>
+        <v>3.413953937033179e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4981088424157e-13</v>
+        <v>5.048583599701102e-16</v>
       </c>
     </row>
     <row r="11">
@@ -6429,22 +5835,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.236658702081895</v>
+        <v>2.416129841200864</v>
       </c>
       <c r="C11" t="n">
-        <v>1.276917808367503</v>
+        <v>1.348712125757277</v>
       </c>
       <c r="D11" t="n">
-        <v>1.995576518863439</v>
+        <v>2.225448230564318</v>
       </c>
       <c r="E11" t="n">
-        <v>2.560124835956668e-23</v>
+        <v>4.356967706746452e-24</v>
       </c>
       <c r="F11" t="n">
-        <v>1.851101249272918e-31</v>
+        <v>1.238473611820555e-35</v>
       </c>
       <c r="G11" t="n">
-        <v>3.032428030896382e-61</v>
+        <v>5.275577239792601e-80</v>
       </c>
     </row>
     <row r="12">
@@ -6454,22 +5860,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-18.19955433449039</v>
+        <v>-15.93886465701931</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3024038895515823</v>
+        <v>-0.5534847888896418</v>
       </c>
       <c r="D12" t="n">
-        <v>1.130310973801623</v>
+        <v>1.082029901274663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9986143296345574</v>
+        <v>0.9964183151456677</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4982961009983745</v>
+        <v>0.2343215044119806</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004353302161139146</v>
+        <v>0.001583101819523379</v>
       </c>
     </row>
     <row r="13">
@@ -6479,22 +5885,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2436383715706963</v>
+        <v>-0.02443693457175511</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216129193262464</v>
+        <v>0.1021104899425861</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4071924839474325</v>
+        <v>0.3018806163282917</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2632734729560976</v>
+        <v>0.916356951739554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06256410607526385</v>
+        <v>0.3685254607002219</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002524543538560709</v>
+        <v>0.003682642367871186</v>
       </c>
     </row>
     <row r="14">
@@ -6504,22 +5910,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.108702682584679</v>
+        <v>0.9305028716914235</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7485443125397714</v>
+        <v>0.838145871472106</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6991823390243935</v>
+        <v>0.7417074434082279</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0006711333660937024</v>
+        <v>0.006529544317720003</v>
       </c>
       <c r="F14" t="n">
-        <v>9.655861992336673e-07</v>
+        <v>3.142176523402449e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>6.145666674193451e-05</v>
+        <v>5.056971152430593e-06</v>
       </c>
     </row>
     <row r="15">
@@ -6529,22 +5935,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-16.54725966236981</v>
+        <v>-18.81245003511282</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.08922812894911462</v>
+        <v>0.1232239330530351</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02452934314302092</v>
+        <v>0.3371163997980123</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9974679633659341</v>
+        <v>0.9991419438442664</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8741641126851263</v>
+        <v>0.828951505146921</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9645817523566456</v>
+        <v>0.4892046552975294</v>
       </c>
     </row>
     <row r="16">
@@ -6554,22 +5960,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3962309340677007</v>
+        <v>0.2905190669974884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6020014628595625</v>
+        <v>0.593479174067805</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8113421962272788</v>
+        <v>0.7907472797141846</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1032890961016411</v>
+        <v>0.2374453812155832</v>
       </c>
       <c r="F16" t="n">
-        <v>5.653906490352958e-07</v>
+        <v>5.584375042453113e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>7.662614367183114e-13</v>
+        <v>1.493785817523022e-13</v>
       </c>
     </row>
     <row r="17">
@@ -6579,22 +5985,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.830887898233967</v>
+        <v>1.835438765593496</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4346326186544868</v>
+        <v>0.5807515659004642</v>
       </c>
       <c r="D17" t="n">
-        <v>1.252523558228616</v>
+        <v>1.353316007320416</v>
       </c>
       <c r="E17" t="n">
-        <v>4.833774942888813e-09</v>
+        <v>2.260185501154126e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04814496647752126</v>
+        <v>0.007354312624440119</v>
       </c>
       <c r="G17" t="n">
-        <v>1.64203098553708e-13</v>
+        <v>3.815769118005737e-17</v>
       </c>
     </row>
     <row r="18">
@@ -6604,22 +6010,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9481588388875266</v>
+        <v>0.9514576336218009</v>
       </c>
       <c r="C18" t="n">
-        <v>0.583770102333289</v>
+        <v>0.7336852584229395</v>
       </c>
       <c r="D18" t="n">
-        <v>1.421621601773293</v>
+        <v>1.480180307069275</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02051189819369527</v>
+        <v>0.01767682910727339</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002133588810453171</v>
+        <v>9.725109401471193e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>1.822701992966359e-15</v>
+        <v>5.779003403638632e-18</v>
       </c>
     </row>
     <row r="19">
@@ -6629,22 +6035,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.344832213479452</v>
+        <v>1.533886380754821</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5652307221649634</v>
+        <v>0.3316150287016842</v>
       </c>
       <c r="D19" t="n">
-        <v>1.170518374047154</v>
+        <v>0.999206080325736</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09606774736532098</v>
+        <v>0.02431055717414937</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2785390126436311</v>
+        <v>0.5167284379687689</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0006946439298475931</v>
+        <v>0.0008562852930956129</v>
       </c>
     </row>
     <row r="20">
@@ -6654,22 +6060,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.354461263013481</v>
+        <v>0.3603629517040314</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6573039325046752</v>
+        <v>0.6923297502517034</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7741119665544924</v>
+        <v>0.7171968128450554</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2542570349316998</v>
+        <v>0.2209523535432011</v>
       </c>
       <c r="F20" t="n">
-        <v>1.637241663423059e-06</v>
+        <v>2.686318892835422e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>1.368672749494701e-08</v>
+        <v>2.345377101838412e-08</v>
       </c>
     </row>
     <row r="21">
@@ -6679,22 +6085,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18.5296906601534</v>
+        <v>19.26359234435401</v>
       </c>
       <c r="C21" t="n">
-        <v>1.511233668249494</v>
+        <v>1.571572528778429</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7893557901775616</v>
+        <v>0.667444930781203</v>
       </c>
       <c r="E21" t="n">
-        <v>0.998218900392443</v>
+        <v>0.9986293108129101</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02627421154166654</v>
+        <v>0.01856377807943605</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1794912860851944</v>
+        <v>0.223825770502605</v>
       </c>
     </row>
     <row r="22">
@@ -6704,22 +6110,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.27361913339537</v>
+        <v>18.02129385000136</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1379016191545086</v>
+        <v>-0.1172033862864891</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.425486209380799</v>
+        <v>-1.557225371198545</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983396355525198</v>
+        <v>0.9987177057275903</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8407069293274064</v>
+        <v>0.8619373183839171</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01720098609476527</v>
+        <v>0.00535623656084387</v>
       </c>
     </row>
     <row r="23">
@@ -6729,22 +6135,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.72489547023075</v>
+        <v>19.39826259722061</v>
       </c>
       <c r="C23" t="n">
-        <v>1.181934283185335</v>
+        <v>1.336809234922991</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7207101471549101</v>
+        <v>0.7638186804865205</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9982001370654415</v>
+        <v>0.9986197284421452</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07763826054750801</v>
+        <v>0.04207639853030304</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2123022337444878</v>
+        <v>0.1561540470965842</v>
       </c>
     </row>
     <row r="24">
@@ -6754,22 +6160,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.33264694352864</v>
+        <v>19.94560160459735</v>
       </c>
       <c r="C24" t="n">
-        <v>1.064740747342572</v>
+        <v>1.297956398166995</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7405722253191629</v>
+        <v>0.8554486148227466</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9981417192543609</v>
+        <v>0.9985807829089623</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1114663207991513</v>
+        <v>0.04811540101092227</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1994823203902149</v>
+        <v>0.1117077262573989</v>
       </c>
     </row>
     <row r="25">
@@ -6779,22 +6185,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.61589675589764</v>
+        <v>20.0603768598628</v>
       </c>
       <c r="C25" t="n">
-        <v>1.670033789888388</v>
+        <v>1.696398582744786</v>
       </c>
       <c r="D25" t="n">
-        <v>2.223237496065719</v>
+        <v>2.022738875723038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9981144929494333</v>
+        <v>0.9985726161578232</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0292996220244661</v>
+        <v>0.0229379402518609</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0008955116095816684</v>
+        <v>0.0009729202811554844</v>
       </c>
     </row>
     <row r="26">
@@ -6804,22 +6210,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2468336530147414</v>
+        <v>-0.1483778328200825</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2552994220868733</v>
+        <v>0.243483037139867</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5632104983536316</v>
+        <v>0.5204923226793963</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02830276077232654</v>
+        <v>0.1838375571356899</v>
       </c>
       <c r="F26" t="n">
-        <v>5.263661000161906e-06</v>
+        <v>1.076383723597205e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>1.544268246527252e-28</v>
+        <v>2.34844616074733e-27</v>
       </c>
     </row>
     <row r="27">
@@ -6829,22 +6235,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.005329054603895437</v>
+        <v>-0.006068773074053036</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.004890461926842778</v>
+        <v>-0.005263012770680218</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.006978746718024772</v>
+        <v>-0.007316305748605937</v>
       </c>
       <c r="E27" t="n">
-        <v>0.337932001180219</v>
+        <v>0.2826065131466182</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1228222049086713</v>
+        <v>0.09410062897600256</v>
       </c>
       <c r="G27" t="n">
-        <v>0.006493932728700812</v>
+        <v>0.002532431769740418</v>
       </c>
     </row>
     <row r="28">
@@ -6854,22 +6260,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004468945869281617</v>
+        <v>-0.0004238899279204129</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0029581869849144</v>
+        <v>-0.002891239170515208</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001310235666945813</v>
+        <v>5.831055562638595e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>5.971050023405931e-36</v>
+        <v>2.84483830350859e-39</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.120788623951777e-109</v>
+        <v>5.133700463592098e-41</v>
       </c>
     </row>
     <row r="29">
@@ -6879,22 +6285,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.188224885472414</v>
+        <v>-2.368061942740834</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.515101057220862</v>
+        <v>-2.667819476442354</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.844468883720758</v>
+        <v>-2.937979645379882</v>
       </c>
       <c r="E29" t="n">
-        <v>1.386515489642868e-54</v>
+        <v>2.77688000284909e-64</v>
       </c>
       <c r="F29" t="n">
-        <v>1.354692938350275e-153</v>
+        <v>7.255774725713452e-176</v>
       </c>
       <c r="G29" t="n">
-        <v>1.519448274225548e-247</v>
+        <v>4.192338779943759e-283</v>
       </c>
     </row>
     <row r="30">
@@ -6904,272 +6310,247 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.173052462113522</v>
+        <v>0.1691251252936941</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08083063758725217</v>
+        <v>0.08426791037473362</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06566812522974563</v>
+        <v>0.07214268393282211</v>
       </c>
       <c r="E30" t="n">
-        <v>4.876668057424492e-05</v>
+        <v>6.136986920298629e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0004735295813880941</v>
+        <v>0.0001973605804437975</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0007689151076826682</v>
+        <v>7.488485429095502e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.192826371044949e-06</v>
+        <v>2.359249203997878e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>2.085882378327961e-05</v>
+        <v>2.983567153756102e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>1.164302633914432e-05</v>
+        <v>1.804019166999199e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6813358096380485</v>
+        <v>0.01224849683377705</v>
       </c>
       <c r="F31" t="n">
-        <v>3.738060189341152e-06</v>
+        <v>4.484543166017199e-07</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003067141933979181</v>
+        <v>0.0002359550007635798</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04456687583958258</v>
+        <v>0.02654320772054901</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01849993863050777</v>
+        <v>-0.02142016697705049</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01090240460518222</v>
+        <v>0.01864216145876679</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2119866806248567</v>
+        <v>0.439021028186892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2143004108014994</v>
+        <v>0.1337832312820272</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4447119072442568</v>
+        <v>0.1493462268882922</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.04591295227579566</v>
+        <v>-0.01353959043371126</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.05593300584802318</v>
+        <v>-0.08033675958200562</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.08429984606005995</v>
+        <v>-0.07949099798848318</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1233537543497078</v>
+        <v>0.5946580449228764</v>
       </c>
       <c r="F33" t="n">
-        <v>1.763642971711202e-05</v>
+        <v>1.051212663097567e-12</v>
       </c>
       <c r="G33" t="n">
-        <v>1.522484820783159e-11</v>
+        <v>4.269267285708711e-15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.25994346911077e-08</v>
+        <v>0.01441073688761204</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.991499835439051e-09</v>
+        <v>0.01030816698482425</v>
       </c>
       <c r="D34" t="n">
-        <v>4.63352978960694e-09</v>
+        <v>0.006470126667991439</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2408129878084583</v>
+        <v>0.0288493927767996</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8945980306589676</v>
+        <v>0.0001894349358697789</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7264626648194796</v>
+        <v>0.008327553976495866</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02041287229245404</v>
+        <v>0.01833494220270649</v>
       </c>
       <c r="C35" t="n">
-        <v>0.009269938702268951</v>
+        <v>0.008448985621787272</v>
       </c>
       <c r="D35" t="n">
-        <v>0.005253937004634261</v>
+        <v>0.002264528177925366</v>
       </c>
       <c r="E35" t="n">
-        <v>0.005707308174556158</v>
+        <v>0.04417609954718286</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001642141101424396</v>
+        <v>0.01563555227606428</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06116577808256697</v>
+        <v>0.4717831674783379</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02817366118828973</v>
+        <v>2.702640249854682</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007231588863582519</v>
+        <v>-0.8760479162783433</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0004403459003020159</v>
+        <v>-0.4209121939006085</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00425379938850505</v>
+        <v>0.0001421000172582361</v>
       </c>
       <c r="F36" t="n">
-        <v>0.041445762311255</v>
+        <v>0.02316155626839668</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8986549788903994</v>
+        <v>0.1948776952126038</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.319308384217103</v>
+        <v>-1.007311265121893</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.9187862896103943</v>
+        <v>-1.124097394997799</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4765558323036129</v>
+        <v>-1.110111312939269</v>
       </c>
       <c r="E37" t="n">
-        <v>6.969003285357142e-06</v>
+        <v>0.0715666629310481</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02391327715278713</v>
+        <v>3.728829906705889e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1873762110400307</v>
+        <v>2.370124368211302e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.426143397259873</v>
+        <v>0.5327141584715269</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.5032623674158894</v>
+        <v>-1.016568555907479</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.4791854635301805</v>
+        <v>-0.09586962650622256</v>
       </c>
       <c r="E38" t="n">
-        <v>0.470243797433862</v>
+        <v>0.4602421809239</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08279301514369529</v>
+        <v>0.001845383820835071</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06856717825466448</v>
+        <v>0.7414496830956084</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1736004391299917</v>
+        <v>8.12677833918993e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.062152203142569</v>
+        <v>7.539729432300722e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1049379965619516</v>
+        <v>7.767637115511705e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8296334189023598</v>
+        <v>0.0191714562029035</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002436242143042576</v>
+        <v>0.0005666887241620513</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7518915955296291</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1.760645220761998e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0001140391220496158</v>
-      </c>
-      <c r="D40" t="n">
-        <v>8.841836476873813e-05</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.7662545214464167</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0004809936546632694</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.002552635670529404</v>
+        <v>3.537826689770495e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7183,7 +6564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7234,24 +6615,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-29.89689879253423</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.224428734583183</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.689751018736558</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9998016790718387</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01035494004288004</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.033416209419</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7259,24 +6628,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.0586579237023034</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.01096850406286143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.05822983455172648</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7263872963950952</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8982686038541948</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4629389967286018</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7284,24 +6641,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.6001033080212677</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6197001706361106</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.9810989331029827</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01582902103330859</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.704552773752682e-07</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.123258120464298e-14</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7309,24 +6654,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.4937349364632311</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1185843711236029</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2648863356191026</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02825572706847359</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2228921380612978</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.00420831125397745</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7334,24 +6667,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.0269797219218594</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.2905258636783601</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.3642706187615675</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9118089886728512</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08520725673783408</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0001410994645029444</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7359,24 +6680,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.198582917357599</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03038945141196274</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.4360401780189218</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2927303452813738</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7212942402250091</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.826903601904565e-06</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7384,24 +6693,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.181169364064844</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.002507070730524</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.515147042004932</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.154235858090776e-08</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.298892547862206e-30</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.366465789673797e-37</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7409,24 +6706,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1.165289108674802</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.829577429837097</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.510884762014439</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0006266135074346454</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.044072462457061e-40</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.983223502575771e-51</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7434,24 +6719,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.9666156472486829</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6899024010150341</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.094907750860963</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0001201840926513108</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.314037201062254e-12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.028413171328121e-15</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7459,24 +6732,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.147085377136513</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.240180560209907</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.080082062990445</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.166282843519923e-22</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.558219886196179e-29</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.675015466503022e-65</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7484,24 +6745,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>-19.02001976082149</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.3638008657018218</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.072531960854956</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9989614699957384</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4058900538534621</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.005146937017007064</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7509,24 +6758,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.07522219210777706</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1567018870545809</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3980485350820974</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.7445217919933331</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1755778954826515</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0003405702199583073</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7534,24 +6771,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1.068901958671334</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8759178192740066</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7446573967014247</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.001397859145974133</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.393511890880598e-08</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.608456751879104e-05</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7559,24 +6784,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-13.00572618029883</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.2586300737424438</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.1059214792862493</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.989505584017932</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.6951979859765012</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8573142905488536</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7584,24 +6797,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.366893910934208</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5664661426924155</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.7579219615960257</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1349287959087306</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.84175816286534e-06</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.819160864035613e-11</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7609,24 +6810,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1.575503618247972</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4357487457616047</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.268344767356951</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.577579131764592e-06</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.05106564008917528</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.829318072505477e-14</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7634,24 +6823,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.9298570181194992</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7054203490120659</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.567234971735054</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.02362706662183495</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0002272681092623602</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.205021027367901e-18</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7659,24 +6836,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1.275847080947026</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6227887799991761</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.028602581419872</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1167411939314209</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2632810148264308</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.003133970623387354</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7684,24 +6849,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.4179376564263159</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.561763018023707</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.6143485644885238</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1469253613079412</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.021083655397764e-05</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.643882420490268e-06</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7709,24 +6862,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>24.24171782040207</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.437437045066065</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5964537696847314</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9998391926858695</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.03197805675484719</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.3049298076102921</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7734,24 +6875,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>22.78559324752186</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.2331150477878027</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.668283119800299</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9998488518808351</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.7304644346938947</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.004822983735205546</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7759,24 +6888,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>24.18795874575734</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.230598391668575</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.683067186004596</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9998395492964178</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.06219553089461604</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.2311484224502182</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7784,24 +6901,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>24.71519216808808</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.113192147934411</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6769793178039015</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9998360518961915</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.09116323348438025</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.2347592582265821</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7809,24 +6914,12 @@
           <t>Education[T.Unknown]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>24.95946554799735</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.593204414880371</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.902155581906397</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9998344315099722</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.03549898992533619</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.004139196287756619</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7834,24 +6927,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.1878472574049845</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2803891890413717</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5479110487020092</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.09661651545675719</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5.898838318291238e-07</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6.789650441588513e-27</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7859,24 +6940,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>-0.005215978876425573</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.005375577662331854</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.005495158445171661</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.3528211181142811</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0907837814756641</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.03183548789029007</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7884,24 +6953,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-0.0004523798076246164</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.002937064720808199</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0001312128972663695</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.524865022545571e-35</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4.790884875742943e-110</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7909,24 +6966,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-2.273588507891862</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-2.530231168900978</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-2.90452410253299</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.555038967055882e-58</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.544531896171803e-154</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.179675523272156e-251</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7934,274 +6979,129 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.1663582604336315</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1101005159652971</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.09255690940451392</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0001311853716572504</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.845123683927779e-06</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.420190244783321e-06</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1.11935467806831e-05</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.15295297167179e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.700452017223047e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1512560284614086</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.963729911089947e-06</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.552442578131752e-05</v>
-      </c>
+          <t>UrbPopDensity_res</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.03549380385860683</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.02436660581212531</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.008143177727546662</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.3157525618284523</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.1030151095259178</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.5681374123304695</v>
-      </c>
+          <t>DistSubcenter_res</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.01761954634363582</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.05901457669558837</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.08031285438993614</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5498012390981428</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5.167015798559242e-06</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.661994791128617e-10</v>
-      </c>
+          <t>DistCenter_res</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2.721407926592986e-08</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.384583278750602e-09</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-8.254331508643159e-09</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.3245783410772712</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.8232608154202734</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.5359748606627716</v>
-      </c>
+          <t>IntersecDensity_res</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.0179666579748701</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.007307990758732386</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.005212730333231681</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.01443779870777799</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.01294853024183202</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.06199897040405491</v>
-      </c>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.02439505817122387</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.006216426177209294</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.000289438601896872</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.011978518378892</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.08089793416521512</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.9331707491623757</v>
-      </c>
+          <t>bike_lane_share_res</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2.729082942357247</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.6316807924371823</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.8889983623939498</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0002861956913260699</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.1214443010852801</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.0145316968161598</v>
-      </c>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.2337602528901217</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.499702063752033</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.4642040924943824</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.7004629544130547</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.08728659426436798</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.07664130565615211</v>
-      </c>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.4448825119210011</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-1.308765575173972</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.109267168067091</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.588795759571324</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0002173058660408341</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.743347439101591</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>4.988954463859784e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9.186173433093876e-05</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0001065388653296866</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4039437334017612</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.00511887907470935</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0003066102348866327</v>
-      </c>
+          <t>transit_accessibility_res</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8214,7 +7114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8266,20 +7166,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-41.83488785229087</v>
+        <v>-21.05856250162748</v>
       </c>
       <c r="C2" t="n">
-        <v>2.09016245768513</v>
+        <v>2.562090122239765</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.350450574682628</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>-1.693540996390747</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9881149823407057</v>
+      </c>
       <c r="F2" t="n">
-        <v>0.01660173425461529</v>
+        <v>0.004674050810328459</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09880938882174219</v>
+        <v>0.02442948696801685</v>
       </c>
     </row>
     <row r="3">
@@ -8289,22 +7191,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06473303456528301</v>
+        <v>-0.007181177658511978</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01752306197740299</v>
+        <v>0.04266088905447465</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07793763734535981</v>
+        <v>-0.08136198335240884</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7028519312120123</v>
+        <v>0.9656522875676689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8385895414229563</v>
+        <v>0.6165007165296486</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3284161118932558</v>
+        <v>0.2774845922039767</v>
       </c>
     </row>
     <row r="4">
@@ -8314,22 +7216,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5923246110520527</v>
+        <v>-0.5675542680610689</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6049406584106463</v>
+        <v>-0.6082147095669324</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8324966366542285</v>
+        <v>-0.8373508942045362</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01870448270702324</v>
+        <v>0.0214045236968807</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456630269552937e-06</v>
+        <v>8.668337351303238e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>5.019870759018461e-11</v>
+        <v>7.685428793208678e-12</v>
       </c>
     </row>
     <row r="5">
@@ -8339,22 +7241,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4527747090733534</v>
+        <v>-0.4035610628055804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06071289937600632</v>
+        <v>0.08552125756131501</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2465074754654089</v>
+        <v>-0.3342106973005514</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04193847308291447</v>
+        <v>0.05749464456297777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5366551893832179</v>
+        <v>0.376744077777619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007235761599171823</v>
+        <v>0.0001253722342123873</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +7266,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03632200720028214</v>
+        <v>-0.01444746295878039</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2499608546134797</v>
+        <v>-0.2565571895100951</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3834744993092773</v>
+        <v>-0.2273060759499742</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8836182310202559</v>
+        <v>0.9521692853254016</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1403400448806733</v>
+        <v>0.1285020805180411</v>
       </c>
       <c r="G6" t="n">
-        <v>6.140130470220992e-05</v>
+        <v>0.008881621777640774</v>
       </c>
     </row>
     <row r="7">
@@ -8389,22 +7291,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1385458796637727</v>
+        <v>-0.03578201660313358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01709496277262407</v>
+        <v>0.0265675765622485</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5260830627894026</v>
+        <v>-0.5256306976331685</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4608011109832845</v>
+        <v>0.8452124328303322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8419277160998058</v>
+        <v>0.7534812233559838</v>
       </c>
       <c r="G7" t="n">
-        <v>7.509786974479276e-08</v>
+        <v>1.393286671692336e-08</v>
       </c>
     </row>
     <row r="8">
@@ -8414,22 +7316,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.292832335831138</v>
+        <v>1.475888982046423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9890933519544928</v>
+        <v>1.064696932122527</v>
       </c>
       <c r="D8" t="n">
-        <v>1.462667391884626</v>
+        <v>1.561167645449803</v>
       </c>
       <c r="E8" t="n">
-        <v>1.118588139629838e-08</v>
+        <v>7.618468826340931e-11</v>
       </c>
       <c r="F8" t="n">
-        <v>9.25928207014576e-30</v>
+        <v>2.069182323865223e-34</v>
       </c>
       <c r="G8" t="n">
-        <v>3.920134033600273e-35</v>
+        <v>3.987724465740287e-43</v>
       </c>
     </row>
     <row r="9">
@@ -8439,22 +7341,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.256164964726045</v>
+        <v>1.71393100048394</v>
       </c>
       <c r="C9" t="n">
-        <v>1.823339031422049</v>
+        <v>1.927858300761361</v>
       </c>
       <c r="D9" t="n">
-        <v>2.486645820476145</v>
+        <v>2.565872089944403</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002322923565766724</v>
+        <v>4.303941606183968e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>3.748964337262949e-39</v>
+        <v>1.201433319965311e-44</v>
       </c>
       <c r="G9" t="n">
-        <v>2.414561404536507e-50</v>
+        <v>1.849512681279767e-58</v>
       </c>
     </row>
     <row r="10">
@@ -8464,22 +7366,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.122049146630434</v>
+        <v>1.211181653158961</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7262369995211244</v>
+        <v>0.7155149378360912</v>
       </c>
       <c r="D10" t="n">
-        <v>1.115406530382167</v>
+        <v>1.053698505671505</v>
       </c>
       <c r="E10" t="n">
-        <v>1.22183001529539e-05</v>
+        <v>1.94192661303642e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>4.418303820782893e-13</v>
+        <v>3.19473319528323e-13</v>
       </c>
       <c r="G10" t="n">
-        <v>3.582644862677283e-16</v>
+        <v>7.239826053298292e-16</v>
       </c>
     </row>
     <row r="11">
@@ -8489,22 +7391,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.293683170839808</v>
+        <v>2.390692119652662</v>
       </c>
       <c r="C11" t="n">
-        <v>1.267044721483644</v>
+        <v>1.352192230051794</v>
       </c>
       <c r="D11" t="n">
-        <v>2.070298573136183</v>
+        <v>2.243690674606409</v>
       </c>
       <c r="E11" t="n">
-        <v>3.222070647011034e-23</v>
+        <v>5.182278131327962e-25</v>
       </c>
       <c r="F11" t="n">
-        <v>1.957369231073636e-30</v>
+        <v>3.036616524798793e-35</v>
       </c>
       <c r="G11" t="n">
-        <v>5.342318697350708e-64</v>
+        <v>2.286372321313169e-83</v>
       </c>
     </row>
     <row r="12">
@@ -8514,22 +7416,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-18.63523385713733</v>
+        <v>-35.32317433740161</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6178615235716673</v>
+        <v>-0.2010572359140318</v>
       </c>
       <c r="D12" t="n">
-        <v>1.045271537130285</v>
+        <v>1.125594207275664</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9988210640110673</v>
+        <v>0.9999996069777657</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1689143501858611</v>
+        <v>0.698173373108639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006160504987901418</v>
+        <v>0.001780552662920845</v>
       </c>
     </row>
     <row r="13">
@@ -8539,22 +7441,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1674405342792508</v>
+        <v>0.004346600012379047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1963568457851695</v>
+        <v>0.1618731090931914</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2731002328900608</v>
+        <v>0.3584759994373642</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4465654873188928</v>
+        <v>0.9848846406120025</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0882063763443084</v>
+        <v>0.1581335173452041</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01376418371485581</v>
+        <v>0.0005213054143864131</v>
       </c>
     </row>
     <row r="14">
@@ -8564,22 +7466,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9793761911123078</v>
+        <v>0.9858269613893674</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8425852531289109</v>
+        <v>0.7670735872969878</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8271790186043957</v>
+        <v>0.5778579487459933</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004356164522612766</v>
+        <v>0.002223669135325199</v>
       </c>
       <c r="F14" t="n">
-        <v>2.316100113326048e-08</v>
+        <v>2.87500152865587e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>9.972207188324936e-07</v>
+        <v>0.0003777178735197839</v>
       </c>
     </row>
     <row r="15">
@@ -8589,22 +7491,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-15.24094764165852</v>
+        <v>-18.4495650659827</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03800755532182066</v>
+        <v>-0.04740624605696566</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2677844656443309</v>
+        <v>0.1169622507075236</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9963410156724214</v>
+        <v>0.9988878031169911</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9522381653538798</v>
+        <v>0.9348028460582311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6330217334675856</v>
+        <v>0.8117298835809031</v>
       </c>
     </row>
     <row r="16">
@@ -8614,22 +7516,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2319416966204359</v>
+        <v>0.4041925540385799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6007789139839648</v>
+        <v>0.4789060271631739</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8046545131229684</v>
+        <v>0.7313695542225541</v>
       </c>
       <c r="E16" t="n">
-        <v>0.346621784179853</v>
+        <v>0.09277021875786444</v>
       </c>
       <c r="F16" t="n">
-        <v>6.193823779464686e-07</v>
+        <v>6.026381569332308e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>9.67526006899593e-13</v>
+        <v>9.317982050284086e-12</v>
       </c>
     </row>
     <row r="17">
@@ -8639,22 +7541,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.860083142867459</v>
+        <v>1.468304049902799</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3133583463222291</v>
+        <v>0.4924782459650551</v>
       </c>
       <c r="D17" t="n">
-        <v>1.152343997367779</v>
+        <v>1.344564445430423</v>
       </c>
       <c r="E17" t="n">
-        <v>7.514907437217131e-09</v>
+        <v>3.698115112641952e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1580216504574387</v>
+        <v>0.0237176009030902</v>
       </c>
       <c r="G17" t="n">
-        <v>1.144984585697135e-11</v>
+        <v>1.810429572328564e-17</v>
       </c>
     </row>
     <row r="18">
@@ -8664,22 +7566,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.094776676357473</v>
+        <v>0.6409168949655256</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6507032068561658</v>
+        <v>0.7072783821459182</v>
       </c>
       <c r="D18" t="n">
-        <v>1.543479239000453</v>
+        <v>1.47759259053662</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007794052269940816</v>
+        <v>0.110724955062875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000740639736580511</v>
+        <v>0.0001952229164614023</v>
       </c>
       <c r="G18" t="n">
-        <v>9.044729101138565e-18</v>
+        <v>4.799809226988977e-18</v>
       </c>
     </row>
     <row r="19">
@@ -8689,22 +7591,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.428874622973974</v>
+        <v>1.211464705887737</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5220209983318396</v>
+        <v>0.3062083779164795</v>
       </c>
       <c r="D19" t="n">
-        <v>1.024528248321617</v>
+        <v>0.8446193795163723</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07842546892976833</v>
+        <v>0.07640964316778751</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3122998846217464</v>
+        <v>0.5438162333280142</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002542138811614052</v>
+        <v>0.006143001945203862</v>
       </c>
     </row>
     <row r="20">
@@ -8714,22 +7616,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4440337447652389</v>
+        <v>0.4516108039302935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5644471184824573</v>
+        <v>0.6486332142520906</v>
       </c>
       <c r="D20" t="n">
-        <v>0.664160083868169</v>
+        <v>0.7229239251252066</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1248233918889547</v>
+        <v>0.108784342649583</v>
       </c>
       <c r="F20" t="n">
-        <v>2.224377240071874e-05</v>
+        <v>1.422922711767836e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>6.73907464127048e-07</v>
+        <v>2.254472267058801e-08</v>
       </c>
     </row>
     <row r="21">
@@ -8739,20 +7641,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36.80483448297052</v>
+        <v>14.61707569972804</v>
       </c>
       <c r="C21" t="n">
-        <v>1.717798630436915</v>
+        <v>1.459356699924812</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8374467770708193</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>0.8887024316081015</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9917502624821002</v>
+      </c>
       <c r="F21" t="n">
-        <v>0.01079876900411476</v>
+        <v>0.04513020295754579</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1701673727253507</v>
+        <v>0.1248295155483313</v>
       </c>
     </row>
     <row r="22">
@@ -8762,20 +7666,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.31088031834447</v>
+        <v>13.41150563421351</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.05685455839286967</v>
+        <v>-0.2200286969192</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.562399258557421</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>-1.344962618533749</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9924306534485968</v>
+      </c>
       <c r="F22" t="n">
-        <v>0.9333891401146176</v>
+        <v>0.7645398082192788</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01178178838967634</v>
+        <v>0.02240519525034991</v>
       </c>
     </row>
     <row r="23">
@@ -8785,20 +7691,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.60124535864863</v>
+        <v>14.75504035869269</v>
       </c>
       <c r="C23" t="n">
-        <v>1.324321462292172</v>
+        <v>1.25221576521953</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7533336729840526</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>0.9548585877552789</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9916723992064059</v>
+      </c>
       <c r="F23" t="n">
-        <v>0.04582967313503872</v>
+        <v>0.08163098975889964</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2094559537813644</v>
+        <v>0.09361759607430667</v>
       </c>
     </row>
     <row r="24">
@@ -8808,20 +7716,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37.28945974399444</v>
+        <v>15.32759261880377</v>
       </c>
       <c r="C24" t="n">
-        <v>1.238390204526314</v>
+        <v>1.141456729901833</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7718757141051187</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>1.007415383902038</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9913492687049122</v>
+      </c>
       <c r="F24" t="n">
-        <v>0.06150332271404001</v>
+        <v>0.1120957724674989</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1980067877409263</v>
+        <v>0.07658492661219181</v>
       </c>
     </row>
     <row r="25">
@@ -8831,20 +7741,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.54153997504889</v>
+        <v>15.30477977153715</v>
       </c>
       <c r="C25" t="n">
-        <v>1.808691657498629</v>
+        <v>1.472413360126403</v>
       </c>
       <c r="D25" t="n">
-        <v>2.20019794351492</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>2.051567303379309</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9913621447773934</v>
+      </c>
       <c r="F25" t="n">
-        <v>0.01706134103832799</v>
+        <v>0.06476854550400009</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001431548855534877</v>
+        <v>0.001317549628928927</v>
       </c>
     </row>
     <row r="26">
@@ -8854,22 +7766,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.217241381649964</v>
+        <v>-0.2257722695312893</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2213730803276855</v>
+        <v>0.2877895016739367</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5304118383843727</v>
+        <v>0.5524031171680974</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05584117940382233</v>
+        <v>0.0431580311073021</v>
       </c>
       <c r="F26" t="n">
-        <v>9.348383320278561e-05</v>
+        <v>2.720015788472196e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>2.929095508153524e-25</v>
+        <v>1.498203867840813e-30</v>
       </c>
     </row>
     <row r="27">
@@ -8879,22 +7791,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.001894085280291668</v>
+        <v>-0.007892331320440369</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.00578326865425081</v>
+        <v>-0.003624965034218569</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.00770236028448682</v>
+        <v>-0.006039473764409579</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7363466407781605</v>
+        <v>0.1525157001455688</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06909487692749268</v>
+        <v>0.2491994256295813</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002545186094789802</v>
+        <v>0.0116056247406393</v>
       </c>
     </row>
     <row r="28">
@@ -8904,22 +7816,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004655467677127482</v>
+        <v>-0.0004157669652445172</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.002958260300740097</v>
+        <v>-0.002973432356874973</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001315655544992298</v>
+        <v>5.584269985655649e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>2.309430133998227e-36</v>
+        <v>2.434575423513759e-39</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.747362169312807e-110</v>
+        <v>7.571582485923054e-39</v>
       </c>
     </row>
     <row r="29">
@@ -8929,22 +7841,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.331295132742388</v>
+        <v>-2.413772392833123</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.520669987833901</v>
+        <v>-2.771519499745247</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.874076121551681</v>
+        <v>-3.022845433688619</v>
       </c>
       <c r="E29" t="n">
-        <v>4.825043600444609e-61</v>
+        <v>2.492884129440982e-66</v>
       </c>
       <c r="F29" t="n">
-        <v>1.794586162591149e-152</v>
+        <v>1.793947321564729e-180</v>
       </c>
       <c r="G29" t="n">
-        <v>1.49517271482785e-250</v>
+        <v>8.877479041197043e-288</v>
       </c>
     </row>
     <row r="30">
@@ -8954,272 +7866,247 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1630937498434329</v>
+        <v>0.1921535683108446</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09402816218988906</v>
+        <v>0.1013475690241153</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06486902334480159</v>
+        <v>0.08735323906461336</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0001688500617805444</v>
+        <v>3.003894077668931e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>4.751931516587626e-05</v>
+        <v>8.452863493501882e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0008679139667511073</v>
+        <v>1.42423196630691e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.061774806268008e-06</v>
+        <v>1.989086574910505e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.982539725961535e-05</v>
+        <v>3.191126049646977e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>1.483793594448573e-05</v>
+        <v>1.611606347828347e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4386240878711095</v>
+        <v>0.03396924815182145</v>
       </c>
       <c r="F31" t="n">
-        <v>1.180242966701441e-05</v>
+        <v>8.078972875245833e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0001539844567781751</v>
+        <v>0.001041062444426888</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06259831936267442</v>
+        <v>0.05150653344988047</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02172944927310008</v>
+        <v>-0.01302255073974959</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003677746093368321</v>
+        <v>0.0276292200201486</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08057164106721801</v>
+        <v>0.12950581006897</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1520969251749668</v>
+        <v>0.3669254189139186</v>
       </c>
       <c r="G32" t="n">
-        <v>0.79872843586164</v>
+        <v>0.03304332840151634</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.04279969559407446</v>
+        <v>-0.0124086925927437</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.06014376087715007</v>
+        <v>-0.06839765985061678</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07843508703304598</v>
+        <v>-0.07856359653644181</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1517258389569486</v>
+        <v>0.6217855609635026</v>
       </c>
       <c r="F33" t="n">
-        <v>3.804323962792221e-06</v>
+        <v>1.665456333479766e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>4.189750338526146e-10</v>
+        <v>7.612458412029141e-15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.875948908907384e-08</v>
+        <v>0.0222013100928578</v>
       </c>
       <c r="C34" t="n">
-        <v>1.993039890162406e-08</v>
+        <v>0.009086822037752325</v>
       </c>
       <c r="D34" t="n">
-        <v>3.693095982546756e-09</v>
+        <v>0.007077878839031849</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1640803463920285</v>
+        <v>0.0007632067550449693</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1944585290631254</v>
+        <v>0.001086000569032264</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7834754991622228</v>
+        <v>0.003636334671391128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01515273916336803</v>
+        <v>0.0287056874371371</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007012825725551701</v>
+        <v>0.007632331858936486</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003897832828364571</v>
+        <v>0.00243843387399991</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04254717782873753</v>
+        <v>0.002062186152667453</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01894060797330856</v>
+        <v>0.03182560069767658</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1682940407727574</v>
+        <v>0.4417845596144262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02139014301197878</v>
+        <v>3.125646827133218</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006052310741240353</v>
+        <v>-0.54631986252653</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001608719685402074</v>
+        <v>-0.2556178251024427</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03010917385255487</v>
+        <v>1.023064206296945e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09159748780273883</v>
+        <v>0.16335100291159</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6429695845255706</v>
+        <v>0.4323971188660792</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.764333010573737</v>
+        <v>-0.7575517456689574</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.6351773117182037</v>
+        <v>-1.049482383050675</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3678422889344631</v>
+        <v>-0.8811016319868645</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0002389585982932035</v>
+        <v>0.1745044121629912</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1192601056486355</v>
+        <v>0.0001367600307178164</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3107101143297895</v>
+        <v>0.0001874351969802683</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.2185689915727968</v>
+        <v>1.016118045064573</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1500974462791015</v>
+        <v>-0.9322557446977411</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.5383657926588254</v>
+        <v>-0.03272448351389399</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7173905766426187</v>
+        <v>0.1543405819494036</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6091582463232005</v>
+        <v>0.004570914453738462</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04173481733871306</v>
+        <v>0.9103982676049973</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LU_Comm_origin</t>
+          <t>transit_accessibility_res</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2778856896551353</v>
+        <v>5.973422252757534e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.107189402729565</v>
+        <v>7.67334345052232e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1872764230547142</v>
+        <v>6.858815276932395e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7347270744831575</v>
+        <v>0.08710525909253893</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001745169572739003</v>
+        <v>0.0004987809755094523</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5744701374911272</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>transit_accessibility_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2.758673181831616e-05</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7.308415373459995e-05</v>
-      </c>
-      <c r="D40" t="n">
-        <v>8.287307202827922e-05</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.6438288121575764</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.02646472615724067</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.004725350004920267</v>
+        <v>0.0002709682358770652</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/mode_MNLR_new/Paris.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/Paris.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40735802" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ55058166" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ10886601" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ27618471" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ42227142" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ58618831" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ15124478" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32683557" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ49035827" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ09216722" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19548564" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ30211401" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ41748409" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ52671173" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ04007375" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ16490528" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ28490799" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ39491187" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1036,22 +1036,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-18.82700290554351</v>
+        <v>-20.99812471706608</v>
       </c>
       <c r="C2" t="n">
-        <v>2.695357659734247</v>
+        <v>2.708523036433202</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.538323415506988</v>
+        <v>-1.50366871586119</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9790906714559638</v>
+        <v>0.9923913520893607</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001689903267302571</v>
+        <v>0.001607227929484699</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03845106453916265</v>
+        <v>0.04323838508429205</v>
       </c>
     </row>
     <row r="3">
@@ -1061,22 +1061,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08230031611783074</v>
+        <v>-0.08355743333475177</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.004865032611298968</v>
+        <v>-0.004311196001948209</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09648549122874606</v>
+        <v>-0.09724203435659856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6212201236417145</v>
+        <v>0.6158509972309759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9543348912842191</v>
+        <v>0.9595207584408674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1954352569471075</v>
+        <v>0.1919253114093985</v>
       </c>
     </row>
     <row r="4">
@@ -1086,22 +1086,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6232615568036872</v>
+        <v>-0.6236960180135512</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5629431100489517</v>
+        <v>-0.561865757478195</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.869124322432418</v>
+        <v>-0.8698542079983266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01100584369855081</v>
+        <v>0.01097169886712541</v>
       </c>
       <c r="F4" t="n">
-        <v>5.189958325750937e-06</v>
+        <v>5.383018321698279e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>1.420384560654033e-12</v>
+        <v>1.369945028877393e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.310997726309809</v>
+        <v>-0.315660758457662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1114259088551446</v>
+        <v>0.1096729385777688</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2566312289195006</v>
+        <v>-0.2600776480320695</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1395825205029103</v>
+        <v>0.1337805622572081</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2506749175743963</v>
+        <v>0.2580948182064048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003014187248852473</v>
+        <v>0.00264644821255818</v>
       </c>
     </row>
     <row r="6">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04354131998538389</v>
+        <v>-0.04594936203178639</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2648332745293138</v>
+        <v>-0.2631563177668622</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2273879108624997</v>
+        <v>-0.2297683297330813</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8563809442372163</v>
+        <v>0.8485314797391772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1129157438577961</v>
+        <v>0.1154099864351705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008681983524963839</v>
+        <v>0.008002151525592398</v>
       </c>
     </row>
     <row r="7">
@@ -1161,22 +1161,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2095850654698087</v>
+        <v>-0.2121131256491886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05192655160785952</v>
+        <v>0.05021216810016065</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4936698093445309</v>
+        <v>-0.4962892753642115</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2621225508314409</v>
+        <v>0.2564517041617403</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5409883651009364</v>
+        <v>0.5544157590594998</v>
       </c>
       <c r="G7" t="n">
-        <v>7.260410520216977e-08</v>
+        <v>6.24662363236104e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1186,22 +1186,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.214383775209596</v>
+        <v>1.214520018203171</v>
       </c>
       <c r="C8" t="n">
-        <v>1.009846447245156</v>
+        <v>1.012770782215226</v>
       </c>
       <c r="D8" t="n">
-        <v>1.593201101245225</v>
+        <v>1.594663662067378</v>
       </c>
       <c r="E8" t="n">
-        <v>3.066442031169059e-08</v>
+        <v>3.0359290786689e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>2.602111280955795e-31</v>
+        <v>1.742871968168136e-31</v>
       </c>
       <c r="G8" t="n">
-        <v>8.860146767508431e-44</v>
+        <v>7.754657997199307e-44</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9768040884424882</v>
+        <v>0.9769342649947376</v>
       </c>
       <c r="C9" t="n">
-        <v>1.884171795733702</v>
+        <v>1.885173288047669</v>
       </c>
       <c r="D9" t="n">
-        <v>2.555199009137067</v>
+        <v>2.556835419898493</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00321459453389069</v>
+        <v>0.003214703884960893</v>
       </c>
       <c r="F9" t="n">
-        <v>2.97007966447622e-43</v>
+        <v>2.717174511608822e-43</v>
       </c>
       <c r="G9" t="n">
-        <v>1.576423543810414e-57</v>
+        <v>1.389671933915132e-57</v>
       </c>
     </row>
     <row r="10">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.012442627125171</v>
+        <v>1.013573722226827</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7421919253971802</v>
+        <v>0.7433474333119794</v>
       </c>
       <c r="D10" t="n">
-        <v>1.149571165381841</v>
+        <v>1.15057806725931</v>
       </c>
       <c r="E10" t="n">
-        <v>5.489492065887735e-05</v>
+        <v>5.380021182952457e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>5.930287994431095e-14</v>
+        <v>5.423224710405565e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>1.949288882894712e-18</v>
+        <v>1.872943196384896e-18</v>
       </c>
     </row>
     <row r="11">
@@ -1261,22 +1261,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.240962945978958</v>
+        <v>2.24234024840991</v>
       </c>
       <c r="C11" t="n">
-        <v>1.355919851106419</v>
+        <v>1.354543771999679</v>
       </c>
       <c r="D11" t="n">
-        <v>2.301534552786638</v>
+        <v>2.302661771044734</v>
       </c>
       <c r="E11" t="n">
-        <v>3.491508371896387e-24</v>
+        <v>3.290843419564386e-24</v>
       </c>
       <c r="F11" t="n">
-        <v>2.254671795437987e-35</v>
+        <v>2.501950373449804e-35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.850548210384583e-85</v>
+        <v>1.803439607881941e-85</v>
       </c>
     </row>
     <row r="12">
@@ -1286,22 +1286,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-15.04815149332628</v>
+        <v>-14.98128682655227</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4640836174999506</v>
+        <v>-0.4598776390168584</v>
       </c>
       <c r="D12" t="n">
-        <v>1.075072079525298</v>
+        <v>1.079335365740988</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9939853521242787</v>
+        <v>0.9938201323816646</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2927574075509894</v>
+        <v>0.2972495988638451</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001966346571048889</v>
+        <v>0.001891691355572137</v>
       </c>
     </row>
     <row r="13">
@@ -1311,22 +1311,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0699343067271985</v>
+        <v>-0.07027259943222607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1522187535483459</v>
+        <v>0.1471193161468418</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2945140608351662</v>
+        <v>0.294661792482862</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7632055344733651</v>
+        <v>0.7621110158348131</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1850420502100594</v>
+        <v>0.2001517944295005</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004394596648801262</v>
+        <v>0.004376827643635062</v>
       </c>
     </row>
     <row r="14">
@@ -1336,22 +1336,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8384864886429011</v>
+        <v>0.8345885778007399</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8920040882653149</v>
+        <v>0.8938480502775497</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6355199158327899</v>
+        <v>0.6316904807989495</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01366199747740317</v>
+        <v>0.01411132294578937</v>
       </c>
       <c r="F14" t="n">
-        <v>2.418424332120769e-09</v>
+        <v>2.219788945487675e-09</v>
       </c>
       <c r="G14" t="n">
-        <v>7.99173603229487e-05</v>
+        <v>8.860952614953871e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1361,22 +1361,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-306.8639010690084</v>
+        <v>-18.67108258764352</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.172570725357626</v>
+        <v>-0.1641069274700358</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4096731511474903</v>
+        <v>0.4177827090210945</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.9991224631099533</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7815260511829075</v>
+        <v>0.7916999873160813</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4222618595945671</v>
+        <v>0.4127721280394887</v>
       </c>
     </row>
     <row r="16">
@@ -1386,22 +1386,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1880380179081515</v>
+        <v>0.1882892836836865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5131137951094541</v>
+        <v>0.50806526128751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7458190721909601</v>
+        <v>0.7453407133617059</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4425247116698419</v>
+        <v>0.4417802485986496</v>
       </c>
       <c r="F16" t="n">
-        <v>1.57567207974234e-05</v>
+        <v>1.900097436729594e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>1.943354404780843e-12</v>
+        <v>1.986018292504236e-12</v>
       </c>
     </row>
     <row r="17">
@@ -1411,22 +1411,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.929671333911376</v>
+        <v>1.923187456252746</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4887183669210259</v>
+        <v>0.4948647797838049</v>
       </c>
       <c r="D17" t="n">
-        <v>1.381751626852765</v>
+        <v>1.377844762248299</v>
       </c>
       <c r="E17" t="n">
-        <v>4.151649685986775e-10</v>
+        <v>4.774612040934349e-10</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02374262495345128</v>
+        <v>0.02205913157457442</v>
       </c>
       <c r="G17" t="n">
-        <v>2.869501265210724e-18</v>
+        <v>3.524288182330852e-18</v>
       </c>
     </row>
     <row r="18">
@@ -1436,22 +1436,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.029133583371808</v>
+        <v>1.029324129979086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6400394598023497</v>
+        <v>0.6443225303705851</v>
       </c>
       <c r="D18" t="n">
-        <v>1.479908421070137</v>
+        <v>1.480820198702131</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01101972712197169</v>
+        <v>0.01101337209386424</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0007111785006510939</v>
+        <v>0.0006564323038438331</v>
       </c>
       <c r="G18" t="n">
-        <v>2.848712255621057e-18</v>
+        <v>2.726889547226616e-18</v>
       </c>
     </row>
     <row r="19">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.900627803138029</v>
+        <v>1.890170284375878</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4987912645043668</v>
+        <v>0.4973280100794434</v>
       </c>
       <c r="D19" t="n">
-        <v>1.161768601774078</v>
+        <v>1.153750773930277</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005855587059282025</v>
+        <v>0.006139415861806029</v>
       </c>
       <c r="F19" t="n">
-        <v>0.334828329352985</v>
+        <v>0.3368066577956818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001735617461834725</v>
+        <v>0.0001908709466846322</v>
       </c>
     </row>
     <row r="20">
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4514057990227581</v>
+        <v>0.4497173444673083</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6313188589424801</v>
+        <v>0.6293956661171612</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7730796538965743</v>
+        <v>0.7721275686433086</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1158948771188885</v>
+        <v>0.1172694623064617</v>
       </c>
       <c r="F20" t="n">
-        <v>3.629818900375004e-06</v>
+        <v>3.861897082717787e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>1.286510602561058e-09</v>
+        <v>1.343880566367667e-09</v>
       </c>
     </row>
     <row r="21">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.90625811611447</v>
+        <v>16.15827551458009</v>
       </c>
       <c r="C21" t="n">
-        <v>1.558545729184871</v>
+        <v>1.566146902773504</v>
       </c>
       <c r="D21" t="n">
-        <v>0.603379444103001</v>
+        <v>0.6155965346009998</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9845548355775732</v>
+        <v>0.9941450289620707</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02050074843299424</v>
+        <v>0.01988617751607475</v>
       </c>
       <c r="G21" t="n">
-        <v>0.288446159351338</v>
+        <v>0.2796749465890626</v>
       </c>
     </row>
     <row r="22">
@@ -1536,22 +1536,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.50364688545501</v>
+        <v>14.75397752929253</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1293340561948854</v>
+        <v>-0.1217043522848951</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.588260201691609</v>
+        <v>-1.577227563698649</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9861124984687996</v>
+        <v>0.9946538701239097</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8489427543468857</v>
+        <v>0.8577498866476179</v>
       </c>
       <c r="G22" t="n">
-        <v>0.006033018205011315</v>
+        <v>0.006487912194069871</v>
       </c>
     </row>
     <row r="23">
@@ -1561,22 +1561,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.77709683585343</v>
+        <v>16.03263419318155</v>
       </c>
       <c r="C23" t="n">
-        <v>1.206876646520022</v>
+        <v>1.21412696363654</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6469447383051282</v>
+        <v>0.6622226239901229</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9846982714012351</v>
+        <v>0.9941905543958709</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06841847656998716</v>
+        <v>0.06676281064433522</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2468866123611022</v>
+        <v>0.2367833097328544</v>
       </c>
     </row>
     <row r="24">
@@ -1586,22 +1586,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.49927479684379</v>
+        <v>16.75459735720265</v>
       </c>
       <c r="C24" t="n">
-        <v>1.163827623266</v>
+        <v>1.173562500857284</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7657983323923916</v>
+        <v>0.7811551625046886</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9838962802041802</v>
+        <v>0.9939289550481935</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07847662632454781</v>
+        <v>0.07599383679673982</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1699730801036228</v>
+        <v>0.1623543969427327</v>
       </c>
     </row>
     <row r="25">
@@ -1611,22 +1611,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.64146144914776</v>
+        <v>16.89083000983949</v>
       </c>
       <c r="C25" t="n">
-        <v>1.470183139905146</v>
+        <v>1.467954502017556</v>
       </c>
       <c r="D25" t="n">
-        <v>1.891195353822589</v>
+        <v>1.89681035142269</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9837383906417024</v>
+        <v>0.9938795923470816</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05138786489970393</v>
+        <v>0.0517127128903898</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002888833729932324</v>
+        <v>0.002847965817603048</v>
       </c>
     </row>
     <row r="26">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1713959835496699</v>
+        <v>-0.1709938410053292</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2931269320944214</v>
+        <v>0.2940101553418057</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5834140439004176</v>
+        <v>0.5833962758839319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1225986681117469</v>
+        <v>0.1235005484227553</v>
       </c>
       <c r="F26" t="n">
-        <v>1.375008167064351e-07</v>
+        <v>1.254688905204532e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>2.169382162486267e-34</v>
+        <v>2.137895611301723e-34</v>
       </c>
     </row>
     <row r="27">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.004727650945352831</v>
+        <v>-0.004834803199119744</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.004298380117915094</v>
+        <v>-0.004128024832732685</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.005416961077794404</v>
+        <v>-0.005438279053248751</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3906460541869401</v>
+        <v>0.3801809875797044</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1714566739430703</v>
+        <v>0.1890594023113807</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02302779624058937</v>
+        <v>0.02247929409177108</v>
       </c>
     </row>
     <row r="28">
@@ -1686,22 +1686,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004285688480464087</v>
+        <v>-0.0004282604922493723</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.002938642708905135</v>
+        <v>-0.002937272994796571</v>
       </c>
       <c r="D28" t="n">
-        <v>5.310445442405792e-05</v>
+        <v>5.298746732647649e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>8.587809158226728e-41</v>
+        <v>9.302930133640311e-41</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.957608490453818e-36</v>
+        <v>6.655794761279925e-36</v>
       </c>
     </row>
     <row r="29">
@@ -1711,22 +1711,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.379074312528249</v>
+        <v>-2.37659004600795</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.645078004148667</v>
+        <v>-2.647254725082537</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.907851269630966</v>
+        <v>-2.9057181325782</v>
       </c>
       <c r="E29" t="n">
-        <v>1.163000769133359e-66</v>
+        <v>1.695440754808116e-66</v>
       </c>
       <c r="F29" t="n">
-        <v>2.107560752324007e-176</v>
+        <v>1.026253784591949e-176</v>
       </c>
       <c r="G29" t="n">
-        <v>9.088809254061805e-288</v>
+        <v>2.016485100254107e-287</v>
       </c>
     </row>
     <row r="30">
@@ -1736,22 +1736,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1778653593179579</v>
+        <v>0.1774623395091453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09986338033870111</v>
+        <v>0.09936295668606956</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09872621460914702</v>
+        <v>0.09826520105388525</v>
       </c>
       <c r="E30" t="n">
-        <v>2.392948521146525e-05</v>
+        <v>2.494740581876679e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>1.041764015945157e-05</v>
+        <v>1.156333386777525e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>4.765727382392526e-08</v>
+        <v>5.474855498418873e-08</v>
       </c>
     </row>
     <row r="31">
@@ -1761,22 +1761,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.59240652444736e-05</v>
+        <v>0.001738736577374853</v>
       </c>
       <c r="C31" t="n">
-        <v>2.693909748682969e-05</v>
+        <v>0.002903926609802851</v>
       </c>
       <c r="D31" t="n">
-        <v>1.647381433919578e-05</v>
+        <v>0.001742604971524358</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08741980722507048</v>
+        <v>0.0611136815117512</v>
       </c>
       <c r="F31" t="n">
-        <v>4.989135736221155e-06</v>
+        <v>7.056096794829339e-07</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0007015214495758884</v>
+        <v>0.0003097478316911043</v>
       </c>
     </row>
     <row r="32">
@@ -1786,22 +1786,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03874938563077178</v>
+        <v>0.03622184762558864</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01126013334686294</v>
+        <v>-0.01264741681056894</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01921628723051153</v>
+        <v>0.01715896391457921</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2538254327876154</v>
+        <v>0.2861858624105855</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4299239237389086</v>
+        <v>0.3764222012333481</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1349727637374301</v>
+        <v>0.1825425524550872</v>
       </c>
     </row>
     <row r="33">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.01689687435378293</v>
+        <v>-0.01512643287220711</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.07964693422859501</v>
+        <v>-0.08350076697842408</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07841758011266763</v>
+        <v>-0.07849414822987305</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5021313293917362</v>
+        <v>0.5467655239913196</v>
       </c>
       <c r="F33" t="n">
-        <v>1.646010295730312e-12</v>
+        <v>1.15371800190855e-13</v>
       </c>
       <c r="G33" t="n">
-        <v>5.861689625383752e-15</v>
+        <v>4.184703608127149e-15</v>
       </c>
     </row>
     <row r="34">
@@ -1836,22 +1836,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01637405396798012</v>
+        <v>0.01591379842545027</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009543053761791043</v>
+        <v>0.01014470591060893</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007033428143586665</v>
+        <v>0.006891250077360846</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01226986986908409</v>
+        <v>0.01521471337833331</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0005860190039855592</v>
+        <v>0.0002652459477761859</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003851502499806256</v>
+        <v>0.004681083050152931</v>
       </c>
     </row>
     <row r="35">
@@ -1861,22 +1861,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02234575313397417</v>
+        <v>0.02201334148673336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007503799449710568</v>
+        <v>0.007712592915154851</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002152997332669105</v>
+        <v>0.002049095574662021</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01549407256517199</v>
+        <v>0.01695707978753763</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03335137686687638</v>
+        <v>0.02882206938680257</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4922979277075691</v>
+        <v>0.5132437788270447</v>
       </c>
     </row>
     <row r="36">
@@ -1886,22 +1886,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.044045253709213</v>
+        <v>0.02977082151819273</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.8324040034280934</v>
+        <v>-0.00582016727075941</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.5062064196974347</v>
+        <v>-0.005101702774135327</v>
       </c>
       <c r="E36" t="n">
-        <v>1.369436378788094e-05</v>
+        <v>2.258565665515671e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03205926486079234</v>
+        <v>0.1320910254050565</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1171641885175667</v>
+        <v>0.1127726949017873</v>
       </c>
     </row>
     <row r="37">
@@ -1911,22 +1911,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.8708762119189367</v>
+        <v>-0.008670980710839783</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.21368948764642</v>
+        <v>-0.01171395132591947</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.07865333592699</v>
+        <v>-0.01036493133238011</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1140418639873867</v>
+        <v>0.1145579112979038</v>
       </c>
       <c r="F37" t="n">
-        <v>1.028435013059019e-05</v>
+        <v>2.184402240782472e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>4.57071440782946e-06</v>
+        <v>1.087149264559266e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2330943499473461</v>
+        <v>0.002460957776299032</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.167496872877375</v>
+        <v>-0.01123756809462828</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.08569535598700238</v>
+        <v>-0.0005815160031242652</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7451413397468285</v>
+        <v>0.7307264534091533</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0003516530722940916</v>
+        <v>0.0005804985889202958</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7674299682873236</v>
+        <v>0.8407615173784035</v>
       </c>
     </row>
     <row r="39">
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.361715213561439e-05</v>
+        <v>0.006547958576711067</v>
       </c>
       <c r="C39" t="n">
-        <v>8.862541762635638e-05</v>
+        <v>0.005354085843578274</v>
       </c>
       <c r="D39" t="n">
-        <v>8.160569025313461e-05</v>
+        <v>0.00684008413596052</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03196806043234532</v>
+        <v>0.02526925527957519</v>
       </c>
       <c r="F39" t="n">
-        <v>5.180955096586439e-05</v>
+        <v>0.003409733218860068</v>
       </c>
       <c r="G39" t="n">
-        <v>1.21460899051885e-05</v>
+        <v>1.104910599285299e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2041,24 +2041,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-34.44712219638649</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.388665338859358</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.582509626586794</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9999751318054938</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.007682496504774378</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.04086317638640338</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2066,24 +2054,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.1143878655171979</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.04684628632282817</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.09108636081068157</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4900330112901872</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5811534546803037</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.224059499928163</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2091,24 +2067,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.7163007494669976</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6890592483293141</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.8671942964895841</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.003661725128803384</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.839202635294882e-08</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.044601494479718e-12</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2116,24 +2080,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.4132307088121906</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1151889096586063</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2936072066080899</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05134251461151199</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2365849180169204</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0007257450967272555</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2141,24 +2093,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.04496896474715967</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3092896332772749</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.2668431473276189</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8500265027725604</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.05981363928266712</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.002366392598559149</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2166,24 +2106,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.1172160415486824</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02036370789547052</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.4528837916459497</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5220676435731546</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.809903191831405</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.086331651306687e-06</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2191,24 +2119,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.433172552777497</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.042958569825352</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.537308963085646</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.718901546305622e-10</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.261137674340388e-33</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.849153603306247e-42</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2216,24 +2132,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1.53856671896721</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.953531323276544</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.637469405740802</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.402608983386783e-06</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.716021791820447e-46</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.50596932406703e-61</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2241,24 +2145,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.22776627199847</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7178112269275256</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.048619539778594</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.160892442399856e-06</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.830171609743988e-13</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.152728564826357e-16</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2266,24 +2158,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.353512220478098</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.364287919745736</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.20471544342985</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.924203685061702e-24</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7.300916910166697e-36</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.014667467278953e-80</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2291,24 +2171,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>-21.68583458173316</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.3115754701066443</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.597887864437709</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9997111247528704</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.5025210279645628</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1163053783421238</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2316,24 +2184,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.003759459305682223</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1426280200278083</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3307466627850947</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9867145375525715</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2122486037187163</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.001334208871541782</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2341,24 +2197,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.9404697879552435</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7914203960214309</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7168585921952293</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.003572040273238901</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.256953010022725e-07</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.530223923985694e-06</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2366,24 +2210,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-18.11766752378441</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2590327764553321</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.158064824709039</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9988037615428635</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.677490458842399</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.7530574471953134</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2391,24 +2223,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.1492835274060023</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5613338335564473</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.746413376024771</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5311056870056658</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.546957843968407e-06</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.974407411112248e-12</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2416,24 +2236,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1.707772052615984</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3495669747092458</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.268977080256999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.945632041069714e-08</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.107093721106592</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.274711683180729e-15</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2441,24 +2249,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.6894007463654777</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.61399428192879</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.478275202990707</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.08748709291311228</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.001152509983882372</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.068866565158549e-18</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2466,24 +2262,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1.505058522031747</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3557430345808751</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9676496395899705</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.02782263858858089</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.4717649958756726</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.001238458069334897</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2491,24 +2275,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.3342960158162152</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6388877137291058</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.7751150341839521</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.2543799977263237</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.98976802922895e-06</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.429597142936001e-09</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2516,24 +2288,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>28.80064686232185</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.42202048635981</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6448384734835247</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9999792081299557</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.04770480146936433</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2888179058595489</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2541,24 +2301,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>27.40379381829005</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.3159041629068243</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.69539233843116</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9999802165512975</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.6627415094289557</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.006049335313945561</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2566,24 +2314,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>28.62384699263166</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.173021707470548</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.7254389470999089</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999793357659748</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.09787693064457358</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.225642504805812</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2591,24 +2327,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>29.21045844714082</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.079050567422329</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8260695405032908</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.999978912277253</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1273646586857985</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.1670630471834054</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2616,24 +2340,12 @@
           <t>Education[T.Unknown]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>29.28047252193986</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.479031474309399</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.873548798155122</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9999788617324318</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.06371080659538746</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.0054527607308589</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2641,24 +2353,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.2030392570943189</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2857397048937093</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5521265497746468</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.06623254614958027</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.867693308149599e-07</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.561823358037835e-30</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2666,24 +2366,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>-0.002162019608315266</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.00517717809935615</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.006716053032742208</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.6909913871147522</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0990963985641628</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.005194435773833177</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2691,24 +2379,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-0.0004548368842731066</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.00289265856602367</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5.416318295628989e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.344732749222583e-43</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>6.609920132258928e-37</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2716,24 +2392,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-2.413522744897375</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-2.713483667465379</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-2.966149796677622</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.007050052402026e-68</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.505833359727024e-178</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.83709037491629e-287</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2741,24 +2405,12 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.1510712095658756</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1088476181520088</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.07513469546191157</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.000375566368340587</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.822832974712692e-06</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.771019646506452e-05</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2766,24 +2418,12 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2.563583430378032e-05</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.262289150800598e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.936337130552796e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.006029398276416025</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3.247785681810331e-08</v>
-      </c>
-      <c r="G31" t="n">
-        <v>7.325815882024693e-05</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2791,24 +2431,12 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.03074616286784248</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.01022449512973577</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0300892455162113</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.3622823150502401</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.4783553434785103</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.02027090313282729</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2816,24 +2444,12 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>-0.01056644564191959</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.07404966324366248</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.07637816885776456</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.6717401846080195</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5.151553082111006e-11</v>
-      </c>
-      <c r="G33" t="n">
-        <v>4.601389123013767e-14</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2841,24 +2457,12 @@
           <t>IntersecDensity_res</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.01605698484245227</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.01141131921601573</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.008233096339318702</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.01484428388634978</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4.110521640132287e-05</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.0007357117033393417</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2866,24 +2470,12 @@
           <t>street_length_res</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0.02708795314816644</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.009458361195914608</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.003419036634019677</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.003004151258280021</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.007592619129385805</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.2791882064666088</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2891,24 +2483,12 @@
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2.578094851240198</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-1.028331290643039</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.5042693283186789</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.000226607273451946</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.007500751155785518</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.1182345651472959</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2916,24 +2496,12 @@
           <t>LU_UrbFab_res</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>-0.5822375912862404</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-1.188441475267814</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-1.109331462017503</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.3022238896360426</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.565920121007512e-05</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.531178077684278e-06</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2941,24 +2509,12 @@
           <t>LU_Comm_res</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0.9385344680841338</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.9577038261790624</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.1440926511798066</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.1917766591897324</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.003342086691764164</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.6199707394789187</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2966,24 +2522,12 @@
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>8.325116410556554e-05</v>
-      </c>
-      <c r="C39" t="n">
-        <v>8.780502213784581e-05</v>
-      </c>
-      <c r="D39" t="n">
-        <v>7.817270469972704e-05</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.01497302484307284</v>
-      </c>
-      <c r="F39" t="n">
-        <v>5.083967300797613e-05</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.582013784715038e-05</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3598,22 +3142,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-22.63161568786684</v>
+        <v>-21.37788933524422</v>
       </c>
       <c r="C2" t="n">
-        <v>2.398913053803507</v>
+        <v>2.411108495959203</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.793816006661984</v>
+        <v>-1.761010186792174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9930646740849127</v>
+        <v>0.9883299164922104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004837545126397425</v>
+        <v>0.004638619958275723</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01306520579343909</v>
+        <v>0.01487448195899233</v>
       </c>
     </row>
     <row r="3">
@@ -3623,22 +3167,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05875696879802695</v>
+        <v>0.05766539935458413</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02712737660279183</v>
+        <v>-0.02665450403128211</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04280914703700046</v>
+        <v>-0.04339950577443925</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7218856229485646</v>
+        <v>0.7267572342535762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7494368340678368</v>
+        <v>0.7536302590619313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5661477940211711</v>
+        <v>0.5607465982170337</v>
       </c>
     </row>
     <row r="4">
@@ -3648,22 +3192,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5764738604876413</v>
+        <v>-0.5759997746283011</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6532723639335548</v>
+        <v>-0.6517143874578119</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9053663559836265</v>
+        <v>-0.9046447955970158</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01902171734996879</v>
+        <v>0.01913624793783785</v>
       </c>
       <c r="F4" t="n">
-        <v>1.288921715569346e-07</v>
+        <v>1.37216070974732e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>1.563414576571368e-13</v>
+        <v>1.639755413274299e-13</v>
       </c>
     </row>
     <row r="5">
@@ -3673,22 +3217,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4518081881238505</v>
+        <v>-0.4574512522664514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1201304019289147</v>
+        <v>0.1182877256898125</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2629270895975623</v>
+        <v>-0.2665995224289719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04415972387120985</v>
+        <v>0.04160378936995469</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2161319070769021</v>
+        <v>0.2232243917608361</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002661071460004316</v>
+        <v>0.00231578481683725</v>
       </c>
     </row>
     <row r="6">
@@ -3698,22 +3242,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06439620421237087</v>
+        <v>0.06104952043102311</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1874464912594825</v>
+        <v>-0.187270730703354</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2091031470188654</v>
+        <v>-0.2116716248500267</v>
       </c>
       <c r="E6" t="n">
-        <v>0.789687616791892</v>
+        <v>0.8003773338481405</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2722741070518386</v>
+        <v>0.2729100612777704</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01724500435236325</v>
+        <v>0.01592340228875047</v>
       </c>
     </row>
     <row r="7">
@@ -3723,22 +3267,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08518026863397864</v>
+        <v>-0.08810911579186961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03918368847477046</v>
+        <v>0.03800635037183459</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.47925801889012</v>
+        <v>-0.4812310891208921</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6449239857271353</v>
+        <v>0.6336203972583411</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6431118006668506</v>
+        <v>0.6531063654040271</v>
       </c>
       <c r="G7" t="n">
-        <v>2.016777152379519e-07</v>
+        <v>1.803430834991937e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3748,22 +3292,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.382575991200028</v>
+        <v>1.382073916534848</v>
       </c>
       <c r="C8" t="n">
-        <v>1.022322238602809</v>
+        <v>1.025563725224869</v>
       </c>
       <c r="D8" t="n">
-        <v>1.656270963862794</v>
+        <v>1.656616135026752</v>
       </c>
       <c r="E8" t="n">
-        <v>1.810388206865651e-09</v>
+        <v>1.822057320734457e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>8.495261641480732e-32</v>
+        <v>5.532242918408187e-32</v>
       </c>
       <c r="G8" t="n">
-        <v>3.795562358777049e-46</v>
+        <v>3.6702270273559e-46</v>
       </c>
     </row>
     <row r="9">
@@ -3773,22 +3317,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.290368984343381</v>
+        <v>1.29065466209004</v>
       </c>
       <c r="C9" t="n">
-        <v>1.955080454970854</v>
+        <v>1.957280247826579</v>
       </c>
       <c r="D9" t="n">
-        <v>2.605553375295165</v>
+        <v>2.606937578600163</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001645621827503012</v>
+        <v>0.0001640818428541666</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5112147098122e-46</v>
+        <v>2.025522158974473e-46</v>
       </c>
       <c r="G9" t="n">
-        <v>2.670316946433919e-59</v>
+        <v>2.343861980000067e-59</v>
       </c>
     </row>
     <row r="10">
@@ -3798,22 +3342,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.1361513579777</v>
+        <v>1.136174359473316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7354771395238664</v>
+        <v>0.7360887346319939</v>
       </c>
       <c r="D10" t="n">
-        <v>1.077821184460144</v>
+        <v>1.076924126015942</v>
       </c>
       <c r="E10" t="n">
-        <v>1.068376148871664e-05</v>
+        <v>1.067374288989109e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>9.121781278696985e-14</v>
+        <v>8.699570766764838e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>6.170166384208083e-16</v>
+        <v>6.615085050374824e-16</v>
       </c>
     </row>
     <row r="11">
@@ -3823,22 +3367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.381798794068144</v>
+        <v>2.383408137185448</v>
       </c>
       <c r="C11" t="n">
-        <v>1.37163586813841</v>
+        <v>1.372821423140489</v>
       </c>
       <c r="D11" t="n">
-        <v>2.310578212420482</v>
+        <v>2.311357955511633</v>
       </c>
       <c r="E11" t="n">
-        <v>1.53223445147398e-24</v>
+        <v>1.439486267167025e-24</v>
       </c>
       <c r="F11" t="n">
-        <v>5.765559402244498e-36</v>
+        <v>4.735978167696827e-36</v>
       </c>
       <c r="G11" t="n">
-        <v>4.179052133859029e-84</v>
+        <v>3.996632992131625e-84</v>
       </c>
     </row>
     <row r="12">
@@ -3848,22 +3392,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20.36620612106491</v>
+        <v>-20.26265450139775</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.229508678790156</v>
+        <v>-0.222777825272777</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7469877020854749</v>
+        <v>0.7525341896170534</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9994852733743106</v>
+        <v>0.9994616840595282</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6167620755469996</v>
+        <v>0.6271077538447962</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04059578588079164</v>
+        <v>0.03920353848506079</v>
       </c>
     </row>
     <row r="13">
@@ -3873,22 +3417,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1289124008769507</v>
+        <v>0.1280853037072442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1060515079081395</v>
+        <v>0.100449535997826</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2947429946492351</v>
+        <v>0.2934245301117528</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5490570234789407</v>
+        <v>0.5516782916292766</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3544800131992356</v>
+        <v>0.380412446409897</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003949849262846165</v>
+        <v>0.004118962572959017</v>
       </c>
     </row>
     <row r="14">
@@ -3898,22 +3442,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6882990204479681</v>
+        <v>0.6844038667361997</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6206237988502524</v>
+        <v>0.6245342399410336</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5759073800169947</v>
+        <v>0.5733898974981274</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0510500704715109</v>
+        <v>0.0523501585881569</v>
       </c>
       <c r="F14" t="n">
-        <v>3.721075906371421e-05</v>
+        <v>3.302149761447637e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003988524022811078</v>
+        <v>0.0004226194780825072</v>
       </c>
     </row>
     <row r="15">
@@ -3923,22 +3467,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.66860087185898</v>
+        <v>-13.27693295676163</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06158189308860702</v>
+        <v>-0.05939692257830658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01785686207331505</v>
+        <v>0.01443412334084947</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9698023681186091</v>
+        <v>0.9897867542561082</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9151182269149455</v>
+        <v>0.9180618081074657</v>
       </c>
       <c r="G15" t="n">
-        <v>0.975102937214346</v>
+        <v>0.9798623203637213</v>
       </c>
     </row>
     <row r="16">
@@ -3948,22 +3492,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2806876281138467</v>
+        <v>0.2820192009117048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5652402960924799</v>
+        <v>0.5614413310632966</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6734831609721098</v>
+        <v>0.6735418124404342</v>
       </c>
       <c r="E16" t="n">
-        <v>0.240331501411715</v>
+        <v>0.2379854392500461</v>
       </c>
       <c r="F16" t="n">
-        <v>2.073597068987996e-06</v>
+        <v>2.41771353214713e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>2.801881247072401e-10</v>
+        <v>2.774629575177311e-10</v>
       </c>
     </row>
     <row r="17">
@@ -3973,22 +3517,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.930411196289688</v>
+        <v>1.921547356419491</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4973411923461138</v>
+        <v>0.5050291381386405</v>
       </c>
       <c r="D17" t="n">
-        <v>1.449390471241924</v>
+        <v>1.444731298186406</v>
       </c>
       <c r="E17" t="n">
-        <v>3.087189195711329e-10</v>
+        <v>3.714240489496763e-10</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02317517281994966</v>
+        <v>0.02115232395675654</v>
       </c>
       <c r="G17" t="n">
-        <v>6.501708155669483e-20</v>
+        <v>8.425282425961283e-20</v>
       </c>
     </row>
     <row r="18">
@@ -3998,22 +3542,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8021696691688328</v>
+        <v>0.8009002560458249</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5906340848676047</v>
+        <v>0.594055604073172</v>
       </c>
       <c r="D18" t="n">
-        <v>1.465534402421054</v>
+        <v>1.464693131306828</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04808492987699539</v>
+        <v>0.04840177463569971</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001859075618749097</v>
+        <v>0.001751506918113062</v>
       </c>
       <c r="G18" t="n">
-        <v>8.335625779172306e-18</v>
+        <v>8.646590664084935e-18</v>
       </c>
     </row>
     <row r="19">
@@ -4023,22 +3567,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4649377215428272</v>
+        <v>0.4532928590297354</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5686333659300528</v>
+        <v>0.5724529424588917</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9747584826319668</v>
+        <v>0.9680119071026153</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6623299031501841</v>
+        <v>0.6702942251772757</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2688971830540391</v>
+        <v>0.2660092364915565</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001307496874880646</v>
+        <v>0.001409481710377868</v>
       </c>
     </row>
     <row r="20">
@@ -4048,22 +3592,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3734157578971598</v>
+        <v>0.3715780815442614</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5490802692146258</v>
+        <v>0.5486455156175851</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7236498450700244</v>
+        <v>0.7221365272810151</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1935641250538015</v>
+        <v>0.1957935610116864</v>
       </c>
       <c r="F20" t="n">
-        <v>3.724265661254553e-05</v>
+        <v>3.773246633921624e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>1.152876820311631e-08</v>
+        <v>1.234537438024921e-08</v>
       </c>
     </row>
     <row r="21">
@@ -4073,22 +3617,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.56355983371377</v>
+        <v>15.42287591975393</v>
       </c>
       <c r="C21" t="n">
-        <v>1.568837295450334</v>
+        <v>1.57062879775364</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6539728377238327</v>
+        <v>0.6621201429767164</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9949241638343521</v>
+        <v>0.9915805810579478</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01813806391879018</v>
+        <v>0.01801018055618663</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2264231539428548</v>
+        <v>0.2211515596556716</v>
       </c>
     </row>
     <row r="22">
@@ -4098,22 +3642,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.27790924670503</v>
+        <v>14.13555181255826</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1016300863284721</v>
+        <v>-0.09951603020141227</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.57388124033318</v>
+        <v>-1.566987407751847</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9953181415857484</v>
+        <v>0.9922833144176681</v>
       </c>
       <c r="F22" t="n">
-        <v>0.879499537866117</v>
+        <v>0.8819931293485697</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004337175407641946</v>
+        <v>0.004550178203197093</v>
       </c>
     </row>
     <row r="23">
@@ -4123,22 +3667,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.45337560625298</v>
+        <v>15.31694561390611</v>
       </c>
       <c r="C23" t="n">
-        <v>1.330261724291947</v>
+        <v>1.332230083489715</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7441773749936976</v>
+        <v>0.7544606039035393</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9949579288692343</v>
+        <v>0.9916384066351298</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04177987509609071</v>
+        <v>0.04148630202110646</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1606210764360471</v>
+        <v>0.1553452996924093</v>
       </c>
     </row>
     <row r="24">
@@ -4148,22 +3692,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.04604853697466</v>
+        <v>15.90746756762108</v>
       </c>
       <c r="C24" t="n">
-        <v>1.24065318850857</v>
+        <v>1.244345812831853</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8319462960227765</v>
+        <v>0.8415245671491212</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9947763091662344</v>
+        <v>0.9913160503657589</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05724713330536043</v>
+        <v>0.05651625734271272</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1162328713850406</v>
+        <v>0.1124615867800792</v>
       </c>
     </row>
     <row r="25">
@@ -4173,22 +3717,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.43495912097405</v>
+        <v>16.29319093865352</v>
       </c>
       <c r="C25" t="n">
-        <v>1.759274672219051</v>
+        <v>1.754844508512327</v>
       </c>
       <c r="D25" t="n">
-        <v>2.079686177234096</v>
+        <v>2.08376116551754</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9946571311272807</v>
+        <v>0.9911054923031821</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01961568819160748</v>
+        <v>0.01992467196255191</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0007487341891325157</v>
+        <v>0.0007382784003079422</v>
       </c>
     </row>
     <row r="26">
@@ -4198,22 +3742,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1284315791437519</v>
+        <v>-0.1275545733392686</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2952801064844551</v>
+        <v>0.2959827299182884</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5921400473288407</v>
+        <v>0.5924495631284921</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2463939208805062</v>
+        <v>0.2496814270855886</v>
       </c>
       <c r="F26" t="n">
-        <v>1.180599816959676e-07</v>
+        <v>1.099045185975698e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>4.390596116728651e-35</v>
+        <v>3.977818379378842e-35</v>
       </c>
     </row>
     <row r="27">
@@ -4223,22 +3767,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.003307727965670395</v>
+        <v>-0.003435493297632872</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.00447785522114563</v>
+        <v>-0.004331657862124554</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.005065403787041011</v>
+        <v>-0.005088018545011156</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5461836113716974</v>
+        <v>0.5308653636620031</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1561371823245239</v>
+        <v>0.170069863767367</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03424243818211275</v>
+        <v>0.03343486019758767</v>
       </c>
     </row>
     <row r="28">
@@ -4248,22 +3792,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004078762864941959</v>
+        <v>-0.0004074294960489746</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00296781342117048</v>
+        <v>-0.002967617265784168</v>
       </c>
       <c r="D28" t="n">
-        <v>5.496859405464783e-05</v>
+        <v>5.484772862787192e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>1.639272794491797e-38</v>
+        <v>1.814583478666958e-38</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.306137462772515e-38</v>
+        <v>1.772725663068545e-38</v>
       </c>
     </row>
     <row r="29">
@@ -4273,22 +3817,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.410642222985631</v>
+        <v>-2.407862997857767</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.693602437675044</v>
+        <v>-2.696039113105474</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.948425912110654</v>
+        <v>-2.946326917547632</v>
       </c>
       <c r="E29" t="n">
-        <v>1.143613203829279e-67</v>
+        <v>1.854150021562819e-67</v>
       </c>
       <c r="F29" t="n">
-        <v>7.855680770023296e-177</v>
+        <v>4.164999004079408e-177</v>
       </c>
       <c r="G29" t="n">
-        <v>8.259357503735163e-285</v>
+        <v>1.861195587617599e-284</v>
       </c>
     </row>
     <row r="30">
@@ -4298,22 +3842,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1892120170942724</v>
+        <v>0.1889992804395503</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1128041083445268</v>
+        <v>0.112445058563472</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1013504296124085</v>
+        <v>0.1011824165632577</v>
       </c>
       <c r="E30" t="n">
-        <v>6.858128714339062e-06</v>
+        <v>7.006203634990582e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>7.182808317100924e-07</v>
+        <v>7.799835143236089e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>2.642775038523664e-08</v>
+        <v>2.769826681003055e-08</v>
       </c>
     </row>
     <row r="31">
@@ -4323,22 +3867,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.200259023907979e-05</v>
+        <v>0.002355774691627854</v>
       </c>
       <c r="C31" t="n">
-        <v>3.164797731331355e-05</v>
+        <v>0.003376714920130159</v>
       </c>
       <c r="D31" t="n">
-        <v>1.932243273910269e-05</v>
+        <v>0.002029537307240334</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01893921751679838</v>
+        <v>0.01165526672261605</v>
       </c>
       <c r="F31" t="n">
-        <v>1.102124924918965e-07</v>
+        <v>1.134226960073731e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>7.851892689967062e-05</v>
+        <v>2.986418658962143e-05</v>
       </c>
     </row>
     <row r="32">
@@ -4348,22 +3892,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.080348778840639</v>
+        <v>0.07738351442189377</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01171646375213865</v>
+        <v>-0.01264886511736131</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02465767356871936</v>
+        <v>0.02281565445180387</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01843165396587355</v>
+        <v>0.02328156622509733</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4116428776046176</v>
+        <v>0.3766500935453512</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05527848296673726</v>
+        <v>0.07657440423430201</v>
       </c>
     </row>
     <row r="33">
@@ -4373,22 +3917,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.02491087711549495</v>
+        <v>-0.02267064076449919</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.07702924811534834</v>
+        <v>-0.0809322206491136</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07714176775930344</v>
+        <v>-0.07719361726994993</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3190940087009426</v>
+        <v>0.362818980683238</v>
       </c>
       <c r="F33" t="n">
-        <v>9.855112932752901e-12</v>
+        <v>7.301785838839629e-13</v>
       </c>
       <c r="G33" t="n">
-        <v>1.622648056788232e-14</v>
+        <v>1.226184325622356e-14</v>
       </c>
     </row>
     <row r="34">
@@ -4398,22 +3942,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01838900967545235</v>
+        <v>0.01775409622296145</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01078847281766438</v>
+        <v>0.01142069744441616</v>
       </c>
       <c r="D34" t="n">
-        <v>0.006604357620837087</v>
+        <v>0.006497918979912396</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005852655436863903</v>
+        <v>0.008002832480664569</v>
       </c>
       <c r="F34" t="n">
-        <v>9.834107215218485e-05</v>
+        <v>3.892503647116234e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006698635967061865</v>
+        <v>0.007700141755417225</v>
       </c>
     </row>
     <row r="35">
@@ -4423,22 +3967,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0269844835386157</v>
+        <v>0.02642575097914756</v>
       </c>
       <c r="C35" t="n">
-        <v>0.008541501345186104</v>
+        <v>0.008774389020550697</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002744592106826468</v>
+        <v>0.002664875393206002</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003787481287870553</v>
+        <v>0.004546941281814027</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01536590620438008</v>
+        <v>0.01284265755549558</v>
       </c>
       <c r="G35" t="n">
-        <v>0.383724753344904</v>
+        <v>0.3974823302979381</v>
       </c>
     </row>
     <row r="36">
@@ -4448,22 +3992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.751301980038728</v>
+        <v>0.02648385435829903</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7396068365961095</v>
+        <v>-0.004830188962601786</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.4428416671245283</v>
+        <v>-0.004423005030847349</v>
       </c>
       <c r="E36" t="n">
-        <v>9.414237332319429e-05</v>
+        <v>0.0001841820158844047</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0565027983382483</v>
+        <v>0.2114448340456156</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1718558427099873</v>
+        <v>0.1703583880210943</v>
       </c>
     </row>
     <row r="37">
@@ -4473,22 +4017,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.8072485253660348</v>
+        <v>-0.008102716487684195</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.166199935348443</v>
+        <v>-0.01134947380335388</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.9406664409409405</v>
+        <v>-0.009060709735178592</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1499481035320483</v>
+        <v>0.1478070725422893</v>
       </c>
       <c r="F37" t="n">
-        <v>2.290394322581786e-05</v>
+        <v>3.960852264878714e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>6.393012177561191e-05</v>
+        <v>0.0001198772543115865</v>
       </c>
     </row>
     <row r="38">
@@ -4498,22 +4042,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7289493017142334</v>
+        <v>0.007364934200685016</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.12166025849666</v>
+        <v>-0.01084282707159236</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01662055616080685</v>
+        <v>7.493289013583995e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3150209494883239</v>
+        <v>0.3087549403260831</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0006262786956097736</v>
+        <v>0.0009463302743228633</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9544669600834503</v>
+        <v>0.9794400183842248</v>
       </c>
     </row>
     <row r="39">
@@ -4523,22 +4067,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.348342413316191e-05</v>
+        <v>0.006717232179817622</v>
       </c>
       <c r="C39" t="n">
-        <v>7.346954115292264e-05</v>
+        <v>0.003984061484033861</v>
       </c>
       <c r="D39" t="n">
-        <v>7.292285381615148e-05</v>
+        <v>0.006053017863754251</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03319061063708768</v>
+        <v>0.02256051036675559</v>
       </c>
       <c r="F39" t="n">
-        <v>0.000834631085172132</v>
+        <v>0.03021797180124867</v>
       </c>
       <c r="G39" t="n">
-        <v>8.636373421508783e-05</v>
+        <v>9.37355993860346e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4604,22 +4148,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-11.84719899268589</v>
+        <v>-23.08544210039154</v>
       </c>
       <c r="C2" t="n">
-        <v>3.135943122412743</v>
+        <v>3.149985921353587</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.25193414145301</v>
+        <v>-1.212976135322645</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4843472172374556</v>
+        <v>0.9962060630103665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007667335096244579</v>
+        <v>0.000740817504907581</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1041959862779572</v>
+        <v>0.1159517446749316</v>
       </c>
     </row>
     <row r="3">
@@ -4629,22 +4173,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03970846340768054</v>
+        <v>0.0389859110848137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006262860980225815</v>
+        <v>0.005956714384512696</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1168788870389779</v>
+        <v>-0.1173492165451903</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8122949276605532</v>
+        <v>0.8156009011963125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9413261352975189</v>
+        <v>0.9441832773198178</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1181114355163341</v>
+        <v>0.1165513003500263</v>
       </c>
     </row>
     <row r="4">
@@ -4654,22 +4198,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4897170139045512</v>
+        <v>-0.4894589241567816</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6491996368733967</v>
+        <v>-0.6491591775718152</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8528166431989673</v>
+        <v>-0.8522837768328916</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05039167348866543</v>
+        <v>0.05051566733300129</v>
       </c>
       <c r="F4" t="n">
-        <v>1.666297634371051e-07</v>
+        <v>1.661832483529788e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>2.453143968578e-12</v>
+        <v>2.512466367764229e-12</v>
       </c>
     </row>
     <row r="5">
@@ -4679,22 +4223,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3897409461762169</v>
+        <v>-0.3947671142768643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08734247528353563</v>
+        <v>0.08609491530565212</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.336555481855641</v>
+        <v>-0.3399968417754767</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07175287488769794</v>
+        <v>0.06821420787902718</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3647920841816794</v>
+        <v>0.371650200700235</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001142783517327184</v>
+        <v>9.703128210802726e-05</v>
       </c>
     </row>
     <row r="6">
@@ -4704,22 +4248,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07746383173775979</v>
+        <v>0.0733177363685185</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2137104289784261</v>
+        <v>-0.2127488532486278</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2707850887175341</v>
+        <v>-0.2735108286741304</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7500576569959229</v>
+        <v>0.7630154411808433</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2049578616738673</v>
+        <v>0.2071745785093926</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002167236453014143</v>
+        <v>0.001952556705212714</v>
       </c>
     </row>
     <row r="7">
@@ -4729,22 +4273,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1044678334354071</v>
+        <v>-0.1063314589661685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03670459662294239</v>
+        <v>0.03505934527281376</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4974035640586988</v>
+        <v>-0.4986685708754932</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5866678960939207</v>
+        <v>0.5799870443164133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6666015290332675</v>
+        <v>0.6807230044889954</v>
       </c>
       <c r="G7" t="n">
-        <v>6.642158428147471e-08</v>
+        <v>6.168094862299666e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4754,22 +4298,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.454995146597746</v>
+        <v>1.455474925178344</v>
       </c>
       <c r="C8" t="n">
-        <v>1.056080168185315</v>
+        <v>1.059224269451157</v>
       </c>
       <c r="D8" t="n">
-        <v>1.573838027857881</v>
+        <v>1.574944933944726</v>
       </c>
       <c r="E8" t="n">
-        <v>1.34527796277807e-09</v>
+        <v>1.314432173441617e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>1.114259466617988e-33</v>
+        <v>7.154133557306475e-34</v>
       </c>
       <c r="G8" t="n">
-        <v>1.608275004568471e-43</v>
+        <v>1.381029096476859e-43</v>
       </c>
     </row>
     <row r="9">
@@ -4779,22 +4323,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.562205945404611</v>
+        <v>1.563754961197156</v>
       </c>
       <c r="C9" t="n">
-        <v>1.850931754906034</v>
+        <v>1.853516303209643</v>
       </c>
       <c r="D9" t="n">
-        <v>2.457874288380933</v>
+        <v>2.460370167833473</v>
       </c>
       <c r="E9" t="n">
-        <v>7.404090604890914e-06</v>
+        <v>7.251541855362918e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>3.708313177597429e-40</v>
+        <v>2.907989319868499e-40</v>
       </c>
       <c r="G9" t="n">
-        <v>1.251831925641733e-53</v>
+        <v>9.808878043615765e-54</v>
       </c>
     </row>
     <row r="10">
@@ -4804,22 +4348,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.264332950279944</v>
+        <v>1.265738705405672</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6960545109799311</v>
+        <v>0.6974905743434053</v>
       </c>
       <c r="D10" t="n">
-        <v>1.068530173577924</v>
+        <v>1.069167085069521</v>
       </c>
       <c r="E10" t="n">
-        <v>1.996344957470462e-06</v>
+        <v>1.941615694356611e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>1.790397100424205e-12</v>
+        <v>1.606571810336586e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>2.766257078552326e-16</v>
+        <v>2.669795126340131e-16</v>
       </c>
     </row>
     <row r="11">
@@ -4829,22 +4373,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.56430414043033</v>
+        <v>2.566476180149802</v>
       </c>
       <c r="C11" t="n">
-        <v>1.401381029160842</v>
+        <v>1.39998754181971</v>
       </c>
       <c r="D11" t="n">
-        <v>2.241613862443274</v>
+        <v>2.242542012278389</v>
       </c>
       <c r="E11" t="n">
-        <v>8.184925659968988e-26</v>
+        <v>7.392065892052409e-26</v>
       </c>
       <c r="F11" t="n">
-        <v>2.278643872293061e-37</v>
+        <v>2.519429958044021e-37</v>
       </c>
       <c r="G11" t="n">
-        <v>2.01210306535751e-82</v>
+        <v>1.854766388313052e-82</v>
       </c>
     </row>
     <row r="12">
@@ -4854,22 +4398,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20.72675854375518</v>
+        <v>-20.57060434712622</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5084558647232442</v>
+        <v>-0.4984257141199213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8404124525094654</v>
+        <v>0.8542735193406235</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9995881115929579</v>
+        <v>0.9995601840575714</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2671561827234614</v>
+        <v>0.2767687207667311</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02576828529113025</v>
+        <v>0.02336248876864219</v>
       </c>
     </row>
     <row r="13">
@@ -4879,22 +4423,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1531017411006177</v>
+        <v>0.1529185908359161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.122578463350765</v>
+        <v>0.1171209632312568</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3671813852725708</v>
+        <v>0.3670203439355997</v>
       </c>
       <c r="E13" t="n">
-        <v>0.494829913325144</v>
+        <v>0.4953849389837875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2880361243129642</v>
+        <v>0.3101080814180058</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003643348932181048</v>
+        <v>0.0003673620568522616</v>
       </c>
     </row>
     <row r="14">
@@ -4904,22 +4448,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.095466667722997</v>
+        <v>1.091028618425576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8252050883302267</v>
+        <v>0.8274104358637283</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6361263097869077</v>
+        <v>0.6332193239465457</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00102894509365524</v>
+        <v>0.001078085278212779</v>
       </c>
       <c r="F14" t="n">
-        <v>3.537169887130584e-08</v>
+        <v>3.222844414614051e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>9.563728709212803e-05</v>
+        <v>0.0001026982954478532</v>
       </c>
     </row>
     <row r="15">
@@ -4929,22 +4473,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-20.24334747648257</v>
+        <v>-14.97943221869447</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2590963293448805</v>
+        <v>-0.2582123176376592</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2408353368426854</v>
+        <v>0.247938397742569</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9996136965018051</v>
+        <v>0.9960497576652149</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6460196137670963</v>
+        <v>0.6468273618549155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6166922560830169</v>
+        <v>0.6061025478656354</v>
       </c>
     </row>
     <row r="16">
@@ -4954,22 +4498,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4738427987363019</v>
+        <v>0.4751295239377694</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6516253245117685</v>
+        <v>0.6460234602963785</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8066614004949693</v>
+        <v>0.8065983095557189</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0535647115014352</v>
+        <v>0.05287578209610819</v>
       </c>
       <c r="F16" t="n">
-        <v>4.588506369890889e-08</v>
+        <v>5.935246319807602e-08</v>
       </c>
       <c r="G16" t="n">
-        <v>5.805815345662026e-14</v>
+        <v>5.734610874282279e-14</v>
       </c>
     </row>
     <row r="17">
@@ -4979,22 +4523,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.822492903065154</v>
+        <v>1.813404574419519</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4488230581321843</v>
+        <v>0.452167463471261</v>
       </c>
       <c r="D17" t="n">
-        <v>1.35040674868382</v>
+        <v>1.34455389504408</v>
       </c>
       <c r="E17" t="n">
-        <v>7.402551640076899e-09</v>
+        <v>8.732377003292324e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03896451908606749</v>
+        <v>0.03751141303579223</v>
       </c>
       <c r="G17" t="n">
-        <v>1.496037024427502e-17</v>
+        <v>1.986445477740169e-17</v>
       </c>
     </row>
     <row r="18">
@@ -5004,22 +4548,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6915760157785719</v>
+        <v>0.6911579811907126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.566911199891509</v>
+        <v>0.5696124614305399</v>
       </c>
       <c r="D18" t="n">
-        <v>1.388889948698441</v>
+        <v>1.390179943812512</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09353989805809881</v>
+        <v>0.0937276119522325</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002925894929064317</v>
+        <v>0.00279599531951446</v>
       </c>
       <c r="G18" t="n">
-        <v>2.759788219320224e-16</v>
+        <v>2.580542131105932e-16</v>
       </c>
     </row>
     <row r="19">
@@ -5029,22 +4573,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.1404112763606</v>
+        <v>1.131778239397043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3454274383014161</v>
+        <v>0.3440265960778923</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8792579708705605</v>
+        <v>0.8722269376369407</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1546073489048908</v>
+        <v>0.1577381239019837</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5079381916154569</v>
+        <v>0.5099851450442228</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004523026926847556</v>
+        <v>0.004829385423495545</v>
       </c>
     </row>
     <row r="20">
@@ -5054,22 +4598,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4024243837462319</v>
+        <v>0.4002332962080546</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5888425535111647</v>
+        <v>0.5876818588454609</v>
       </c>
       <c r="D20" t="n">
-        <v>0.73034349794731</v>
+        <v>0.7283926895546196</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1838425572954017</v>
+        <v>0.1862633819432115</v>
       </c>
       <c r="F20" t="n">
-        <v>1.17855025400721e-05</v>
+        <v>1.225496706319793e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>1.323914001770184e-08</v>
+        <v>1.443558679348037e-08</v>
       </c>
     </row>
     <row r="21">
@@ -5079,22 +4623,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.905379118706033</v>
+        <v>17.23368947400872</v>
       </c>
       <c r="C21" t="n">
-        <v>1.278806275359198</v>
+        <v>1.268494423244673</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2650975135263833</v>
+        <v>0.2672878922301837</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7265138111806654</v>
+        <v>0.997167754317572</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09498814429311979</v>
+        <v>0.0984244799234707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6609307342853035</v>
+        <v>0.6590426439342165</v>
       </c>
     </row>
     <row r="22">
@@ -5104,22 +4648,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.642320968956272</v>
+        <v>15.96830750649632</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3798335076532671</v>
+        <v>-0.39037498137803</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.914448235993919</v>
+        <v>-1.914474756466956</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7833699428503791</v>
+        <v>0.9973757109039579</v>
       </c>
       <c r="F22" t="n">
-        <v>0.622389661339393</v>
+        <v>0.6135366726348629</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001813086222900374</v>
+        <v>0.001856697769412324</v>
       </c>
     </row>
     <row r="23">
@@ -5129,22 +4673,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.799552025682788</v>
+        <v>17.13150361429057</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9780876563393646</v>
+        <v>0.9666931535806713</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3162775118349116</v>
+        <v>0.3211888827167977</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7311895211721766</v>
+        <v>0.9971845478300151</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1963536977773874</v>
+        <v>0.2026421758795922</v>
       </c>
       <c r="G23" t="n">
-        <v>0.595235606994405</v>
+        <v>0.5904141339807871</v>
       </c>
     </row>
     <row r="24">
@@ -5154,22 +4698,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.490175381563083</v>
+        <v>17.82125897946258</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9221157871499512</v>
+        <v>0.9128376603548848</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3867912079383343</v>
+        <v>0.3918684275982595</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7006360622170266</v>
+        <v>0.9970711914811915</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2226757938450888</v>
+        <v>0.2284181710629715</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5154137782880635</v>
+        <v>0.5109206023521922</v>
       </c>
     </row>
     <row r="25">
@@ -5179,22 +4723,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.972115229446181</v>
+        <v>-7.183118049170131</v>
       </c>
       <c r="C25" t="n">
-        <v>1.597880196340366</v>
+        <v>1.579588739644674</v>
       </c>
       <c r="D25" t="n">
-        <v>1.651105735233309</v>
+        <v>1.6487377790861</v>
       </c>
       <c r="E25" t="n">
-        <v>0.974670646283581</v>
+        <v>0.9999736984949579</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05825772590783678</v>
+        <v>0.06166862229504785</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01363860793216916</v>
+        <v>0.01395319794295609</v>
       </c>
     </row>
     <row r="26">
@@ -5204,22 +4748,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2173586507201143</v>
+        <v>-0.2173703700509676</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2581484100770529</v>
+        <v>0.2589405706751874</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5667047285494937</v>
+        <v>0.5666096746932247</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05513706582235134</v>
+        <v>0.05512764242968958</v>
       </c>
       <c r="F26" t="n">
-        <v>3.758520587029019e-06</v>
+        <v>3.502350865426496e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.931322900605304e-32</v>
+        <v>2.910373897346318e-32</v>
       </c>
     </row>
     <row r="27">
@@ -5229,22 +4773,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.008851320013667365</v>
+        <v>-0.008961451446547836</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.006956167207426723</v>
+        <v>-0.006768549077808866</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.008019586042502198</v>
+        <v>-0.008011628824677906</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1126889535718988</v>
+        <v>0.1083873890598733</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02692094006963641</v>
+        <v>0.03130839279181475</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0008757187783568351</v>
+        <v>0.0008844218051309569</v>
       </c>
     </row>
     <row r="28">
@@ -5254,22 +4798,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004512333676579687</v>
+        <v>-0.0004508008018077935</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.002950246530812545</v>
+        <v>-0.002949521693854075</v>
       </c>
       <c r="D28" t="n">
-        <v>5.525015321806e-05</v>
+        <v>5.518097824679743e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>2.670506151177618e-41</v>
+        <v>3.008092432122657e-41</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.415302021035775e-37</v>
+        <v>1.636425574917708e-37</v>
       </c>
     </row>
     <row r="29">
@@ -5279,22 +4823,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.388131617329215</v>
+        <v>-2.386213666259027</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.705668606199059</v>
+        <v>-2.70842683521314</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.973601807243529</v>
+        <v>-2.972493165710973</v>
       </c>
       <c r="E29" t="n">
-        <v>1.287120984117298e-64</v>
+        <v>1.777986558148699e-64</v>
       </c>
       <c r="F29" t="n">
-        <v>4.667227733755465e-177</v>
+        <v>2.091641597396727e-177</v>
       </c>
       <c r="G29" t="n">
-        <v>5.062383155332181e-287</v>
+        <v>6.882977859764128e-287</v>
       </c>
     </row>
     <row r="30">
@@ -5304,22 +4848,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1763128114350741</v>
+        <v>0.1761524680036691</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09617844762486569</v>
+        <v>0.09584095123793687</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09945939075661833</v>
+        <v>0.09940229164543958</v>
       </c>
       <c r="E30" t="n">
-        <v>3.6268497616428e-05</v>
+        <v>3.676896221739421e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>2.285854889924713e-05</v>
+        <v>2.445391269455037e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>4.428404341097245e-08</v>
+        <v>4.481413322224387e-08</v>
       </c>
     </row>
     <row r="31">
@@ -5329,22 +4873,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.2944992327912e-05</v>
+        <v>0.002472305229220465</v>
       </c>
       <c r="C31" t="n">
-        <v>3.050341635336479e-05</v>
+        <v>0.003286349762961145</v>
       </c>
       <c r="D31" t="n">
-        <v>1.575278444890095e-05</v>
+        <v>0.00169923321937749</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01578830005628241</v>
+        <v>0.009033618111177593</v>
       </c>
       <c r="F31" t="n">
-        <v>2.522882817430093e-07</v>
+        <v>2.132433744141783e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001193503129032962</v>
+        <v>0.0004328299570089099</v>
       </c>
     </row>
     <row r="32">
@@ -5354,22 +4898,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05219009179568974</v>
+        <v>0.04998361438556983</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01332042917263973</v>
+        <v>-0.01401329476168336</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02598397755255159</v>
+        <v>0.02439797086286538</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1337330438838443</v>
+        <v>0.1509841039177204</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3534636420632978</v>
+        <v>0.3300002880527989</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04436543852890284</v>
+        <v>0.05933348378877339</v>
       </c>
     </row>
     <row r="33">
@@ -5379,22 +4923,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.01894359174858675</v>
+        <v>-0.01707826268059956</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.08106337364876914</v>
+        <v>-0.08495057547949489</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07811383559545962</v>
+        <v>-0.07882492303889646</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4580520525841459</v>
+        <v>0.5024871742378616</v>
       </c>
       <c r="F33" t="n">
-        <v>7.21301937145398e-13</v>
+        <v>4.83854074883062e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>8.680446561397204e-15</v>
+        <v>3.93695419225272e-15</v>
       </c>
     </row>
     <row r="34">
@@ -5404,22 +4948,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01906342318646208</v>
+        <v>0.01858870049151366</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01015366979356543</v>
+        <v>0.01084456520627953</v>
       </c>
       <c r="D34" t="n">
-        <v>0.008214540076868658</v>
+        <v>0.008215596680912443</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005022836235529807</v>
+        <v>0.006390713862213338</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0002529028419170039</v>
+        <v>9.571704229256612e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0007620412062753456</v>
+        <v>0.0007710817023199808</v>
       </c>
     </row>
     <row r="35">
@@ -5429,22 +4973,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02807141623931309</v>
+        <v>0.02764947484550032</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007433139185164566</v>
+        <v>0.00771926127379804</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004452310993477255</v>
+        <v>0.004372121823127495</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00290716444239278</v>
+        <v>0.003357177353431514</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03480240055022886</v>
+        <v>0.0284573512468506</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1586133195745655</v>
+        <v>0.1662123696049015</v>
       </c>
     </row>
     <row r="36">
@@ -5454,22 +4998,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.021637075545401</v>
+        <v>0.02957156019635824</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.8289526612209531</v>
+        <v>-0.005554242575784832</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3621718448201103</v>
+        <v>-0.003195783450709363</v>
       </c>
       <c r="E36" t="n">
-        <v>2.826689970452213e-05</v>
+        <v>4.380331176189364e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03344219466282827</v>
+        <v>0.1522490449091562</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2641395983744823</v>
+        <v>0.3212000590244238</v>
       </c>
     </row>
     <row r="37">
@@ -5479,22 +5023,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.9781934669272472</v>
+        <v>-0.009851032766379218</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.20188162516173</v>
+        <v>-0.01176155319335251</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.08820594010647</v>
+        <v>-0.0105093978727504</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08622067638028789</v>
+        <v>0.08342439840553795</v>
       </c>
       <c r="F37" t="n">
-        <v>1.145639298484714e-05</v>
+        <v>1.85410717656e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>3.728543504442929e-06</v>
+        <v>8.110284284536037e-06</v>
       </c>
     </row>
     <row r="38">
@@ -5504,22 +5048,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9692579507213115</v>
+        <v>0.009740971927033595</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.9376008547653341</v>
+        <v>-0.009011233727903778</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1194269554091328</v>
+        <v>-0.0009115081425698247</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1822749744519016</v>
+        <v>0.1791022322289458</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00420369577495237</v>
+        <v>0.00593966900188695</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6816103679379999</v>
+        <v>0.7538799197457212</v>
       </c>
     </row>
     <row r="39">
@@ -5529,22 +5073,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.69005951242415e-05</v>
+        <v>0.005842024641043967</v>
       </c>
       <c r="C39" t="n">
-        <v>6.97033940683383e-05</v>
+        <v>0.003502266438046471</v>
       </c>
       <c r="D39" t="n">
-        <v>7.692060976639085e-05</v>
+        <v>0.00601502697008385</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05728686095023066</v>
+        <v>0.0515082712722976</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001474381330901982</v>
+        <v>0.05546971331639892</v>
       </c>
       <c r="G39" t="n">
-        <v>3.109751345182727e-05</v>
+        <v>8.986421315669388e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5610,22 +5154,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-24.06080238532529</v>
+        <v>-23.13996050051528</v>
       </c>
       <c r="C2" t="n">
-        <v>2.560549263682343</v>
+        <v>2.56289284806936</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.302343961335848</v>
+        <v>-1.272143149478696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9982879687365493</v>
+        <v>0.9974923192336014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002697772793627437</v>
+        <v>0.002675525269076035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07410333612673381</v>
+        <v>0.08123624896447604</v>
       </c>
     </row>
     <row r="3">
@@ -5635,22 +5179,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07198058994505643</v>
+        <v>-0.07203203298083029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002371707963189061</v>
+        <v>0.003342249425029147</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1046259441751376</v>
+        <v>-0.104714563672326</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6684599509169271</v>
+        <v>0.6681704428539936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9775766102806407</v>
+        <v>0.9683995885148869</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1625071902179223</v>
+        <v>0.1620714738018493</v>
       </c>
     </row>
     <row r="4">
@@ -5660,22 +5204,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6151955315822776</v>
+        <v>-0.6134213891498471</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7059129793837756</v>
+        <v>-0.7044277233322314</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8901610947355408</v>
+        <v>-0.8884421982699279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01228036998614604</v>
+        <v>0.01255053770272878</v>
       </c>
       <c r="F4" t="n">
-        <v>1.00166513290063e-08</v>
+        <v>1.066592336871557e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>3.019251165669386e-13</v>
+        <v>3.32368601532851e-13</v>
       </c>
     </row>
     <row r="5">
@@ -5685,22 +5229,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4587673124577308</v>
+        <v>-0.4635614133636062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07118131954726488</v>
+        <v>0.06978381672246155</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3424681276501535</v>
+        <v>-0.3453923382220138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03552350517516232</v>
+        <v>0.03365617821336803</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4575861751347221</v>
+        <v>0.4663990064325942</v>
       </c>
       <c r="G5" t="n">
-        <v>9.609178662133353e-05</v>
+        <v>8.355578157320936e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5710,22 +5254,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1029817804101691</v>
+        <v>-0.1045727549284546</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2102531784002868</v>
+        <v>-0.2087699705313842</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2409354457097447</v>
+        <v>-0.2416659160361603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6851770770582166</v>
+        <v>0.6805746766217684</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2024301831397814</v>
+        <v>0.2056348914327013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006247520566249013</v>
+        <v>0.006087279876026828</v>
       </c>
     </row>
     <row r="7">
@@ -5735,22 +5279,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1276865973108338</v>
+        <v>-0.129376112337243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06136229748843831</v>
+        <v>0.0609552080231566</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4083937467693091</v>
+        <v>-0.4097036999034929</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4986023337818387</v>
+        <v>0.4929805364328818</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4675966803919765</v>
+        <v>0.4705613843535488</v>
       </c>
       <c r="G7" t="n">
-        <v>8.110970358469539e-06</v>
+        <v>7.602951628947548e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5760,22 +5304,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.450384892928016</v>
+        <v>1.450846543629564</v>
       </c>
       <c r="C8" t="n">
-        <v>1.024692539571364</v>
+        <v>1.027394747599709</v>
       </c>
       <c r="D8" t="n">
-        <v>1.566964870415448</v>
+        <v>1.567985344288489</v>
       </c>
       <c r="E8" t="n">
-        <v>8.240702395363328e-10</v>
+        <v>8.048067505836785e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>1.676692586524838e-32</v>
+        <v>1.145430385297043e-32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.147035409345275e-42</v>
+        <v>1.002196829664184e-42</v>
       </c>
     </row>
     <row r="9">
@@ -5785,22 +5329,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.439747582457624</v>
+        <v>1.442305220416894</v>
       </c>
       <c r="C9" t="n">
-        <v>1.878914313655625</v>
+        <v>1.881773743935103</v>
       </c>
       <c r="D9" t="n">
-        <v>2.571470885150735</v>
+        <v>2.574485313449808</v>
       </c>
       <c r="E9" t="n">
-        <v>2.058433084463123e-05</v>
+        <v>1.994418358560947e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>2.352896365074522e-43</v>
+        <v>1.773542033915538e-43</v>
       </c>
       <c r="G9" t="n">
-        <v>2.866903365808929e-58</v>
+        <v>2.129463967320433e-58</v>
       </c>
     </row>
     <row r="10">
@@ -5810,22 +5354,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.301710495454131</v>
+        <v>1.303084763134101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7455630168880668</v>
+        <v>0.7469011251175348</v>
       </c>
       <c r="D10" t="n">
-        <v>1.067535574827424</v>
+        <v>1.068399828438215</v>
       </c>
       <c r="E10" t="n">
-        <v>7.020912329958306e-07</v>
+        <v>6.816908770966476e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>3.413953937033179e-14</v>
+        <v>3.068101690277642e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>5.048583599701102e-16</v>
+        <v>4.805058215606582e-16</v>
       </c>
     </row>
     <row r="11">
@@ -5835,22 +5379,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.416129841200864</v>
+        <v>2.418273409309231</v>
       </c>
       <c r="C11" t="n">
-        <v>1.348712125757277</v>
+        <v>1.348448600644853</v>
       </c>
       <c r="D11" t="n">
-        <v>2.225448230564318</v>
+        <v>2.226214672211328</v>
       </c>
       <c r="E11" t="n">
-        <v>4.356967706746452e-24</v>
+        <v>4.031194061787182e-24</v>
       </c>
       <c r="F11" t="n">
-        <v>1.238473611820555e-35</v>
+        <v>1.205436508661746e-35</v>
       </c>
       <c r="G11" t="n">
-        <v>5.275577239792601e-80</v>
+        <v>4.910298950841679e-80</v>
       </c>
     </row>
     <row r="12">
@@ -5860,22 +5404,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-15.93886465701931</v>
+        <v>-15.88754637721706</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5534847888896418</v>
+        <v>-0.546821695237756</v>
       </c>
       <c r="D12" t="n">
-        <v>1.082029901274663</v>
+        <v>1.091902760672874</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9964183151456677</v>
+        <v>0.9963476369527016</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2343215044119806</v>
+        <v>0.2393028718523647</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001583101819523379</v>
+        <v>0.00141958972144386</v>
       </c>
     </row>
     <row r="13">
@@ -5885,22 +5429,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02443693457175511</v>
+        <v>-0.02560295384763964</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1021104899425861</v>
+        <v>0.09708603767697221</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3018806163282917</v>
+        <v>0.3006942404144892</v>
       </c>
       <c r="E13" t="n">
-        <v>0.916356951739554</v>
+        <v>0.9123833665150176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3685254607002219</v>
+        <v>0.392436795411914</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003682642367871186</v>
+        <v>0.003820254335247592</v>
       </c>
     </row>
     <row r="14">
@@ -5910,22 +5454,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9305028716914235</v>
+        <v>0.924689859864944</v>
       </c>
       <c r="C14" t="n">
-        <v>0.838145871472106</v>
+        <v>0.8402879967152793</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7417074434082279</v>
+        <v>0.7374737398839417</v>
       </c>
       <c r="E14" t="n">
-        <v>0.006529544317720003</v>
+        <v>0.006873510174603593</v>
       </c>
       <c r="F14" t="n">
-        <v>3.142176523402449e-08</v>
+        <v>2.882575339947937e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>5.056971152430593e-06</v>
+        <v>5.747191286437179e-06</v>
       </c>
     </row>
     <row r="15">
@@ -5935,22 +5479,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-18.81245003511282</v>
+        <v>-19.28517716832528</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1232239330530351</v>
+        <v>0.1289263590811284</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3371163997980123</v>
+        <v>0.3411087885057792</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9991419438442664</v>
+        <v>0.9993075639142369</v>
       </c>
       <c r="F15" t="n">
-        <v>0.828951505146921</v>
+        <v>0.8210932304015417</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4892046552975294</v>
+        <v>0.4838279128788086</v>
       </c>
     </row>
     <row r="16">
@@ -5960,22 +5504,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2905190669974884</v>
+        <v>0.2919001835682972</v>
       </c>
       <c r="C16" t="n">
-        <v>0.593479174067805</v>
+        <v>0.5891095894517054</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7907472797141846</v>
+        <v>0.7901333776738111</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2374453812155832</v>
+        <v>0.2351234800333321</v>
       </c>
       <c r="F16" t="n">
-        <v>5.584375042453113e-07</v>
+        <v>6.727541375958086e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>1.493785817523022e-13</v>
+        <v>1.533332189618636e-13</v>
       </c>
     </row>
     <row r="17">
@@ -5985,22 +5529,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.835438765593496</v>
+        <v>1.824495511034067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5807515659004642</v>
+        <v>0.5865644755195535</v>
       </c>
       <c r="D17" t="n">
-        <v>1.353316007320416</v>
+        <v>1.348340668805967</v>
       </c>
       <c r="E17" t="n">
-        <v>2.260185501154126e-09</v>
+        <v>2.820778140896355e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007354312624440119</v>
+        <v>0.006793570828883401</v>
       </c>
       <c r="G17" t="n">
-        <v>3.815769118005737e-17</v>
+        <v>4.879676361342902e-17</v>
       </c>
     </row>
     <row r="18">
@@ -6010,22 +5554,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9514576336218009</v>
+        <v>0.9489064774319823</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7336852584229395</v>
+        <v>0.7386494446831371</v>
       </c>
       <c r="D18" t="n">
-        <v>1.480180307069275</v>
+        <v>1.481397235432916</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01767682910727339</v>
+        <v>0.01797322739357241</v>
       </c>
       <c r="F18" t="n">
-        <v>9.725109401471193e-05</v>
+        <v>8.737318923643493e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>5.779003403638632e-18</v>
+        <v>5.395052107149683e-18</v>
       </c>
     </row>
     <row r="19">
@@ -6035,22 +5579,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.533886380754821</v>
+        <v>1.520565711899949</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3316150287016842</v>
+        <v>0.3311933086863915</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999206080325736</v>
+        <v>0.9917312513079438</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02431055717414937</v>
+        <v>0.02558057557839734</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5167284379687689</v>
+        <v>0.5177844486252632</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0008562852930956129</v>
+        <v>0.0009338255333147838</v>
       </c>
     </row>
     <row r="20">
@@ -6060,22 +5604,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3603629517040314</v>
+        <v>0.3573099968515178</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6923297502517034</v>
+        <v>0.6915305256679116</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7171968128450554</v>
+        <v>0.7151813175511852</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2209523535432011</v>
+        <v>0.224905357763509</v>
       </c>
       <c r="F20" t="n">
-        <v>2.686318892835422e-07</v>
+        <v>2.77001198485882e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>2.345377101838412e-08</v>
+        <v>2.568913926793929e-08</v>
       </c>
     </row>
     <row r="21">
@@ -6085,22 +5629,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.26359234435401</v>
+        <v>18.44013480245328</v>
       </c>
       <c r="C21" t="n">
-        <v>1.571572528778429</v>
+        <v>1.574977722773622</v>
       </c>
       <c r="D21" t="n">
-        <v>0.667444930781203</v>
+        <v>0.6753967301458912</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9986293108129101</v>
+        <v>0.9980016387701447</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01856377807943605</v>
+        <v>0.01827612319960726</v>
       </c>
       <c r="G21" t="n">
-        <v>0.223825770502605</v>
+        <v>0.218765214399227</v>
       </c>
     </row>
     <row r="22">
@@ -6110,22 +5654,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.02129385000136</v>
+        <v>17.1962158238966</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1172033862864891</v>
+        <v>-0.1133176611887035</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.557225371198545</v>
+        <v>-1.549776839614975</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9987177057275903</v>
+        <v>0.9981364422744968</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8619373183839171</v>
+        <v>0.8664340964688773</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00535623656084387</v>
+        <v>0.005622149706916117</v>
       </c>
     </row>
     <row r="23">
@@ -6135,22 +5679,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.39826259722061</v>
+        <v>18.57866158733627</v>
       </c>
       <c r="C23" t="n">
-        <v>1.336809234922991</v>
+        <v>1.339653321852885</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7638186804865205</v>
+        <v>0.7746451610757319</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9986197284421452</v>
+        <v>0.9979866266240666</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04207639853030304</v>
+        <v>0.04158187614937986</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1561540470965842</v>
+        <v>0.1507442334310883</v>
       </c>
     </row>
     <row r="24">
@@ -6160,22 +5704,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.94560160459735</v>
+        <v>19.12529586544791</v>
       </c>
       <c r="C24" t="n">
-        <v>1.297956398166995</v>
+        <v>1.303047716872502</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8554486148227466</v>
+        <v>0.8667189487883163</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9985807829089623</v>
+        <v>0.9979273878861041</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04811540101092227</v>
+        <v>0.04717595096070989</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1117077262573989</v>
+        <v>0.1073865830627706</v>
       </c>
     </row>
     <row r="25">
@@ -6185,22 +5729,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.0603768598628</v>
+        <v>19.23276612611268</v>
       </c>
       <c r="C25" t="n">
-        <v>1.696398582744786</v>
+        <v>1.690008405156282</v>
       </c>
       <c r="D25" t="n">
-        <v>2.022738875723038</v>
+        <v>2.024770140726917</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9985726161578232</v>
+        <v>0.9979157413502171</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0229379402518609</v>
+        <v>0.02343494420151355</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0009729202811554844</v>
+        <v>0.000969428061904268</v>
       </c>
     </row>
     <row r="26">
@@ -6210,22 +5754,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1483778328200825</v>
+        <v>-0.1478088263763412</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243483037139867</v>
+        <v>0.2447948973466899</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5204923226793963</v>
+        <v>0.520880246384722</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1838375571356899</v>
+        <v>0.1855454475838234</v>
       </c>
       <c r="F26" t="n">
-        <v>1.076383723597205e-05</v>
+        <v>9.617625007744533e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.34844616074733e-27</v>
+        <v>2.102133989081354e-27</v>
       </c>
     </row>
     <row r="27">
@@ -6235,22 +5779,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.006068773074053036</v>
+        <v>-0.006215462313089995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.005263012770680218</v>
+        <v>-0.005067927684069686</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.007316305748605937</v>
+        <v>-0.00729430550166343</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2826065131466182</v>
+        <v>0.2713639532564913</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09410062897600256</v>
+        <v>0.1068922376145032</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002532431769740418</v>
+        <v>0.00260190565295511</v>
       </c>
     </row>
     <row r="28">
@@ -6260,22 +5804,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0004238899279204129</v>
+        <v>-0.0004234020161352933</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.002891239170515208</v>
+        <v>-0.00289064884990315</v>
       </c>
       <c r="D28" t="n">
-        <v>5.831055562638595e-05</v>
+        <v>5.819730585987901e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>2.84483830350859e-39</v>
+        <v>3.257470269119317e-39</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.133700463592098e-41</v>
+        <v>6.983896525345517e-41</v>
       </c>
     </row>
     <row r="29">
@@ -6285,22 +5829,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.368061942740834</v>
+        <v>-2.364746187993009</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.667819476442354</v>
+        <v>-2.669441369273266</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.937979645379882</v>
+        <v>-2.9364182783428</v>
       </c>
       <c r="E29" t="n">
-        <v>2.77688000284909e-64</v>
+        <v>4.829534846119347e-64</v>
       </c>
       <c r="F29" t="n">
-        <v>7.255774725713452e-176</v>
+        <v>4.27307730097099e-176</v>
       </c>
       <c r="G29" t="n">
-        <v>4.192338779943759e-283</v>
+        <v>8.185629262036361e-283</v>
       </c>
     </row>
     <row r="30">
@@ -6310,22 +5854,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1691251252936941</v>
+        <v>0.1689553284560718</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08426791037473362</v>
+        <v>0.08396819475258688</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07214268393282211</v>
+        <v>0.07192567530927671</v>
       </c>
       <c r="E30" t="n">
-        <v>6.136986920298629e-05</v>
+        <v>6.249925238051135e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001973605804437975</v>
+        <v>0.0002082896132730645</v>
       </c>
       <c r="G30" t="n">
-        <v>7.488485429095502e-05</v>
+        <v>7.850297299771864e-05</v>
       </c>
     </row>
     <row r="31">
@@ -6335,22 +5879,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.359249203997878e-05</v>
+        <v>0.00254015763304362</v>
       </c>
       <c r="C31" t="n">
-        <v>2.983567153756102e-05</v>
+        <v>0.003215258466456645</v>
       </c>
       <c r="D31" t="n">
-        <v>1.804019166999199e-05</v>
+        <v>0.001934369337823596</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01224849683377705</v>
+        <v>0.006735897276359643</v>
       </c>
       <c r="F31" t="n">
-        <v>4.484543166017199e-07</v>
+        <v>4.048578731754958e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0002359550007635798</v>
+        <v>7.06019473873807e-05</v>
       </c>
     </row>
     <row r="32">
@@ -6360,22 +5904,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02654320772054901</v>
+        <v>0.02398508167212005</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.02142016697705049</v>
+        <v>-0.02223785746656317</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01864216145876679</v>
+        <v>0.01717225278337552</v>
       </c>
       <c r="E32" t="n">
-        <v>0.439021028186892</v>
+        <v>0.4839618485615901</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1337832312820272</v>
+        <v>0.1203530484408151</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1493462268882922</v>
+        <v>0.184627414488414</v>
       </c>
     </row>
     <row r="33">
@@ -6385,22 +5929,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.01353959043371126</v>
+        <v>-0.01157642878319566</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.08033675958200562</v>
+        <v>-0.0841457363512188</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07949099798848318</v>
+        <v>-0.08029084679596937</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5946580449228764</v>
+        <v>0.6479035453862814</v>
       </c>
       <c r="F33" t="n">
-        <v>1.051212663097567e-12</v>
+        <v>7.465630797738091e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>4.269267285708711e-15</v>
+        <v>1.772156786364348e-15</v>
       </c>
     </row>
     <row r="34">
@@ -6410,22 +5954,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01441073688761204</v>
+        <v>0.01388712457596151</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01030816698482425</v>
+        <v>0.01094763935355014</v>
       </c>
       <c r="D34" t="n">
-        <v>0.006470126667991439</v>
+        <v>0.006467440080393299</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0288493927767996</v>
+        <v>0.03550983622870711</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0001894349358697789</v>
+        <v>7.563121645993678e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.008327553976495866</v>
+        <v>0.008423658111724483</v>
       </c>
     </row>
     <row r="35">
@@ -6435,22 +5979,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01833494220270649</v>
+        <v>0.01789470267204048</v>
       </c>
       <c r="C35" t="n">
-        <v>0.008448985621787272</v>
+        <v>0.008708337850169386</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002264528177925366</v>
+        <v>0.002208708961958191</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04417609954718286</v>
+        <v>0.04890786498162639</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01563555227606428</v>
+        <v>0.01277827679087734</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4717831674783379</v>
+        <v>0.4827784596844182</v>
       </c>
     </row>
     <row r="36">
@@ -6460,22 +6004,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.702640249854682</v>
+        <v>0.02623105878454223</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.8760479162783433</v>
+        <v>-0.006195836248206138</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.4209121939006085</v>
+        <v>-0.003784893882753462</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001421000172582361</v>
+        <v>0.0002300633344056358</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02316155626839668</v>
+        <v>0.106348297791295</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1948776952126038</v>
+        <v>0.2405918404192137</v>
       </c>
     </row>
     <row r="37">
@@ -6485,22 +6029,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.007311265121893</v>
+        <v>-0.01007102066642206</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.124097394997799</v>
+        <v>-0.01095155872766038</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.110111312939269</v>
+        <v>-0.01072501381168306</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0715666629310481</v>
+        <v>0.07081789002728424</v>
       </c>
       <c r="F37" t="n">
-        <v>3.728829906705889e-05</v>
+        <v>6.191771183501996e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>2.370124368211302e-06</v>
+        <v>5.301768552447964e-06</v>
       </c>
     </row>
     <row r="38">
@@ -6510,22 +6054,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5327141584715269</v>
+        <v>0.005451030156149409</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.016568555907479</v>
+        <v>-0.009793914161952142</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.09586962650622256</v>
+        <v>-0.0006812958669516534</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4602421809239</v>
+        <v>0.4485755487809401</v>
       </c>
       <c r="F38" t="n">
-        <v>0.001845383820835071</v>
+        <v>0.002700758164333371</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7414496830956084</v>
+        <v>0.8144093645484917</v>
       </c>
     </row>
     <row r="39">
@@ -6535,22 +6079,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.12677833918993e-05</v>
+        <v>0.007165990569503392</v>
       </c>
       <c r="C39" t="n">
-        <v>7.539729432300722e-05</v>
+        <v>0.004120749143734056</v>
       </c>
       <c r="D39" t="n">
-        <v>7.767637115511705e-05</v>
+        <v>0.006064647342649599</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0191714562029035</v>
+        <v>0.01511729078429897</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0005666887241620513</v>
+        <v>0.02359795265813428</v>
       </c>
       <c r="G39" t="n">
-        <v>3.537826689770495e-05</v>
+        <v>0.0001008214726876983</v>
       </c>
     </row>
   </sheetData>
@@ -7165,24 +6709,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-21.05856250162748</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.562090122239765</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.693540996390747</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9881149823407057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.004674050810328459</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.02442948696801685</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7190,24 +6722,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.007181177658511978</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04266088905447465</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.08136198335240884</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9656522875676689</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6165007165296486</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2774845922039767</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7215,24 +6735,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.5675542680610689</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6082147095669324</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.8373508942045362</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0214045236968807</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.668337351303238e-07</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.685428793208678e-12</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7240,24 +6748,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.4035610628055804</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08552125756131501</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.3342106973005514</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05749464456297777</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.376744077777619</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0001253722342123873</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7265,24 +6761,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.01444746295878039</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.2565571895100951</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.2273060759499742</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9521692853254016</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1285020805180411</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.008881621777640774</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7290,24 +6774,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.03578201660313358</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0265675765622485</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.5256306976331685</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8452124328303322</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7534812233559838</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.393286671692336e-08</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7315,24 +6787,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.475888982046423</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.064696932122527</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.561167645449803</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.618468826340931e-11</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.069182323865223e-34</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.987724465740287e-43</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7340,24 +6800,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1.71393100048394</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.927858300761361</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.565872089944403</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.303941606183968e-07</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.201433319965311e-44</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.849512681279767e-58</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7365,24 +6813,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.211181653158961</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7155149378360912</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.053698505671505</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.94192661303642e-06</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.19473319528323e-13</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.239826053298292e-16</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7390,24 +6826,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.390692119652662</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.352192230051794</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.243690674606409</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.182278131327962e-25</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.036616524798793e-35</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.286372321313169e-83</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7415,24 +6839,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>-35.32317433740161</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.2010572359140318</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.125594207275664</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9999996069777657</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.698173373108639</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.001780552662920845</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7440,24 +6852,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.004346600012379047</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1618731090931914</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3584759994373642</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9848846406120025</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1581335173452041</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0005213054143864131</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7465,24 +6865,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.9858269613893674</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7670735872969878</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5778579487459933</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.002223669135325199</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.87500152865587e-07</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0003777178735197839</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7490,24 +6878,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-18.4495650659827</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.04740624605696566</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1169622507075236</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9988878031169911</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9348028460582311</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8117298835809031</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7515,24 +6891,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.4041925540385799</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4789060271631739</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.7313695542225541</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.09277021875786444</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6.026381569332308e-05</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.317982050284086e-12</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7540,24 +6904,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1.468304049902799</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4924782459650551</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.344564445430423</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.698115112641952e-06</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0237176009030902</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.810429572328564e-17</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7565,24 +6917,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.6409168949655256</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7072783821459182</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.47759259053662</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.110724955062875</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0001952229164614023</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.799809226988977e-18</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7590,24 +6930,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>1.211464705887737</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3062083779164795</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8446193795163723</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.07640964316778751</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5438162333280142</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.006143001945203862</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7615,24 +6943,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.4516108039302935</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6486332142520906</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.7229239251252066</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.108784342649583</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.422922711767836e-06</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.254472267058801e-08</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7640,24 +6956,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>14.61707569972804</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.459356699924812</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8887024316081015</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9917502624821002</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.04513020295754579</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1248295155483313</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7665,24 +6969,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>13.41150563421351</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.2200286969192</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-1.344962618533749</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9924306534485968</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.7645398082192788</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.02240519525034991</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7690,24 +6982,12 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>14.75504035869269</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.25221576521953</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9548585877552789</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9916723992064059</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.08163098975889964</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.09361759607430667</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7715,24 +6995,12 @@
           <t>Education[T.University]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>15.32759261880377</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.141456729901833</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.007415383902038</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9913492687049122</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1120957724674989</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.07658492661219181</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7740,24 +7008,12 @@
           <t>Education[T.Unknown]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>15.30477977153715</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.472413360126403</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2.051567303379309</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9913621447773934</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.06476854550400009</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.001317549628928927</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7765,24 +7021,12 @@
           <t>Sex</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.2257722695312893</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2877895016739367</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5524031171680974</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0431580311073021</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.720015788472196e-07</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.498203867840813e-30</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7790,24 +7034,12 @@
           <t>Age</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>-0.007892331320440369</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.003624965034218569</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.006039473764409579</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.1525157001455688</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.2491994256295813</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0116056247406393</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7815,24 +7047,12 @@
           <t>Trip_Distance</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>-0.0004157669652445172</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.002973432356874973</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5.584269985655649e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.434575423513759e-39</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7.571582485923054e-39</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7840,24 +7060,12 @@
           <t>CarOwnershipHH</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-2.413772392833123</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-2.771519499745247</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-3.022845433688619</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.492884129440982e-66</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.793947321564729e-180</v>
-      </c>
-      <c r="G29" t="n">
-        <v>8.877479041197043e-288</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7865,24 +7073,12 @@
           <t>HHSize</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.1921535683108446</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1013475690241153</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.08735323906461336</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.003894077668931e-06</v>
-      </c>
-      <c r="F30" t="n">
-        <v>8.452863493501882e-06</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.42423196630691e-06</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7890,24 +7086,12 @@
           <t>UrbPopDensity_res</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>1.989086574910505e-05</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.191126049646977e-05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.611606347828347e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.03396924815182145</v>
-      </c>
-      <c r="F31" t="n">
-        <v>8.078972875245833e-08</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.001041062444426888</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7915,24 +7099,12 @@
           <t>DistSubcenter_res</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.05150653344988047</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.01302255073974959</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0276292200201486</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.12950581006897</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.3669254189139186</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.03304332840151634</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7940,24 +7112,12 @@
           <t>DistCenter_res</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>-0.0124086925927437</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.06839765985061678</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.07856359653644181</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.6217855609635026</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.665456333479766e-09</v>
-      </c>
-      <c r="G33" t="n">
-        <v>7.612458412029141e-15</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7965,24 +7125,12 @@
           <t>IntersecDensity_res</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.0222013100928578</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.009086822037752325</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.007077878839031849</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0007632067550449693</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.001086000569032264</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.003636334671391128</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7990,24 +7138,12 @@
           <t>street_length_res</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0.0287056874371371</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.007632331858936486</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.00243843387399991</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.002062186152667453</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.03182560069767658</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.4417845596144262</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8015,24 +7151,12 @@
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>3.125646827133218</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.54631986252653</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.2556178251024427</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.023064206296945e-05</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.16335100291159</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.4323971188660792</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8040,24 +7164,12 @@
           <t>LU_UrbFab_res</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>-0.7575517456689574</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-1.049482383050675</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-0.8811016319868645</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.1745044121629912</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0001367600307178164</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.0001874351969802683</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8065,24 +7177,12 @@
           <t>LU_Comm_res</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>1.016118045064573</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.9322557446977411</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.03272448351389399</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.1543405819494036</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.004570914453738462</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.9103982676049973</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8090,24 +7190,12 @@
           <t>transit_accessibility_res</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>5.973422252757534e-05</v>
-      </c>
-      <c r="C39" t="n">
-        <v>7.67334345052232e-05</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6.858815276932395e-05</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.08710525909253893</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0004987809755094523</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.0002709682358770652</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
